--- a/AccessibleVaccineDashboardData/2021-02-07.xlsx
+++ b/AccessibleVaccineDashboardData/2021-02-07.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dnicholas000\Desktop\COVID19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FEFA083E-FF51-4B7E-982D-AC37404A7D50}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F0133808-9C57-4E57-B0DA-B37D2F4917F3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1375" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="311">
   <si>
     <t>County Name</t>
   </si>
@@ -1035,168 +1035,6 @@
   </si>
   <si>
     <t>2018 Population Estimates available from the U.S. Census Bureau at https://www.census.gov/data/tables/time-series/demo/popest/2010s-counties-detail.html.</t>
-  </si>
-  <si>
-    <t>12/14/2020</t>
-  </si>
-  <si>
-    <t>12/15/2020</t>
-  </si>
-  <si>
-    <t>12/16/2020</t>
-  </si>
-  <si>
-    <t>12/17/2020</t>
-  </si>
-  <si>
-    <t>12/18/2020</t>
-  </si>
-  <si>
-    <t>12/19/2020</t>
-  </si>
-  <si>
-    <t>12/20/2020</t>
-  </si>
-  <si>
-    <t>12/21/2020</t>
-  </si>
-  <si>
-    <t>12/22/2020</t>
-  </si>
-  <si>
-    <t>12/23/2020</t>
-  </si>
-  <si>
-    <t>12/24/2020</t>
-  </si>
-  <si>
-    <t>12/25/2020</t>
-  </si>
-  <si>
-    <t>12/26/2020</t>
-  </si>
-  <si>
-    <t>12/27/2020</t>
-  </si>
-  <si>
-    <t>12/28/2020</t>
-  </si>
-  <si>
-    <t>12/29/2020</t>
-  </si>
-  <si>
-    <t>12/30/2020</t>
-  </si>
-  <si>
-    <t>12/31/2020</t>
-  </si>
-  <si>
-    <t>1/1/2021</t>
-  </si>
-  <si>
-    <t>1/2/2021</t>
-  </si>
-  <si>
-    <t>1/3/2021</t>
-  </si>
-  <si>
-    <t>1/4/2021</t>
-  </si>
-  <si>
-    <t>1/5/2021</t>
-  </si>
-  <si>
-    <t>1/6/2021</t>
-  </si>
-  <si>
-    <t>1/7/2021</t>
-  </si>
-  <si>
-    <t>1/8/2021</t>
-  </si>
-  <si>
-    <t>1/9/2021</t>
-  </si>
-  <si>
-    <t>1/10/2021</t>
-  </si>
-  <si>
-    <t>1/11/2021</t>
-  </si>
-  <si>
-    <t>1/12/2021</t>
-  </si>
-  <si>
-    <t>1/13/2021</t>
-  </si>
-  <si>
-    <t>1/14/2021</t>
-  </si>
-  <si>
-    <t>1/15/2021</t>
-  </si>
-  <si>
-    <t>1/16/2021</t>
-  </si>
-  <si>
-    <t>1/17/2021</t>
-  </si>
-  <si>
-    <t>1/18/2021</t>
-  </si>
-  <si>
-    <t>1/19/2021</t>
-  </si>
-  <si>
-    <t>1/20/2021</t>
-  </si>
-  <si>
-    <t>1/21/2021</t>
-  </si>
-  <si>
-    <t>1/22/2021</t>
-  </si>
-  <si>
-    <t>1/23/2021</t>
-  </si>
-  <si>
-    <t>1/24/2021</t>
-  </si>
-  <si>
-    <t>1/25/2021</t>
-  </si>
-  <si>
-    <t>1/26/2021</t>
-  </si>
-  <si>
-    <t>1/27/2021</t>
-  </si>
-  <si>
-    <t>1/28/2021</t>
-  </si>
-  <si>
-    <t>1/29/2021</t>
-  </si>
-  <si>
-    <t>1/30/2021</t>
-  </si>
-  <si>
-    <t>1/31/2021</t>
-  </si>
-  <si>
-    <t>2/1/2021</t>
-  </si>
-  <si>
-    <t>2/2/2021</t>
-  </si>
-  <si>
-    <t>2/3/2021</t>
-  </si>
-  <si>
-    <t>2/4/2021</t>
-  </si>
-  <si>
-    <t>2/5/2021</t>
   </si>
 </sst>
 </file>
@@ -1302,7 +1140,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1402,6 +1240,12 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1720,7 +1564,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1728,7 +1574,7 @@
     <col min="2" max="2" width="121.46484375" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="48.65" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>270</v>
       </c>
@@ -1736,15 +1582,15 @@
         <v>304</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A2" s="28" t="s">
         <v>305</v>
       </c>
       <c r="B2" s="29">
-        <v>44233</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>44234</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>267</v>
       </c>
@@ -1768,7 +1614,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>3</v>
       </c>
@@ -1776,7 +1622,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>4</v>
       </c>
@@ -1792,7 +1638,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>264</v>
       </c>
@@ -1800,7 +1646,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>261</v>
       </c>
@@ -1808,7 +1654,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" ht="113.4" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>265</v>
       </c>
@@ -1846,23 +1692,23 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:K259"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19" style="14" customWidth="1"/>
     <col min="2" max="3" width="12.19921875" style="6" customWidth="1"/>
     <col min="4" max="5" width="20.6640625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="15.796875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="15.73046875" style="6" customWidth="1"/>
     <col min="7" max="7" width="11.46484375" style="6" customWidth="1"/>
     <col min="8" max="8" width="13.19921875" style="6" customWidth="1"/>
     <col min="9" max="9" width="15.06640625" style="6" customWidth="1"/>
-    <col min="10" max="10" width="14.796875" style="6" customWidth="1"/>
+    <col min="10" max="10" width="14.73046875" style="6" customWidth="1"/>
     <col min="11" max="11" width="12" style="6" customWidth="1"/>
     <col min="12" max="16384" width="9.19921875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="64.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1910,15 +1756,15 @@
       </c>
       <c r="D2" s="4">
         <f t="shared" ref="D2:K2" si="0">SUM(D4:D258)</f>
-        <v>3063297</v>
+        <v>3202062</v>
       </c>
       <c r="E2" s="4">
         <f t="shared" si="0"/>
-        <v>2330010</v>
+        <v>2423278</v>
       </c>
       <c r="F2" s="4">
         <f t="shared" si="0"/>
-        <v>733287</v>
+        <v>778784</v>
       </c>
       <c r="G2" s="4">
         <f t="shared" si="0"/>
@@ -1941,7 +1787,7 @@
         <v>8218444</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" s="1" customFormat="1" ht="28.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
         <v>296</v>
       </c>
@@ -1976,7 +1822,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A4" s="34" t="s">
         <v>5</v>
       </c>
@@ -1987,13 +1833,13 @@
         <v>6200</v>
       </c>
       <c r="D4" s="32">
-        <v>2638</v>
+        <v>2769</v>
       </c>
       <c r="E4" s="32">
-        <v>2251</v>
+        <v>2327</v>
       </c>
       <c r="F4" s="32">
-        <v>387</v>
+        <v>442</v>
       </c>
       <c r="G4" s="33">
         <v>48158</v>
@@ -2011,7 +1857,7 @@
         <v>20361</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A5" s="34" t="s">
         <v>7</v>
       </c>
@@ -2022,13 +1868,13 @@
         <v>1600</v>
       </c>
       <c r="D5" s="32">
-        <v>2838</v>
+        <v>2859</v>
       </c>
       <c r="E5" s="32">
-        <v>2218</v>
+        <v>2237</v>
       </c>
       <c r="F5" s="32">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="G5" s="33">
         <v>12998</v>
@@ -2046,7 +1892,7 @@
         <v>5225</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A6" s="34" t="s">
         <v>8</v>
       </c>
@@ -2057,13 +1903,13 @@
         <v>13600</v>
       </c>
       <c r="D6" s="32">
-        <v>10173</v>
+        <v>10433</v>
       </c>
       <c r="E6" s="32">
-        <v>7263</v>
+        <v>7317</v>
       </c>
       <c r="F6" s="32">
-        <v>2910</v>
+        <v>3116</v>
       </c>
       <c r="G6" s="33">
         <v>67140</v>
@@ -2081,7 +1927,7 @@
         <v>28251</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A7" s="34" t="s">
         <v>9</v>
       </c>
@@ -2092,13 +1938,13 @@
         <v>1100</v>
       </c>
       <c r="D7" s="32">
-        <v>1948</v>
+        <v>2000</v>
       </c>
       <c r="E7" s="32">
-        <v>1598</v>
+        <v>1629</v>
       </c>
       <c r="F7" s="32">
-        <v>350</v>
+        <v>371</v>
       </c>
       <c r="G7" s="33">
         <v>19788</v>
@@ -2116,7 +1962,7 @@
         <v>6706</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A8" s="34" t="s">
         <v>10</v>
       </c>
@@ -2127,13 +1973,13 @@
         <v>700</v>
       </c>
       <c r="D8" s="32">
-        <v>1179</v>
+        <v>1233</v>
       </c>
       <c r="E8" s="32">
-        <v>926</v>
+        <v>948</v>
       </c>
       <c r="F8" s="32">
-        <v>253</v>
+        <v>285</v>
       </c>
       <c r="G8" s="33">
         <v>7040</v>
@@ -2151,7 +1997,7 @@
         <v>2423</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A9" s="34" t="s">
         <v>11</v>
       </c>
@@ -2162,13 +2008,13 @@
         <v>400</v>
       </c>
       <c r="D9" s="32">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="E9" s="32">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="F9" s="32">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G9" s="33">
         <v>1491</v>
@@ -2186,7 +2032,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A10" s="34" t="s">
         <v>12</v>
       </c>
@@ -2197,13 +2043,13 @@
         <v>2900</v>
       </c>
       <c r="D10" s="32">
-        <v>3583</v>
+        <v>3721</v>
       </c>
       <c r="E10" s="32">
-        <v>2709</v>
+        <v>2752</v>
       </c>
       <c r="F10" s="32">
-        <v>874</v>
+        <v>969</v>
       </c>
       <c r="G10" s="33">
         <v>38165</v>
@@ -2221,7 +2067,7 @@
         <v>15065</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A11" s="34" t="s">
         <v>13</v>
       </c>
@@ -2232,13 +2078,13 @@
         <v>1800</v>
       </c>
       <c r="D11" s="32">
-        <v>3445</v>
+        <v>3519</v>
       </c>
       <c r="E11" s="32">
-        <v>2755</v>
+        <v>2769</v>
       </c>
       <c r="F11" s="32">
-        <v>690</v>
+        <v>750</v>
       </c>
       <c r="G11" s="33">
         <v>23679</v>
@@ -2256,7 +2102,7 @@
         <v>7950</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A12" s="34" t="s">
         <v>15</v>
       </c>
@@ -2267,13 +2113,13 @@
         <v>3525</v>
       </c>
       <c r="D12" s="32">
-        <v>1474</v>
+        <v>1490</v>
       </c>
       <c r="E12" s="32">
-        <v>1346</v>
+        <v>1361</v>
       </c>
       <c r="F12" s="32">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G12" s="33">
         <v>5088</v>
@@ -2291,7 +2137,7 @@
         <v>1991</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A13" s="34" t="s">
         <v>16</v>
       </c>
@@ -2302,13 +2148,13 @@
         <v>500</v>
       </c>
       <c r="D13" s="32">
-        <v>1956</v>
+        <v>2403</v>
       </c>
       <c r="E13" s="32">
-        <v>1606</v>
+        <v>2032</v>
       </c>
       <c r="F13" s="32">
-        <v>350</v>
+        <v>371</v>
       </c>
       <c r="G13" s="33">
         <v>19442</v>
@@ -2326,7 +2172,7 @@
         <v>6543</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A14" s="34" t="s">
         <v>17</v>
       </c>
@@ -2337,13 +2183,13 @@
         <v>6200</v>
       </c>
       <c r="D14" s="32">
-        <v>4340</v>
+        <v>4428</v>
       </c>
       <c r="E14" s="32">
-        <v>3166</v>
+        <v>3194</v>
       </c>
       <c r="F14" s="32">
-        <v>1174</v>
+        <v>1234</v>
       </c>
       <c r="G14" s="33">
         <v>67134</v>
@@ -2361,7 +2207,7 @@
         <v>28809</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A15" s="34" t="s">
         <v>18</v>
       </c>
@@ -2372,13 +2218,13 @@
         <v>1975</v>
       </c>
       <c r="D15" s="32">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="E15" s="32">
         <v>731</v>
       </c>
       <c r="F15" s="32">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G15" s="33">
         <v>2838</v>
@@ -2396,7 +2242,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A16" s="34" t="s">
         <v>19</v>
       </c>
@@ -2407,10 +2253,10 @@
         <v>11075</v>
       </c>
       <c r="D16" s="32">
-        <v>5917</v>
+        <v>5913</v>
       </c>
       <c r="E16" s="32">
-        <v>5180</v>
+        <v>5176</v>
       </c>
       <c r="F16" s="32">
         <v>737</v>
@@ -2431,7 +2277,7 @@
         <v>11345</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A17" s="34" t="s">
         <v>20</v>
       </c>
@@ -2442,13 +2288,13 @@
         <v>41450</v>
       </c>
       <c r="D17" s="32">
-        <v>27771</v>
+        <v>28546</v>
       </c>
       <c r="E17" s="32">
-        <v>20049</v>
+        <v>20633</v>
       </c>
       <c r="F17" s="32">
-        <v>7722</v>
+        <v>7913</v>
       </c>
       <c r="G17" s="33">
         <v>266749</v>
@@ -2466,7 +2312,7 @@
         <v>93362</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A18" s="34" t="s">
         <v>21</v>
       </c>
@@ -2477,13 +2323,13 @@
         <v>309800</v>
       </c>
       <c r="D18" s="32">
-        <v>209163</v>
+        <v>221131</v>
       </c>
       <c r="E18" s="32">
-        <v>154339</v>
+        <v>162079</v>
       </c>
       <c r="F18" s="32">
-        <v>54824</v>
+        <v>59052</v>
       </c>
       <c r="G18" s="33">
         <v>1531180</v>
@@ -2512,13 +2358,13 @@
         <v>900</v>
       </c>
       <c r="D19" s="32">
-        <v>2341</v>
+        <v>2399</v>
       </c>
       <c r="E19" s="32">
-        <v>1780</v>
+        <v>1848</v>
       </c>
       <c r="F19" s="32">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="G19" s="33">
         <v>9838</v>
@@ -2547,10 +2393,10 @@
         <v>0</v>
       </c>
       <c r="D20" s="32">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E20" s="32">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F20" s="32">
         <v>9</v>
@@ -2582,13 +2428,13 @@
         <v>2700</v>
       </c>
       <c r="D21" s="32">
-        <v>1305</v>
+        <v>1349</v>
       </c>
       <c r="E21" s="32">
-        <v>1027</v>
+        <v>1068</v>
       </c>
       <c r="F21" s="32">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="G21" s="33">
         <v>15082</v>
@@ -2617,13 +2463,13 @@
         <v>11050</v>
       </c>
       <c r="D22" s="32">
-        <v>5795</v>
+        <v>5868</v>
       </c>
       <c r="E22" s="32">
-        <v>3977</v>
+        <v>4018</v>
       </c>
       <c r="F22" s="32">
-        <v>1818</v>
+        <v>1850</v>
       </c>
       <c r="G22" s="33">
         <v>73969</v>
@@ -2652,13 +2498,13 @@
         <v>29600</v>
       </c>
       <c r="D23" s="32">
-        <v>34462</v>
+        <v>36501</v>
       </c>
       <c r="E23" s="32">
-        <v>25248</v>
+        <v>26566</v>
       </c>
       <c r="F23" s="32">
-        <v>9214</v>
+        <v>9935</v>
       </c>
       <c r="G23" s="33">
         <v>282493</v>
@@ -2687,13 +2533,13 @@
         <v>24625</v>
       </c>
       <c r="D24" s="32">
-        <v>15736</v>
+        <v>15774</v>
       </c>
       <c r="E24" s="32">
-        <v>13096</v>
+        <v>13123</v>
       </c>
       <c r="F24" s="32">
-        <v>2640</v>
+        <v>2651</v>
       </c>
       <c r="G24" s="33">
         <v>184217</v>
@@ -2722,13 +2568,13 @@
         <v>1300</v>
       </c>
       <c r="D25" s="32">
-        <v>2058</v>
+        <v>2081</v>
       </c>
       <c r="E25" s="32">
-        <v>1751</v>
+        <v>1771</v>
       </c>
       <c r="F25" s="32">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="G25" s="33">
         <v>7715</v>
@@ -2757,13 +2603,13 @@
         <v>400</v>
       </c>
       <c r="D26" s="32">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="E26" s="32">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="F26" s="32">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G26" s="33">
         <v>1253</v>
@@ -2792,13 +2638,13 @@
         <v>800</v>
       </c>
       <c r="D27" s="32">
-        <v>817</v>
+        <v>844</v>
       </c>
       <c r="E27" s="32">
-        <v>697</v>
+        <v>715</v>
       </c>
       <c r="F27" s="32">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="G27" s="33">
         <v>5305</v>
@@ -2827,13 +2673,13 @@
         <v>2100</v>
       </c>
       <c r="D28" s="32">
-        <v>2548</v>
+        <v>2563</v>
       </c>
       <c r="E28" s="32">
-        <v>1863</v>
+        <v>1874</v>
       </c>
       <c r="F28" s="32">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="G28" s="33">
         <v>30759</v>
@@ -2862,13 +2708,13 @@
         <v>800</v>
       </c>
       <c r="D29" s="32">
-        <v>1427</v>
+        <v>1433</v>
       </c>
       <c r="E29" s="32">
-        <v>1063</v>
+        <v>1068</v>
       </c>
       <c r="F29" s="32">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="G29" s="33">
         <v>14756</v>
@@ -2897,13 +2743,13 @@
         <v>5250</v>
       </c>
       <c r="D30" s="32">
-        <v>3308</v>
+        <v>3598</v>
       </c>
       <c r="E30" s="32">
-        <v>2602</v>
+        <v>2881</v>
       </c>
       <c r="F30" s="32">
-        <v>706</v>
+        <v>717</v>
       </c>
       <c r="G30" s="33">
         <v>38465</v>
@@ -2932,13 +2778,13 @@
         <v>2400</v>
       </c>
       <c r="D31" s="32">
-        <v>2516</v>
+        <v>2564</v>
       </c>
       <c r="E31" s="32">
-        <v>1944</v>
+        <v>1959</v>
       </c>
       <c r="F31" s="32">
-        <v>572</v>
+        <v>605</v>
       </c>
       <c r="G31" s="33">
         <v>34365</v>
@@ -2967,13 +2813,13 @@
         <v>1100</v>
       </c>
       <c r="D32" s="32">
-        <v>1835</v>
+        <v>1856</v>
       </c>
       <c r="E32" s="32">
-        <v>1396</v>
+        <v>1388</v>
       </c>
       <c r="F32" s="32">
-        <v>439</v>
+        <v>468</v>
       </c>
       <c r="G32" s="33">
         <v>16904</v>
@@ -3002,13 +2848,13 @@
         <v>1000</v>
       </c>
       <c r="D33" s="32">
-        <v>1078</v>
+        <v>1114</v>
       </c>
       <c r="E33" s="32">
-        <v>841</v>
+        <v>868</v>
       </c>
       <c r="F33" s="32">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="G33" s="33">
         <v>11257</v>
@@ -3037,13 +2883,13 @@
         <v>58950</v>
       </c>
       <c r="D34" s="32">
-        <v>58280</v>
+        <v>60183</v>
       </c>
       <c r="E34" s="32">
-        <v>42926</v>
+        <v>44103</v>
       </c>
       <c r="F34" s="32">
-        <v>15354</v>
+        <v>16080</v>
       </c>
       <c r="G34" s="33">
         <v>309192</v>
@@ -3072,13 +2918,13 @@
         <v>300</v>
       </c>
       <c r="D35" s="32">
-        <v>775</v>
+        <v>778</v>
       </c>
       <c r="E35" s="32">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="F35" s="32">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G35" s="33">
         <v>9898</v>
@@ -3107,13 +2953,13 @@
         <v>200</v>
       </c>
       <c r="D36" s="32">
-        <v>953</v>
+        <v>970</v>
       </c>
       <c r="E36" s="32">
-        <v>694</v>
+        <v>699</v>
       </c>
       <c r="F36" s="32">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="G36" s="33">
         <v>4757</v>
@@ -3142,13 +2988,13 @@
         <v>400</v>
       </c>
       <c r="D37" s="32">
-        <v>862</v>
+        <v>877</v>
       </c>
       <c r="E37" s="32">
-        <v>613</v>
+        <v>626</v>
       </c>
       <c r="F37" s="32">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G37" s="33">
         <v>24130</v>
@@ -3177,13 +3023,13 @@
         <v>700</v>
       </c>
       <c r="D38" s="32">
-        <v>1032</v>
+        <v>1054</v>
       </c>
       <c r="E38" s="32">
-        <v>857</v>
+        <v>876</v>
       </c>
       <c r="F38" s="32">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="G38" s="33">
         <v>5649</v>
@@ -3212,13 +3058,13 @@
         <v>8000</v>
       </c>
       <c r="D39" s="32">
-        <v>3081</v>
+        <v>3206</v>
       </c>
       <c r="E39" s="32">
-        <v>2321</v>
+        <v>2418</v>
       </c>
       <c r="F39" s="32">
-        <v>760</v>
+        <v>788</v>
       </c>
       <c r="G39" s="33">
         <v>31859</v>
@@ -3247,13 +3093,13 @@
         <v>5200</v>
       </c>
       <c r="D40" s="32">
-        <v>3614</v>
+        <v>3633</v>
       </c>
       <c r="E40" s="32">
-        <v>2840</v>
+        <v>2848</v>
       </c>
       <c r="F40" s="32">
-        <v>774</v>
+        <v>785</v>
       </c>
       <c r="G40" s="33">
         <v>40543</v>
@@ -3282,13 +3128,13 @@
         <v>1500</v>
       </c>
       <c r="D41" s="32">
-        <v>921</v>
+        <v>930</v>
       </c>
       <c r="E41" s="32">
-        <v>542</v>
+        <v>550</v>
       </c>
       <c r="F41" s="32">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="G41" s="33">
         <v>6063</v>
@@ -3317,13 +3163,13 @@
         <v>3325</v>
       </c>
       <c r="D42" s="32">
-        <v>2402</v>
+        <v>2464</v>
       </c>
       <c r="E42" s="32">
-        <v>2026</v>
+        <v>2062</v>
       </c>
       <c r="F42" s="32">
-        <v>376</v>
+        <v>402</v>
       </c>
       <c r="G42" s="33">
         <v>8623</v>
@@ -3352,13 +3198,13 @@
         <v>300</v>
       </c>
       <c r="D43" s="32">
-        <v>620</v>
+        <v>668</v>
       </c>
       <c r="E43" s="32">
-        <v>482</v>
+        <v>516</v>
       </c>
       <c r="F43" s="32">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="G43" s="33">
         <v>2153</v>
@@ -3387,13 +3233,13 @@
         <v>0</v>
       </c>
       <c r="D44" s="32">
-        <v>337</v>
+        <v>369</v>
       </c>
       <c r="E44" s="32">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="F44" s="32">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="G44" s="33">
         <v>2747</v>
@@ -3422,13 +3268,13 @@
         <v>800</v>
       </c>
       <c r="D45" s="32">
-        <v>728</v>
+        <v>712</v>
       </c>
       <c r="E45" s="32">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="F45" s="32">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="G45" s="33">
         <v>6813</v>
@@ -3457,13 +3303,13 @@
         <v>108975</v>
       </c>
       <c r="D46" s="32">
-        <v>97765</v>
+        <v>105692</v>
       </c>
       <c r="E46" s="32">
-        <v>76636</v>
+        <v>83029</v>
       </c>
       <c r="F46" s="32">
-        <v>21129</v>
+        <v>22663</v>
       </c>
       <c r="G46" s="33">
         <v>774920</v>
@@ -3527,13 +3373,13 @@
         <v>2200</v>
       </c>
       <c r="D48" s="32">
-        <v>2327</v>
+        <v>2356</v>
       </c>
       <c r="E48" s="32">
-        <v>1946</v>
+        <v>1967</v>
       </c>
       <c r="F48" s="32">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="G48" s="33">
         <v>16919</v>
@@ -3562,13 +3408,13 @@
         <v>15300</v>
       </c>
       <c r="D49" s="32">
-        <v>15553</v>
+        <v>16157</v>
       </c>
       <c r="E49" s="32">
-        <v>12152</v>
+        <v>12577</v>
       </c>
       <c r="F49" s="32">
-        <v>3401</v>
+        <v>3580</v>
       </c>
       <c r="G49" s="33">
         <v>118601</v>
@@ -3597,13 +3443,13 @@
         <v>1875</v>
       </c>
       <c r="D50" s="32">
-        <v>1897</v>
+        <v>1909</v>
       </c>
       <c r="E50" s="32">
-        <v>1444</v>
+        <v>1453</v>
       </c>
       <c r="F50" s="32">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="G50" s="33">
         <v>10873</v>
@@ -3632,13 +3478,13 @@
         <v>100</v>
       </c>
       <c r="D51" s="32">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="E51" s="32">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="F51" s="32">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G51" s="33">
         <v>2240</v>
@@ -3667,13 +3513,13 @@
         <v>3100</v>
       </c>
       <c r="D52" s="32">
-        <v>3082</v>
+        <v>3125</v>
       </c>
       <c r="E52" s="32">
-        <v>2173</v>
+        <v>2206</v>
       </c>
       <c r="F52" s="32">
-        <v>909</v>
+        <v>919</v>
       </c>
       <c r="G52" s="33">
         <v>32099</v>
@@ -3702,13 +3548,13 @@
         <v>5125</v>
       </c>
       <c r="D53" s="32">
-        <v>4340</v>
+        <v>4755</v>
       </c>
       <c r="E53" s="32">
-        <v>3502</v>
+        <v>3873</v>
       </c>
       <c r="F53" s="32">
-        <v>838</v>
+        <v>882</v>
       </c>
       <c r="G53" s="33">
         <v>59473</v>
@@ -3737,10 +3583,10 @@
         <v>0</v>
       </c>
       <c r="D54" s="32">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E54" s="32">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F54" s="32">
         <v>32</v>
@@ -3772,13 +3618,13 @@
         <v>1175</v>
       </c>
       <c r="D55" s="32">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="E55" s="32">
         <v>491</v>
       </c>
       <c r="F55" s="32">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G55" s="33">
         <v>3518</v>
@@ -3807,13 +3653,13 @@
         <v>0</v>
       </c>
       <c r="D56" s="32">
-        <v>601</v>
+        <v>673</v>
       </c>
       <c r="E56" s="32">
-        <v>441</v>
+        <v>464</v>
       </c>
       <c r="F56" s="32">
-        <v>160</v>
+        <v>209</v>
       </c>
       <c r="G56" s="33">
         <v>2661</v>
@@ -3842,13 +3688,13 @@
         <v>1375</v>
       </c>
       <c r="D57" s="32">
-        <v>1282</v>
+        <v>1296</v>
       </c>
       <c r="E57" s="32">
-        <v>1093</v>
+        <v>1104</v>
       </c>
       <c r="F57" s="32">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="G57" s="33">
         <v>4409</v>
@@ -3912,13 +3758,13 @@
         <v>2850</v>
       </c>
       <c r="D59" s="32">
-        <v>1352</v>
+        <v>1386</v>
       </c>
       <c r="E59" s="32">
-        <v>1243</v>
+        <v>1258</v>
       </c>
       <c r="F59" s="32">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="G59" s="33">
         <v>5199</v>
@@ -3947,13 +3793,13 @@
         <v>362525</v>
       </c>
       <c r="D60" s="32">
-        <v>233885</v>
+        <v>253346</v>
       </c>
       <c r="E60" s="32">
-        <v>183599</v>
+        <v>195565</v>
       </c>
       <c r="F60" s="32">
-        <v>50286</v>
+        <v>57781</v>
       </c>
       <c r="G60" s="33">
         <v>2016277</v>
@@ -3982,10 +3828,10 @@
         <v>700</v>
       </c>
       <c r="D61" s="32">
-        <v>812</v>
+        <v>823</v>
       </c>
       <c r="E61" s="32">
-        <v>682</v>
+        <v>693</v>
       </c>
       <c r="F61" s="32">
         <v>130</v>
@@ -4017,13 +3863,13 @@
         <v>1900</v>
       </c>
       <c r="D62" s="32">
-        <v>1838</v>
+        <v>1873</v>
       </c>
       <c r="E62" s="32">
-        <v>1258</v>
+        <v>1285</v>
       </c>
       <c r="F62" s="32">
-        <v>580</v>
+        <v>588</v>
       </c>
       <c r="G62" s="33">
         <v>13521</v>
@@ -4052,13 +3898,13 @@
         <v>200</v>
       </c>
       <c r="D63" s="32">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="E63" s="32">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="F63" s="32">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G63" s="33">
         <v>4219</v>
@@ -4087,13 +3933,13 @@
         <v>91100</v>
       </c>
       <c r="D64" s="32">
-        <v>50379</v>
+        <v>53208</v>
       </c>
       <c r="E64" s="32">
-        <v>37552</v>
+        <v>39084</v>
       </c>
       <c r="F64" s="32">
-        <v>12827</v>
+        <v>14124</v>
       </c>
       <c r="G64" s="33">
         <v>671841</v>
@@ -4122,13 +3968,13 @@
         <v>800</v>
       </c>
       <c r="D65" s="32">
-        <v>1257</v>
+        <v>1269</v>
       </c>
       <c r="E65" s="32">
-        <v>945</v>
+        <v>954</v>
       </c>
       <c r="F65" s="32">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="G65" s="33">
         <v>16085</v>
@@ -4157,10 +4003,10 @@
         <v>0</v>
       </c>
       <c r="D66" s="32">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E66" s="32">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F66" s="32">
         <v>20</v>
@@ -4192,13 +4038,13 @@
         <v>4025</v>
       </c>
       <c r="D67" s="32">
-        <v>2228</v>
+        <v>2294</v>
       </c>
       <c r="E67" s="32">
-        <v>2042</v>
+        <v>2105</v>
       </c>
       <c r="F67" s="32">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="G67" s="33">
         <v>7570</v>
@@ -4227,13 +4073,13 @@
         <v>200</v>
       </c>
       <c r="D68" s="32">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="E68" s="32">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="F68" s="32">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G68" s="33">
         <v>2749</v>
@@ -4262,13 +4108,13 @@
         <v>600</v>
       </c>
       <c r="D69" s="32">
-        <v>1354</v>
+        <v>1436</v>
       </c>
       <c r="E69" s="32">
-        <v>1146</v>
+        <v>1223</v>
       </c>
       <c r="F69" s="32">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="G69" s="33">
         <v>8615</v>
@@ -4297,13 +4143,13 @@
         <v>1100</v>
       </c>
       <c r="D70" s="32">
-        <v>1662</v>
+        <v>1671</v>
       </c>
       <c r="E70" s="32">
-        <v>1170</v>
+        <v>1176</v>
       </c>
       <c r="F70" s="32">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="G70" s="33">
         <v>14892</v>
@@ -4332,13 +4178,13 @@
         <v>25100</v>
       </c>
       <c r="D71" s="32">
-        <v>17331</v>
+        <v>18510</v>
       </c>
       <c r="E71" s="32">
-        <v>13112</v>
+        <v>14184</v>
       </c>
       <c r="F71" s="32">
-        <v>4219</v>
+        <v>4326</v>
       </c>
       <c r="G71" s="33">
         <v>117633</v>
@@ -4370,10 +4216,10 @@
         <v>184</v>
       </c>
       <c r="E72" s="32">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F72" s="32">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G72" s="33">
         <v>1507</v>
@@ -4402,13 +4248,13 @@
         <v>134575</v>
       </c>
       <c r="D73" s="32">
-        <v>120359</v>
+        <v>123393</v>
       </c>
       <c r="E73" s="32">
-        <v>89089</v>
+        <v>91771</v>
       </c>
       <c r="F73" s="32">
-        <v>31270</v>
+        <v>31622</v>
       </c>
       <c r="G73" s="33">
         <v>636010</v>
@@ -4437,13 +4283,13 @@
         <v>11300</v>
       </c>
       <c r="D74" s="32">
-        <v>14746</v>
+        <v>16647</v>
       </c>
       <c r="E74" s="32">
-        <v>11182</v>
+        <v>12668</v>
       </c>
       <c r="F74" s="32">
-        <v>3564</v>
+        <v>3979</v>
       </c>
       <c r="G74" s="33">
         <v>136950</v>
@@ -4472,13 +4318,13 @@
         <v>1800</v>
       </c>
       <c r="D75" s="32">
-        <v>2836</v>
+        <v>2921</v>
       </c>
       <c r="E75" s="32">
-        <v>2223</v>
+        <v>2287</v>
       </c>
       <c r="F75" s="32">
-        <v>613</v>
+        <v>634</v>
       </c>
       <c r="G75" s="33">
         <v>34464</v>
@@ -4507,13 +4353,13 @@
         <v>3625</v>
       </c>
       <c r="D76" s="32">
-        <v>1573</v>
+        <v>1747</v>
       </c>
       <c r="E76" s="32">
-        <v>1383</v>
+        <v>1552</v>
       </c>
       <c r="F76" s="32">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="G76" s="33">
         <v>14024</v>
@@ -4542,13 +4388,13 @@
         <v>6325</v>
       </c>
       <c r="D77" s="32">
-        <v>4035</v>
+        <v>4081</v>
       </c>
       <c r="E77" s="32">
-        <v>2890</v>
+        <v>2924</v>
       </c>
       <c r="F77" s="32">
-        <v>1145</v>
+        <v>1157</v>
       </c>
       <c r="G77" s="33">
         <v>28568</v>
@@ -4577,13 +4423,13 @@
         <v>1400</v>
       </c>
       <c r="D78" s="32">
-        <v>1819</v>
+        <v>1864</v>
       </c>
       <c r="E78" s="32">
-        <v>1536</v>
+        <v>1557</v>
       </c>
       <c r="F78" s="32">
-        <v>283</v>
+        <v>307</v>
       </c>
       <c r="G78" s="33">
         <v>20745</v>
@@ -4612,10 +4458,10 @@
         <v>400</v>
       </c>
       <c r="D79" s="32">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E79" s="32">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F79" s="32">
         <v>26</v>
@@ -4647,13 +4493,13 @@
         <v>600</v>
       </c>
       <c r="D80" s="32">
-        <v>841</v>
+        <v>891</v>
       </c>
       <c r="E80" s="32">
-        <v>608</v>
+        <v>652</v>
       </c>
       <c r="F80" s="32">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="G80" s="33">
         <v>4390</v>
@@ -4717,13 +4563,13 @@
         <v>84475</v>
       </c>
       <c r="D82" s="32">
-        <v>85128</v>
+        <v>90050</v>
       </c>
       <c r="E82" s="32">
-        <v>65489</v>
+        <v>68898</v>
       </c>
       <c r="F82" s="32">
-        <v>19639</v>
+        <v>21152</v>
       </c>
       <c r="G82" s="33">
         <v>596689</v>
@@ -4752,13 +4598,13 @@
         <v>900</v>
       </c>
       <c r="D83" s="32">
-        <v>724</v>
+        <v>738</v>
       </c>
       <c r="E83" s="32">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="F83" s="32">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="G83" s="33">
         <v>8579</v>
@@ -4787,13 +4633,13 @@
         <v>1200</v>
       </c>
       <c r="D84" s="32">
-        <v>948</v>
+        <v>974</v>
       </c>
       <c r="E84" s="32">
-        <v>751</v>
+        <v>768</v>
       </c>
       <c r="F84" s="32">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="G84" s="33">
         <v>15830</v>
@@ -4822,13 +4668,13 @@
         <v>3475</v>
       </c>
       <c r="D85" s="32">
-        <v>2291</v>
+        <v>2335</v>
       </c>
       <c r="E85" s="32">
-        <v>1787</v>
+        <v>1793</v>
       </c>
       <c r="F85" s="32">
-        <v>504</v>
+        <v>542</v>
       </c>
       <c r="G85" s="33">
         <v>16032</v>
@@ -4857,10 +4703,10 @@
         <v>1200</v>
       </c>
       <c r="D86" s="32">
-        <v>1329</v>
+        <v>1353</v>
       </c>
       <c r="E86" s="32">
-        <v>793</v>
+        <v>817</v>
       </c>
       <c r="F86" s="32">
         <v>536</v>
@@ -4892,13 +4738,13 @@
         <v>45700</v>
       </c>
       <c r="D87" s="32">
-        <v>44102</v>
+        <v>48270</v>
       </c>
       <c r="E87" s="32">
-        <v>33650</v>
+        <v>35532</v>
       </c>
       <c r="F87" s="32">
-        <v>10452</v>
+        <v>12738</v>
       </c>
       <c r="G87" s="33">
         <v>265404</v>
@@ -4927,13 +4773,13 @@
         <v>400</v>
       </c>
       <c r="D88" s="32">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="E88" s="32">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="F88" s="32">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G88" s="33">
         <v>5277</v>
@@ -4962,13 +4808,13 @@
         <v>5500</v>
       </c>
       <c r="D89" s="32">
-        <v>3864</v>
+        <v>3990</v>
       </c>
       <c r="E89" s="32">
-        <v>3129</v>
+        <v>3245</v>
       </c>
       <c r="F89" s="32">
-        <v>735</v>
+        <v>745</v>
       </c>
       <c r="G89" s="33">
         <v>22039</v>
@@ -4997,13 +4843,13 @@
         <v>0</v>
       </c>
       <c r="D90" s="32">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E90" s="32">
         <v>249</v>
       </c>
       <c r="F90" s="32">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G90" s="33">
         <v>1083</v>
@@ -5032,13 +4878,13 @@
         <v>100</v>
       </c>
       <c r="D91" s="32">
-        <v>874</v>
+        <v>880</v>
       </c>
       <c r="E91" s="32">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="F91" s="32">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G91" s="33">
         <v>6195</v>
@@ -5067,13 +4913,13 @@
         <v>1600</v>
       </c>
       <c r="D92" s="32">
-        <v>2028</v>
+        <v>2039</v>
       </c>
       <c r="E92" s="32">
-        <v>1554</v>
+        <v>1562</v>
       </c>
       <c r="F92" s="32">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="G92" s="33">
         <v>15812</v>
@@ -5102,13 +4948,13 @@
         <v>1400</v>
       </c>
       <c r="D93" s="32">
-        <v>2240</v>
+        <v>2346</v>
       </c>
       <c r="E93" s="32">
-        <v>1554</v>
+        <v>1574</v>
       </c>
       <c r="F93" s="32">
-        <v>686</v>
+        <v>772</v>
       </c>
       <c r="G93" s="33">
         <v>17024</v>
@@ -5137,13 +4983,13 @@
         <v>22500</v>
       </c>
       <c r="D94" s="32">
-        <v>12877</v>
+        <v>13118</v>
       </c>
       <c r="E94" s="32">
-        <v>9269</v>
+        <v>9368</v>
       </c>
       <c r="F94" s="32">
-        <v>3608</v>
+        <v>3750</v>
       </c>
       <c r="G94" s="33">
         <v>105559</v>
@@ -5172,13 +5018,13 @@
         <v>20375</v>
       </c>
       <c r="D95" s="32">
-        <v>9956</v>
+        <v>10058</v>
       </c>
       <c r="E95" s="32">
-        <v>7774</v>
+        <v>7828</v>
       </c>
       <c r="F95" s="32">
-        <v>2182</v>
+        <v>2230</v>
       </c>
       <c r="G95" s="33">
         <v>94815</v>
@@ -5207,13 +5053,13 @@
         <v>1400</v>
       </c>
       <c r="D96" s="32">
-        <v>1702</v>
+        <v>1711</v>
       </c>
       <c r="E96" s="32">
-        <v>1303</v>
+        <v>1309</v>
       </c>
       <c r="F96" s="32">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="G96" s="33">
         <v>22728</v>
@@ -5242,13 +5088,13 @@
         <v>14650</v>
       </c>
       <c r="D97" s="32">
-        <v>13319</v>
+        <v>13739</v>
       </c>
       <c r="E97" s="32">
-        <v>10309</v>
+        <v>10605</v>
       </c>
       <c r="F97" s="32">
-        <v>3010</v>
+        <v>3134</v>
       </c>
       <c r="G97" s="33">
         <v>127337</v>
@@ -5277,13 +5123,13 @@
         <v>2900</v>
       </c>
       <c r="D98" s="32">
-        <v>3184</v>
+        <v>3294</v>
       </c>
       <c r="E98" s="32">
-        <v>2232</v>
+        <v>2313</v>
       </c>
       <c r="F98" s="32">
-        <v>952</v>
+        <v>981</v>
       </c>
       <c r="G98" s="33">
         <v>25531</v>
@@ -5312,10 +5158,10 @@
         <v>0</v>
       </c>
       <c r="D99" s="32">
-        <v>463</v>
+        <v>542</v>
       </c>
       <c r="E99" s="32">
-        <v>352</v>
+        <v>431</v>
       </c>
       <c r="F99" s="32">
         <v>111</v>
@@ -5347,13 +5193,13 @@
         <v>1600</v>
       </c>
       <c r="D100" s="32">
-        <v>2247</v>
+        <v>2253</v>
       </c>
       <c r="E100" s="32">
-        <v>1696</v>
+        <v>1700</v>
       </c>
       <c r="F100" s="32">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="G100" s="33">
         <v>6826</v>
@@ -5382,13 +5228,13 @@
         <v>600</v>
       </c>
       <c r="D101" s="32">
-        <v>726</v>
+        <v>732</v>
       </c>
       <c r="E101" s="32">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="F101" s="32">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="G101" s="33">
         <v>4043</v>
@@ -5417,13 +5263,13 @@
         <v>1000</v>
       </c>
       <c r="D102" s="32">
-        <v>1024</v>
+        <v>1043</v>
       </c>
       <c r="E102" s="32">
-        <v>742</v>
+        <v>747</v>
       </c>
       <c r="F102" s="32">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="G102" s="33">
         <v>3193</v>
@@ -5452,13 +5298,13 @@
         <v>5400</v>
       </c>
       <c r="D103" s="32">
-        <v>4216</v>
+        <v>4445</v>
       </c>
       <c r="E103" s="32">
-        <v>3309</v>
+        <v>3508</v>
       </c>
       <c r="F103" s="32">
-        <v>907</v>
+        <v>937</v>
       </c>
       <c r="G103" s="33">
         <v>44673</v>
@@ -5487,13 +5333,13 @@
         <v>666400</v>
       </c>
       <c r="D104" s="32">
-        <v>448023</v>
+        <v>468231</v>
       </c>
       <c r="E104" s="32">
-        <v>331341</v>
+        <v>345204</v>
       </c>
       <c r="F104" s="32">
-        <v>116682</v>
+        <v>123027</v>
       </c>
       <c r="G104" s="33">
         <v>3566488</v>
@@ -5522,13 +5368,13 @@
         <v>3800</v>
       </c>
       <c r="D105" s="32">
-        <v>3418</v>
+        <v>3453</v>
       </c>
       <c r="E105" s="32">
-        <v>2671</v>
+        <v>2687</v>
       </c>
       <c r="F105" s="32">
-        <v>747</v>
+        <v>766</v>
       </c>
       <c r="G105" s="33">
         <v>51725</v>
@@ -5557,13 +5403,13 @@
         <v>1475</v>
       </c>
       <c r="D106" s="32">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="E106" s="32">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="F106" s="32">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G106" s="33">
         <v>4548</v>
@@ -5592,13 +5438,13 @@
         <v>500</v>
       </c>
       <c r="D107" s="32">
-        <v>821</v>
+        <v>841</v>
       </c>
       <c r="E107" s="32">
-        <v>742</v>
+        <v>753</v>
       </c>
       <c r="F107" s="32">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G107" s="33">
         <v>4822</v>
@@ -5627,13 +5473,13 @@
         <v>21575</v>
       </c>
       <c r="D108" s="32">
-        <v>21241</v>
+        <v>21653</v>
       </c>
       <c r="E108" s="32">
-        <v>16474</v>
+        <v>16782</v>
       </c>
       <c r="F108" s="32">
-        <v>4767</v>
+        <v>4871</v>
       </c>
       <c r="G108" s="33">
         <v>177006</v>
@@ -5662,13 +5508,13 @@
         <v>1300</v>
       </c>
       <c r="D109" s="32">
-        <v>885</v>
+        <v>928</v>
       </c>
       <c r="E109" s="32">
-        <v>556</v>
+        <v>598</v>
       </c>
       <c r="F109" s="32">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G109" s="33">
         <v>2822</v>
@@ -5697,13 +5543,13 @@
         <v>4100</v>
       </c>
       <c r="D110" s="32">
-        <v>4753</v>
+        <v>4899</v>
       </c>
       <c r="E110" s="32">
-        <v>3734</v>
+        <v>3838</v>
       </c>
       <c r="F110" s="32">
-        <v>1019</v>
+        <v>1061</v>
       </c>
       <c r="G110" s="33">
         <v>66599</v>
@@ -5732,13 +5578,13 @@
         <v>123725</v>
       </c>
       <c r="D111" s="32">
-        <v>89266</v>
+        <v>92088</v>
       </c>
       <c r="E111" s="32">
-        <v>67927</v>
+        <v>69062</v>
       </c>
       <c r="F111" s="32">
-        <v>21339</v>
+        <v>23026</v>
       </c>
       <c r="G111" s="33">
         <v>612794</v>
@@ -5767,13 +5613,13 @@
         <v>1900</v>
       </c>
       <c r="D112" s="32">
-        <v>2900</v>
+        <v>2959</v>
       </c>
       <c r="E112" s="32">
-        <v>2372</v>
+        <v>2421</v>
       </c>
       <c r="F112" s="32">
-        <v>528</v>
+        <v>538</v>
       </c>
       <c r="G112" s="33">
         <v>28703</v>
@@ -5802,13 +5648,13 @@
         <v>1200</v>
       </c>
       <c r="D113" s="32">
-        <v>2435</v>
+        <v>2556</v>
       </c>
       <c r="E113" s="32">
-        <v>1950</v>
+        <v>2052</v>
       </c>
       <c r="F113" s="32">
-        <v>485</v>
+        <v>504</v>
       </c>
       <c r="G113" s="33">
         <v>17708</v>
@@ -5837,13 +5683,13 @@
         <v>4000</v>
       </c>
       <c r="D114" s="32">
-        <v>4501</v>
+        <v>4673</v>
       </c>
       <c r="E114" s="32">
-        <v>3634</v>
+        <v>3765</v>
       </c>
       <c r="F114" s="32">
-        <v>867</v>
+        <v>908</v>
       </c>
       <c r="G114" s="33">
         <v>48893</v>
@@ -5872,13 +5718,13 @@
         <v>2800</v>
       </c>
       <c r="D115" s="32">
-        <v>2264</v>
+        <v>2332</v>
       </c>
       <c r="E115" s="32">
-        <v>1906</v>
+        <v>1915</v>
       </c>
       <c r="F115" s="32">
-        <v>358</v>
+        <v>417</v>
       </c>
       <c r="G115" s="33">
         <v>28777</v>
@@ -5907,13 +5753,13 @@
         <v>2000</v>
       </c>
       <c r="D116" s="32">
-        <v>1960</v>
+        <v>2048</v>
       </c>
       <c r="E116" s="32">
-        <v>1403</v>
+        <v>1440</v>
       </c>
       <c r="F116" s="32">
-        <v>557</v>
+        <v>608</v>
       </c>
       <c r="G116" s="33">
         <v>19012</v>
@@ -5942,13 +5788,13 @@
         <v>2900</v>
       </c>
       <c r="D117" s="32">
-        <v>2081</v>
+        <v>2157</v>
       </c>
       <c r="E117" s="32">
-        <v>1431</v>
+        <v>1484</v>
       </c>
       <c r="F117" s="32">
-        <v>650</v>
+        <v>673</v>
       </c>
       <c r="G117" s="33">
         <v>29004</v>
@@ -5977,13 +5823,13 @@
         <v>100</v>
       </c>
       <c r="D118" s="32">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="E118" s="32">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F118" s="32">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="G118" s="33">
         <v>3863</v>
@@ -6012,13 +5858,13 @@
         <v>7150</v>
       </c>
       <c r="D119" s="32">
-        <v>7815</v>
+        <v>7925</v>
       </c>
       <c r="E119" s="32">
-        <v>5410</v>
+        <v>5508</v>
       </c>
       <c r="F119" s="32">
-        <v>2405</v>
+        <v>2417</v>
       </c>
       <c r="G119" s="33">
         <v>76213</v>
@@ -6047,13 +5893,13 @@
         <v>800</v>
       </c>
       <c r="D120" s="32">
-        <v>1765</v>
+        <v>1853</v>
       </c>
       <c r="E120" s="32">
-        <v>1391</v>
+        <v>1453</v>
       </c>
       <c r="F120" s="32">
-        <v>374</v>
+        <v>400</v>
       </c>
       <c r="G120" s="33">
         <v>16356</v>
@@ -6082,13 +5928,13 @@
         <v>0</v>
       </c>
       <c r="D121" s="32">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="E121" s="32">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F121" s="32">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="G121" s="33">
         <v>1221</v>
@@ -6117,13 +5963,13 @@
         <v>1100</v>
       </c>
       <c r="D122" s="32">
-        <v>1051</v>
+        <v>1059</v>
       </c>
       <c r="E122" s="32">
-        <v>807</v>
+        <v>811</v>
       </c>
       <c r="F122" s="32">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="G122" s="33">
         <v>7131</v>
@@ -6152,13 +5998,13 @@
         <v>2775</v>
       </c>
       <c r="D123" s="32">
-        <v>2010</v>
+        <v>2023</v>
       </c>
       <c r="E123" s="32">
-        <v>1518</v>
+        <v>1525</v>
       </c>
       <c r="F123" s="32">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="G123" s="33">
         <v>11465</v>
@@ -6187,13 +6033,13 @@
         <v>7100</v>
       </c>
       <c r="D124" s="32">
-        <v>3315</v>
+        <v>3399</v>
       </c>
       <c r="E124" s="32">
-        <v>2993</v>
+        <v>3071</v>
       </c>
       <c r="F124" s="32">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="G124" s="33">
         <v>28143</v>
@@ -6222,13 +6068,13 @@
         <v>200</v>
       </c>
       <c r="D125" s="32">
-        <v>331</v>
+        <v>346</v>
       </c>
       <c r="E125" s="32">
-        <v>290</v>
+        <v>304</v>
       </c>
       <c r="F125" s="32">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G125" s="33">
         <v>2136</v>
@@ -6257,13 +6103,13 @@
         <v>27750</v>
       </c>
       <c r="D126" s="32">
-        <v>13945</v>
+        <v>14420</v>
       </c>
       <c r="E126" s="32">
-        <v>11052</v>
+        <v>11445</v>
       </c>
       <c r="F126" s="32">
-        <v>2893</v>
+        <v>2975</v>
       </c>
       <c r="G126" s="33">
         <v>198652</v>
@@ -6292,13 +6138,13 @@
         <v>200</v>
       </c>
       <c r="D127" s="32">
-        <v>753</v>
+        <v>778</v>
       </c>
       <c r="E127" s="32">
-        <v>680</v>
+        <v>696</v>
       </c>
       <c r="F127" s="32">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="G127" s="33">
         <v>3775</v>
@@ -6327,13 +6173,13 @@
         <v>4725</v>
       </c>
       <c r="D128" s="32">
-        <v>4918</v>
+        <v>5662</v>
       </c>
       <c r="E128" s="32">
-        <v>4261</v>
+        <v>4942</v>
       </c>
       <c r="F128" s="32">
-        <v>657</v>
+        <v>720</v>
       </c>
       <c r="G128" s="33">
         <v>30668</v>
@@ -6362,13 +6208,13 @@
         <v>4700</v>
       </c>
       <c r="D129" s="32">
-        <v>11347</v>
+        <v>11762</v>
       </c>
       <c r="E129" s="32">
-        <v>8611</v>
+        <v>8870</v>
       </c>
       <c r="F129" s="32">
-        <v>2736</v>
+        <v>2892</v>
       </c>
       <c r="G129" s="33">
         <v>131756</v>
@@ -6397,13 +6243,13 @@
         <v>500</v>
       </c>
       <c r="D130" s="32">
-        <v>1269</v>
+        <v>1286</v>
       </c>
       <c r="E130" s="32">
-        <v>1035</v>
+        <v>1045</v>
       </c>
       <c r="F130" s="32">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="G130" s="33">
         <v>16878</v>
@@ -6432,13 +6278,13 @@
         <v>1800</v>
       </c>
       <c r="D131" s="32">
-        <v>1383</v>
+        <v>1391</v>
       </c>
       <c r="E131" s="32">
-        <v>1167</v>
+        <v>1173</v>
       </c>
       <c r="F131" s="32">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="G131" s="33">
         <v>12681</v>
@@ -6467,13 +6313,13 @@
         <v>4750</v>
       </c>
       <c r="D132" s="32">
-        <v>9839</v>
+        <v>10402</v>
       </c>
       <c r="E132" s="32">
-        <v>7086</v>
+        <v>7482</v>
       </c>
       <c r="F132" s="32">
-        <v>2753</v>
+        <v>2920</v>
       </c>
       <c r="G132" s="33">
         <v>96783</v>
@@ -6502,13 +6348,13 @@
         <v>2300</v>
       </c>
       <c r="D133" s="32">
-        <v>4899</v>
+        <v>5137</v>
       </c>
       <c r="E133" s="32">
-        <v>3601</v>
+        <v>3779</v>
       </c>
       <c r="F133" s="32">
-        <v>1298</v>
+        <v>1358</v>
       </c>
       <c r="G133" s="33">
         <v>36427</v>
@@ -6537,10 +6383,10 @@
         <v>0</v>
       </c>
       <c r="D134" s="32">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E134" s="32">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F134" s="32">
         <v>8</v>
@@ -6607,13 +6453,13 @@
         <v>4700</v>
       </c>
       <c r="D136" s="32">
-        <v>4482</v>
+        <v>4618</v>
       </c>
       <c r="E136" s="32">
-        <v>3345</v>
+        <v>3460</v>
       </c>
       <c r="F136" s="32">
-        <v>1137</v>
+        <v>1158</v>
       </c>
       <c r="G136" s="33">
         <v>43569</v>
@@ -6642,13 +6488,13 @@
         <v>500</v>
       </c>
       <c r="D137" s="32">
-        <v>588</v>
+        <v>595</v>
       </c>
       <c r="E137" s="32">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="F137" s="32">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G137" s="33">
         <v>3673</v>
@@ -6677,13 +6523,13 @@
         <v>0</v>
       </c>
       <c r="D138" s="32">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E138" s="32">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F138" s="32">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G138" s="33">
         <v>209</v>
@@ -6712,13 +6558,13 @@
         <v>200</v>
       </c>
       <c r="D139" s="32">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="E139" s="32">
         <v>393</v>
       </c>
       <c r="F139" s="32">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G139" s="33">
         <v>3084</v>
@@ -6747,13 +6593,13 @@
         <v>7225</v>
       </c>
       <c r="D140" s="32">
-        <v>5907</v>
+        <v>5943</v>
       </c>
       <c r="E140" s="32">
-        <v>5440</v>
+        <v>5456</v>
       </c>
       <c r="F140" s="32">
-        <v>467</v>
+        <v>487</v>
       </c>
       <c r="G140" s="33">
         <v>24154</v>
@@ -6782,13 +6628,13 @@
         <v>700</v>
       </c>
       <c r="D141" s="32">
-        <v>720</v>
+        <v>807</v>
       </c>
       <c r="E141" s="32">
-        <v>597</v>
+        <v>641</v>
       </c>
       <c r="F141" s="32">
-        <v>123</v>
+        <v>166</v>
       </c>
       <c r="G141" s="33">
         <v>2794</v>
@@ -6817,13 +6663,13 @@
         <v>3425</v>
       </c>
       <c r="D142" s="32">
-        <v>1738</v>
+        <v>1744</v>
       </c>
       <c r="E142" s="32">
-        <v>1666</v>
+        <v>1670</v>
       </c>
       <c r="F142" s="32">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G142" s="33">
         <v>6190</v>
@@ -6852,13 +6698,13 @@
         <v>4400</v>
       </c>
       <c r="D143" s="32">
-        <v>5387</v>
+        <v>5531</v>
       </c>
       <c r="E143" s="32">
-        <v>4130</v>
+        <v>4246</v>
       </c>
       <c r="F143" s="32">
-        <v>1257</v>
+        <v>1285</v>
       </c>
       <c r="G143" s="33">
         <v>39263</v>
@@ -6887,13 +6733,13 @@
         <v>400</v>
       </c>
       <c r="D144" s="32">
-        <v>1625</v>
+        <v>1640</v>
       </c>
       <c r="E144" s="32">
-        <v>1336</v>
+        <v>1348</v>
       </c>
       <c r="F144" s="32">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="G144" s="33">
         <v>9866</v>
@@ -6922,13 +6768,13 @@
         <v>800</v>
       </c>
       <c r="D145" s="32">
-        <v>1179</v>
+        <v>1248</v>
       </c>
       <c r="E145" s="32">
-        <v>980</v>
+        <v>1046</v>
       </c>
       <c r="F145" s="32">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="G145" s="33">
         <v>17054</v>
@@ -6957,13 +6803,13 @@
         <v>2100</v>
       </c>
       <c r="D146" s="32">
-        <v>2204</v>
+        <v>2214</v>
       </c>
       <c r="E146" s="32">
-        <v>1525</v>
+        <v>1533</v>
       </c>
       <c r="F146" s="32">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="G146" s="33">
         <v>15912</v>
@@ -6992,13 +6838,13 @@
         <v>800</v>
       </c>
       <c r="D147" s="32">
-        <v>1156</v>
+        <v>1165</v>
       </c>
       <c r="E147" s="32">
-        <v>895</v>
+        <v>898</v>
       </c>
       <c r="F147" s="32">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="G147" s="33">
         <v>13842</v>
@@ -7027,13 +6873,13 @@
         <v>700</v>
       </c>
       <c r="D148" s="32">
-        <v>864</v>
+        <v>884</v>
       </c>
       <c r="E148" s="32">
-        <v>634</v>
+        <v>644</v>
       </c>
       <c r="F148" s="32">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="G148" s="33">
         <v>13838</v>
@@ -7062,13 +6908,13 @@
         <v>7225</v>
       </c>
       <c r="D149" s="32">
-        <v>3949</v>
+        <v>4016</v>
       </c>
       <c r="E149" s="32">
-        <v>3149</v>
+        <v>3188</v>
       </c>
       <c r="F149" s="32">
-        <v>800</v>
+        <v>828</v>
       </c>
       <c r="G149" s="33">
         <v>65463</v>
@@ -7097,13 +6943,13 @@
         <v>1700</v>
       </c>
       <c r="D150" s="32">
-        <v>1223</v>
+        <v>1317</v>
       </c>
       <c r="E150" s="32">
-        <v>1025</v>
+        <v>1098</v>
       </c>
       <c r="F150" s="32">
-        <v>198</v>
+        <v>219</v>
       </c>
       <c r="G150" s="33">
         <v>18756</v>
@@ -7132,13 +6978,13 @@
         <v>200</v>
       </c>
       <c r="D151" s="32">
-        <v>408</v>
+        <v>438</v>
       </c>
       <c r="E151" s="32">
-        <v>306</v>
+        <v>328</v>
       </c>
       <c r="F151" s="32">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="G151" s="33">
         <v>2584</v>
@@ -7167,13 +7013,13 @@
         <v>300</v>
       </c>
       <c r="D152" s="32">
-        <v>1053</v>
+        <v>1073</v>
       </c>
       <c r="E152" s="32">
-        <v>953</v>
+        <v>967</v>
       </c>
       <c r="F152" s="32">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="G152" s="33">
         <v>10027</v>
@@ -7202,13 +7048,13 @@
         <v>1200</v>
       </c>
       <c r="D153" s="32">
-        <v>1818</v>
+        <v>2059</v>
       </c>
       <c r="E153" s="32">
-        <v>1533</v>
+        <v>1767</v>
       </c>
       <c r="F153" s="32">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="G153" s="33">
         <v>18691</v>
@@ -7272,13 +7118,13 @@
         <v>84600</v>
       </c>
       <c r="D155" s="32">
-        <v>56726</v>
+        <v>58479</v>
       </c>
       <c r="E155" s="32">
-        <v>42783</v>
+        <v>44130</v>
       </c>
       <c r="F155" s="32">
-        <v>13943</v>
+        <v>14349</v>
       </c>
       <c r="G155" s="33">
         <v>242390</v>
@@ -7307,13 +7153,13 @@
         <v>400</v>
       </c>
       <c r="D156" s="32">
-        <v>672</v>
+        <v>687</v>
       </c>
       <c r="E156" s="32">
-        <v>534</v>
+        <v>542</v>
       </c>
       <c r="F156" s="32">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="G156" s="33">
         <v>4446</v>
@@ -7342,13 +7188,13 @@
         <v>700</v>
       </c>
       <c r="D157" s="32">
-        <v>618</v>
+        <v>623</v>
       </c>
       <c r="E157" s="32">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="F157" s="32">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="G157" s="33">
         <v>11656</v>
@@ -7377,13 +7223,13 @@
         <v>0</v>
       </c>
       <c r="D158" s="32">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="E158" s="32">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="F158" s="32">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="G158" s="33">
         <v>8348</v>
@@ -7412,13 +7258,13 @@
         <v>600</v>
       </c>
       <c r="D159" s="32">
-        <v>1113</v>
+        <v>1139</v>
       </c>
       <c r="E159" s="32">
-        <v>837</v>
+        <v>860</v>
       </c>
       <c r="F159" s="32">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="G159" s="33">
         <v>4110</v>
@@ -7447,10 +7293,10 @@
         <v>200</v>
       </c>
       <c r="D160" s="32">
-        <v>512</v>
+        <v>524</v>
       </c>
       <c r="E160" s="32">
-        <v>380</v>
+        <v>392</v>
       </c>
       <c r="F160" s="32">
         <v>132</v>
@@ -7482,13 +7328,13 @@
         <v>2800</v>
       </c>
       <c r="D161" s="32">
-        <v>1908</v>
+        <v>1942</v>
       </c>
       <c r="E161" s="32">
-        <v>1535</v>
+        <v>1561</v>
       </c>
       <c r="F161" s="32">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="G161" s="33">
         <v>28184</v>
@@ -7517,13 +7363,13 @@
         <v>6200</v>
       </c>
       <c r="D162" s="32">
-        <v>3989</v>
+        <v>4073</v>
       </c>
       <c r="E162" s="32">
-        <v>3258</v>
+        <v>3325</v>
       </c>
       <c r="F162" s="32">
-        <v>731</v>
+        <v>748</v>
       </c>
       <c r="G162" s="33">
         <v>42252</v>
@@ -7552,13 +7398,13 @@
         <v>1000</v>
       </c>
       <c r="D163" s="32">
-        <v>587</v>
+        <v>602</v>
       </c>
       <c r="E163" s="32">
-        <v>503</v>
+        <v>513</v>
       </c>
       <c r="F163" s="32">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="G163" s="33">
         <v>6423</v>
@@ -7587,13 +7433,13 @@
         <v>27950</v>
       </c>
       <c r="D164" s="32">
-        <v>23616</v>
+        <v>25119</v>
       </c>
       <c r="E164" s="32">
-        <v>19049</v>
+        <v>20507</v>
       </c>
       <c r="F164" s="32">
-        <v>4567</v>
+        <v>4612</v>
       </c>
       <c r="G164" s="33">
         <v>198527</v>
@@ -7622,10 +7468,10 @@
         <v>100</v>
       </c>
       <c r="D165" s="32">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E165" s="32">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F165" s="32">
         <v>5</v>
@@ -7657,13 +7503,13 @@
         <v>1900</v>
       </c>
       <c r="D166" s="32">
-        <v>4121</v>
+        <v>4240</v>
       </c>
       <c r="E166" s="32">
-        <v>3158</v>
+        <v>3231</v>
       </c>
       <c r="F166" s="32">
-        <v>963</v>
+        <v>1009</v>
       </c>
       <c r="G166" s="33">
         <v>40600</v>
@@ -7692,13 +7538,13 @@
         <v>100</v>
       </c>
       <c r="D167" s="32">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="E167" s="32">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="F167" s="32">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G167" s="33">
         <v>1786</v>
@@ -7727,13 +7573,13 @@
         <v>22525</v>
       </c>
       <c r="D168" s="32">
-        <v>16082</v>
+        <v>18968</v>
       </c>
       <c r="E168" s="32">
-        <v>12912</v>
+        <v>15720</v>
       </c>
       <c r="F168" s="32">
-        <v>3170</v>
+        <v>3248</v>
       </c>
       <c r="G168" s="33">
         <v>127791</v>
@@ -7762,13 +7608,13 @@
         <v>2200</v>
       </c>
       <c r="D169" s="32">
-        <v>2020</v>
+        <v>2250</v>
       </c>
       <c r="E169" s="32">
-        <v>1604</v>
+        <v>1621</v>
       </c>
       <c r="F169" s="32">
-        <v>416</v>
+        <v>629</v>
       </c>
       <c r="G169" s="33">
         <v>19684</v>
@@ -7797,13 +7643,13 @@
         <v>200</v>
       </c>
       <c r="D170" s="32">
-        <v>646</v>
+        <v>652</v>
       </c>
       <c r="E170" s="32">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="F170" s="32">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G170" s="33">
         <v>3999</v>
@@ -7832,10 +7678,10 @@
         <v>900</v>
       </c>
       <c r="D171" s="32">
-        <v>775</v>
+        <v>780</v>
       </c>
       <c r="E171" s="32">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="F171" s="32">
         <v>238</v>
@@ -7867,13 +7713,13 @@
         <v>1375</v>
       </c>
       <c r="D172" s="32">
-        <v>2330</v>
+        <v>2367</v>
       </c>
       <c r="E172" s="32">
-        <v>2077</v>
+        <v>2102</v>
       </c>
       <c r="F172" s="32">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="G172" s="33">
         <v>15658</v>
@@ -7902,13 +7748,13 @@
         <v>67950</v>
       </c>
       <c r="D173" s="32">
-        <v>35202</v>
+        <v>35773</v>
       </c>
       <c r="E173" s="32">
-        <v>25337</v>
+        <v>25671</v>
       </c>
       <c r="F173" s="32">
-        <v>9865</v>
+        <v>10102</v>
       </c>
       <c r="G173" s="33">
         <v>452615</v>
@@ -7937,13 +7783,13 @@
         <v>1300</v>
       </c>
       <c r="D174" s="32">
-        <v>2262</v>
+        <v>2301</v>
       </c>
       <c r="E174" s="32">
-        <v>1637</v>
+        <v>1661</v>
       </c>
       <c r="F174" s="32">
-        <v>625</v>
+        <v>640</v>
       </c>
       <c r="G174" s="33">
         <v>15118</v>
@@ -7972,13 +7818,13 @@
         <v>500</v>
       </c>
       <c r="D175" s="32">
-        <v>719</v>
+        <v>735</v>
       </c>
       <c r="E175" s="32">
-        <v>488</v>
+        <v>497</v>
       </c>
       <c r="F175" s="32">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="G175" s="33">
         <v>9799</v>
@@ -8007,13 +7853,13 @@
         <v>0</v>
       </c>
       <c r="D176" s="32">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="E176" s="32">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F176" s="32">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G176" s="33">
         <v>1019</v>
@@ -8042,13 +7888,13 @@
         <v>7300</v>
       </c>
       <c r="D177" s="32">
-        <v>8148</v>
+        <v>8199</v>
       </c>
       <c r="E177" s="32">
-        <v>5794</v>
+        <v>5806</v>
       </c>
       <c r="F177" s="32">
-        <v>2354</v>
+        <v>2393</v>
       </c>
       <c r="G177" s="33">
         <v>51643</v>
@@ -8077,13 +7923,13 @@
         <v>5500</v>
       </c>
       <c r="D178" s="32">
-        <v>5605</v>
+        <v>5701</v>
       </c>
       <c r="E178" s="32">
-        <v>4835</v>
+        <v>4869</v>
       </c>
       <c r="F178" s="32">
-        <v>770</v>
+        <v>832</v>
       </c>
       <c r="G178" s="33">
         <v>37869</v>
@@ -8112,10 +7958,10 @@
         <v>900</v>
       </c>
       <c r="D179" s="32">
-        <v>1037</v>
+        <v>1055</v>
       </c>
       <c r="E179" s="32">
-        <v>910</v>
+        <v>928</v>
       </c>
       <c r="F179" s="32">
         <v>127</v>
@@ -8147,13 +7993,13 @@
         <v>2100</v>
       </c>
       <c r="D180" s="32">
-        <v>1976</v>
+        <v>1987</v>
       </c>
       <c r="E180" s="32">
         <v>1579</v>
       </c>
       <c r="F180" s="32">
-        <v>397</v>
+        <v>408</v>
       </c>
       <c r="G180" s="33">
         <v>11357</v>
@@ -8182,13 +8028,13 @@
         <v>57300</v>
       </c>
       <c r="D181" s="32">
-        <v>34903</v>
+        <v>35632</v>
       </c>
       <c r="E181" s="32">
-        <v>23957</v>
+        <v>24598</v>
       </c>
       <c r="F181" s="32">
-        <v>10946</v>
+        <v>11034</v>
       </c>
       <c r="G181" s="33">
         <v>283500</v>
@@ -8217,13 +8063,13 @@
         <v>1000</v>
       </c>
       <c r="D182" s="32">
-        <v>902</v>
+        <v>941</v>
       </c>
       <c r="E182" s="32">
-        <v>693</v>
+        <v>712</v>
       </c>
       <c r="F182" s="32">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="G182" s="33">
         <v>7104</v>
@@ -8287,13 +8133,13 @@
         <v>1600</v>
       </c>
       <c r="D184" s="32">
-        <v>3050</v>
+        <v>3104</v>
       </c>
       <c r="E184" s="32">
-        <v>2535</v>
+        <v>2579</v>
       </c>
       <c r="F184" s="32">
-        <v>515</v>
+        <v>525</v>
       </c>
       <c r="G184" s="33">
         <v>65096</v>
@@ -8322,13 +8168,13 @@
         <v>1700</v>
       </c>
       <c r="D185" s="32">
-        <v>1615</v>
+        <v>1635</v>
       </c>
       <c r="E185" s="32">
-        <v>1355</v>
+        <v>1368</v>
       </c>
       <c r="F185" s="32">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="G185" s="33">
         <v>22932</v>
@@ -8357,13 +8203,13 @@
         <v>1500</v>
       </c>
       <c r="D186" s="32">
-        <v>1221</v>
+        <v>1224</v>
       </c>
       <c r="E186" s="32">
         <v>987</v>
       </c>
       <c r="F186" s="32">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="G186" s="33">
         <v>18383</v>
@@ -8392,13 +8238,13 @@
         <v>11450</v>
       </c>
       <c r="D187" s="32">
-        <v>12192</v>
+        <v>12712</v>
       </c>
       <c r="E187" s="32">
-        <v>9583</v>
+        <v>9871</v>
       </c>
       <c r="F187" s="32">
-        <v>2609</v>
+        <v>2841</v>
       </c>
       <c r="G187" s="33">
         <v>107827</v>
@@ -8427,13 +8273,13 @@
         <v>800</v>
       </c>
       <c r="D188" s="32">
-        <v>1247</v>
+        <v>1254</v>
       </c>
       <c r="E188" s="32">
-        <v>941</v>
+        <v>945</v>
       </c>
       <c r="F188" s="32">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G188" s="33">
         <v>7266</v>
@@ -8462,13 +8308,13 @@
         <v>1900</v>
       </c>
       <c r="D189" s="32">
-        <v>2217</v>
+        <v>2241</v>
       </c>
       <c r="E189" s="32">
-        <v>1715</v>
+        <v>1738</v>
       </c>
       <c r="F189" s="32">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="G189" s="33">
         <v>12222</v>
@@ -8497,13 +8343,13 @@
         <v>3700</v>
       </c>
       <c r="D190" s="32">
-        <v>3424</v>
+        <v>3620</v>
       </c>
       <c r="E190" s="32">
-        <v>2878</v>
+        <v>3011</v>
       </c>
       <c r="F190" s="32">
-        <v>546</v>
+        <v>609</v>
       </c>
       <c r="G190" s="33">
         <v>40971</v>
@@ -8532,13 +8378,13 @@
         <v>69025</v>
       </c>
       <c r="D191" s="32">
-        <v>21891</v>
+        <v>22427</v>
       </c>
       <c r="E191" s="32">
-        <v>15169</v>
+        <v>15466</v>
       </c>
       <c r="F191" s="32">
-        <v>6722</v>
+        <v>6961</v>
       </c>
       <c r="G191" s="33">
         <v>89345</v>
@@ -8567,10 +8413,10 @@
         <v>700</v>
       </c>
       <c r="D192" s="32">
-        <v>1087</v>
+        <v>1106</v>
       </c>
       <c r="E192" s="32">
-        <v>990</v>
+        <v>1009</v>
       </c>
       <c r="F192" s="32">
         <v>97</v>
@@ -8602,13 +8448,13 @@
         <v>200</v>
       </c>
       <c r="D193" s="32">
-        <v>687</v>
+        <v>699</v>
       </c>
       <c r="E193" s="32">
-        <v>516</v>
+        <v>523</v>
       </c>
       <c r="F193" s="32">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="G193" s="33">
         <v>9985</v>
@@ -8637,13 +8483,13 @@
         <v>6000</v>
       </c>
       <c r="D194" s="32">
-        <v>32925</v>
+        <v>33904</v>
       </c>
       <c r="E194" s="32">
-        <v>22509</v>
+        <v>23047</v>
       </c>
       <c r="F194" s="32">
-        <v>10416</v>
+        <v>10857</v>
       </c>
       <c r="G194" s="33">
         <v>106760</v>
@@ -8672,13 +8518,13 @@
         <v>200</v>
       </c>
       <c r="D195" s="32">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="E195" s="32">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F195" s="32">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="G195" s="33">
         <v>2758</v>
@@ -8707,10 +8553,10 @@
         <v>0</v>
       </c>
       <c r="D196" s="32">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="E196" s="32">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="F196" s="32">
         <v>97</v>
@@ -8742,13 +8588,13 @@
         <v>500</v>
       </c>
       <c r="D197" s="32">
-        <v>1353</v>
+        <v>1366</v>
       </c>
       <c r="E197" s="32">
-        <v>1216</v>
+        <v>1224</v>
       </c>
       <c r="F197" s="32">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="G197" s="33">
         <v>10022</v>
@@ -8777,13 +8623,13 @@
         <v>3725</v>
       </c>
       <c r="D198" s="32">
-        <v>3098</v>
+        <v>3104</v>
       </c>
       <c r="E198" s="32">
-        <v>2740</v>
+        <v>2745</v>
       </c>
       <c r="F198" s="32">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="G198" s="33">
         <v>12389</v>
@@ -8812,13 +8658,13 @@
         <v>600</v>
       </c>
       <c r="D199" s="32">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="E199" s="32">
         <v>792</v>
       </c>
       <c r="F199" s="32">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="G199" s="33">
         <v>5593</v>
@@ -8847,13 +8693,13 @@
         <v>0</v>
       </c>
       <c r="D200" s="32">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="E200" s="32">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F200" s="32">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G200" s="33">
         <v>705</v>
@@ -8882,13 +8728,13 @@
         <v>800</v>
       </c>
       <c r="D201" s="32">
-        <v>1109</v>
+        <v>1142</v>
       </c>
       <c r="E201" s="32">
-        <v>877</v>
+        <v>907</v>
       </c>
       <c r="F201" s="32">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="G201" s="33">
         <v>13548</v>
@@ -8917,13 +8763,13 @@
         <v>6275</v>
       </c>
       <c r="D202" s="32">
-        <v>9549</v>
+        <v>10061</v>
       </c>
       <c r="E202" s="32">
-        <v>7327</v>
+        <v>7673</v>
       </c>
       <c r="F202" s="32">
-        <v>2222</v>
+        <v>2388</v>
       </c>
       <c r="G202" s="33">
         <v>76870</v>
@@ -8952,13 +8798,13 @@
         <v>1500</v>
       </c>
       <c r="D203" s="32">
-        <v>1281</v>
+        <v>1353</v>
       </c>
       <c r="E203" s="32">
-        <v>909</v>
+        <v>936</v>
       </c>
       <c r="F203" s="32">
-        <v>372</v>
+        <v>417</v>
       </c>
       <c r="G203" s="33">
         <v>8140</v>
@@ -8987,13 +8833,13 @@
         <v>1900</v>
       </c>
       <c r="D204" s="32">
-        <v>2331</v>
+        <v>2375</v>
       </c>
       <c r="E204" s="32">
-        <v>1890</v>
+        <v>1914</v>
       </c>
       <c r="F204" s="32">
-        <v>441</v>
+        <v>461</v>
       </c>
       <c r="G204" s="33">
         <v>43676</v>
@@ -9022,13 +8868,13 @@
         <v>1300</v>
       </c>
       <c r="D205" s="32">
-        <v>1230</v>
+        <v>1266</v>
       </c>
       <c r="E205" s="32">
-        <v>1049</v>
+        <v>1068</v>
       </c>
       <c r="F205" s="32">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="G205" s="33">
         <v>8839</v>
@@ -9057,13 +8903,13 @@
         <v>1200</v>
       </c>
       <c r="D206" s="32">
-        <v>625</v>
+        <v>634</v>
       </c>
       <c r="E206" s="32">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="F206" s="32">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G206" s="33">
         <v>6828</v>
@@ -9092,13 +8938,13 @@
         <v>1600</v>
       </c>
       <c r="D207" s="32">
-        <v>1635</v>
+        <v>1665</v>
       </c>
       <c r="E207" s="32">
-        <v>1309</v>
+        <v>1326</v>
       </c>
       <c r="F207" s="32">
-        <v>326</v>
+        <v>339</v>
       </c>
       <c r="G207" s="33">
         <v>23259</v>
@@ -9127,13 +8973,13 @@
         <v>2100</v>
       </c>
       <c r="D208" s="32">
-        <v>5202</v>
+        <v>5327</v>
       </c>
       <c r="E208" s="32">
-        <v>4199</v>
+        <v>4302</v>
       </c>
       <c r="F208" s="32">
-        <v>1003</v>
+        <v>1025</v>
       </c>
       <c r="G208" s="33">
         <v>50902</v>
@@ -9162,10 +9008,10 @@
         <v>200</v>
       </c>
       <c r="D209" s="32">
+        <v>168</v>
+      </c>
+      <c r="E209" s="32">
         <v>148</v>
-      </c>
-      <c r="E209" s="32">
-        <v>128</v>
       </c>
       <c r="F209" s="32">
         <v>20</v>
@@ -9197,13 +9043,13 @@
         <v>200</v>
       </c>
       <c r="D210" s="32">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="E210" s="32">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F210" s="32">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="G210" s="33">
         <v>2244</v>
@@ -9232,13 +9078,13 @@
         <v>2950</v>
       </c>
       <c r="D211" s="32">
-        <v>1401</v>
+        <v>1415</v>
       </c>
       <c r="E211" s="32">
-        <v>1160</v>
+        <v>1172</v>
       </c>
       <c r="F211" s="32">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="G211" s="33">
         <v>13034</v>
@@ -9267,10 +9113,10 @@
         <v>300</v>
       </c>
       <c r="D212" s="32">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="E212" s="32">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="F212" s="32">
         <v>32</v>
@@ -9302,13 +9148,13 @@
         <v>1700</v>
       </c>
       <c r="D213" s="32">
-        <v>1257</v>
+        <v>1269</v>
       </c>
       <c r="E213" s="32">
-        <v>889</v>
+        <v>900</v>
       </c>
       <c r="F213" s="32">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="G213" s="33">
         <v>19457</v>
@@ -9337,10 +9183,10 @@
         <v>500</v>
       </c>
       <c r="D214" s="32">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="E214" s="32">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="F214" s="32">
         <v>25</v>
@@ -9372,13 +9218,13 @@
         <v>53900</v>
       </c>
       <c r="D215" s="32">
-        <v>26939</v>
+        <v>27031</v>
       </c>
       <c r="E215" s="32">
-        <v>20022</v>
+        <v>20088</v>
       </c>
       <c r="F215" s="32">
-        <v>6917</v>
+        <v>6943</v>
       </c>
       <c r="G215" s="33">
         <v>179746</v>
@@ -9407,13 +9253,13 @@
         <v>600</v>
       </c>
       <c r="D216" s="32">
-        <v>981</v>
+        <v>1048</v>
       </c>
       <c r="E216" s="32">
-        <v>777</v>
+        <v>843</v>
       </c>
       <c r="F216" s="32">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G216" s="33">
         <v>7253</v>
@@ -9442,13 +9288,13 @@
         <v>5300</v>
       </c>
       <c r="D217" s="32">
-        <v>5397</v>
+        <v>5830</v>
       </c>
       <c r="E217" s="32">
-        <v>3932</v>
+        <v>4259</v>
       </c>
       <c r="F217" s="32">
-        <v>1465</v>
+        <v>1571</v>
       </c>
       <c r="G217" s="33">
         <v>45433</v>
@@ -9477,10 +9323,10 @@
         <v>800</v>
       </c>
       <c r="D218" s="32">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="E218" s="32">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="F218" s="32">
         <v>46</v>
@@ -9512,13 +9358,13 @@
         <v>100</v>
       </c>
       <c r="D219" s="32">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="E219" s="32">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="F219" s="32">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G219" s="33">
         <v>985</v>
@@ -9547,10 +9393,10 @@
         <v>500</v>
       </c>
       <c r="D220" s="32">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E220" s="32">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F220" s="32">
         <v>44</v>
@@ -9582,13 +9428,13 @@
         <v>300</v>
       </c>
       <c r="D221" s="32">
-        <v>383</v>
+        <v>413</v>
       </c>
       <c r="E221" s="32">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="F221" s="32">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="G221" s="33">
         <v>2980</v>
@@ -9617,13 +9463,13 @@
         <v>500</v>
       </c>
       <c r="D222" s="32">
-        <v>1121</v>
+        <v>1146</v>
       </c>
       <c r="E222" s="32">
-        <v>879</v>
+        <v>896</v>
       </c>
       <c r="F222" s="32">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="G222" s="33">
         <v>5767</v>
@@ -9652,13 +9498,13 @@
         <v>326175</v>
       </c>
       <c r="D223" s="32">
-        <v>165805</v>
+        <v>173197</v>
       </c>
       <c r="E223" s="32">
-        <v>129201</v>
+        <v>133438</v>
       </c>
       <c r="F223" s="32">
-        <v>36604</v>
+        <v>39759</v>
       </c>
       <c r="G223" s="33">
         <v>1595611</v>
@@ -9687,13 +9533,13 @@
         <v>21200</v>
       </c>
       <c r="D224" s="32">
-        <v>18812</v>
+        <v>19283</v>
       </c>
       <c r="E224" s="32">
-        <v>14264</v>
+        <v>14645</v>
       </c>
       <c r="F224" s="32">
-        <v>4548</v>
+        <v>4638</v>
       </c>
       <c r="G224" s="33">
         <v>106702</v>
@@ -9757,13 +9603,13 @@
         <v>2475</v>
       </c>
       <c r="D226" s="32">
-        <v>2394</v>
+        <v>2505</v>
       </c>
       <c r="E226" s="32">
-        <v>1763</v>
+        <v>1866</v>
       </c>
       <c r="F226" s="32">
-        <v>631</v>
+        <v>639</v>
       </c>
       <c r="G226" s="33">
         <v>9311</v>
@@ -9795,10 +9641,10 @@
         <v>425</v>
       </c>
       <c r="E227" s="32">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F227" s="32">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G227" s="33">
         <v>1248</v>
@@ -9827,13 +9673,13 @@
         <v>3100</v>
       </c>
       <c r="D228" s="32">
-        <v>1849</v>
+        <v>1877</v>
       </c>
       <c r="E228" s="32">
-        <v>1292</v>
+        <v>1295</v>
       </c>
       <c r="F228" s="32">
-        <v>557</v>
+        <v>582</v>
       </c>
       <c r="G228" s="33">
         <v>24346</v>
@@ -9862,13 +9708,13 @@
         <v>19600</v>
       </c>
       <c r="D229" s="32">
-        <v>16139</v>
+        <v>17887</v>
       </c>
       <c r="E229" s="32">
-        <v>11515</v>
+        <v>12150</v>
       </c>
       <c r="F229" s="32">
-        <v>4624</v>
+        <v>5737</v>
       </c>
       <c r="G229" s="33">
         <v>92742</v>
@@ -9897,13 +9743,13 @@
         <v>171600</v>
       </c>
       <c r="D230" s="32">
-        <v>121064</v>
+        <v>123909</v>
       </c>
       <c r="E230" s="32">
-        <v>90368</v>
+        <v>92369</v>
       </c>
       <c r="F230" s="32">
-        <v>30696</v>
+        <v>31540</v>
       </c>
       <c r="G230" s="33">
         <v>1005013</v>
@@ -9932,13 +9778,13 @@
         <v>1775</v>
       </c>
       <c r="D231" s="32">
-        <v>968</v>
+        <v>1367</v>
       </c>
       <c r="E231" s="32">
-        <v>723</v>
+        <v>1118</v>
       </c>
       <c r="F231" s="32">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="G231" s="33">
         <v>12102</v>
@@ -9967,13 +9813,13 @@
         <v>2000</v>
       </c>
       <c r="D232" s="32">
-        <v>2015</v>
+        <v>2425</v>
       </c>
       <c r="E232" s="32">
-        <v>1380</v>
+        <v>1779</v>
       </c>
       <c r="F232" s="32">
-        <v>635</v>
+        <v>646</v>
       </c>
       <c r="G232" s="33">
         <v>17913</v>
@@ -10002,13 +9848,13 @@
         <v>1100</v>
       </c>
       <c r="D233" s="32">
-        <v>2078</v>
+        <v>2090</v>
       </c>
       <c r="E233" s="32">
-        <v>1623</v>
+        <v>1629</v>
       </c>
       <c r="F233" s="32">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="G233" s="33">
         <v>32565</v>
@@ -10037,10 +9883,10 @@
         <v>400</v>
       </c>
       <c r="D234" s="32">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="E234" s="32">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="F234" s="32">
         <v>148</v>
@@ -10072,13 +9918,13 @@
         <v>5025</v>
       </c>
       <c r="D235" s="32">
-        <v>4215</v>
+        <v>4254</v>
       </c>
       <c r="E235" s="32">
-        <v>3502</v>
+        <v>3520</v>
       </c>
       <c r="F235" s="32">
-        <v>713</v>
+        <v>734</v>
       </c>
       <c r="G235" s="33">
         <v>20354</v>
@@ -10107,13 +9953,13 @@
         <v>4750</v>
       </c>
       <c r="D236" s="32">
-        <v>5197</v>
+        <v>5302</v>
       </c>
       <c r="E236" s="32">
-        <v>4134</v>
+        <v>4206</v>
       </c>
       <c r="F236" s="32">
-        <v>1063</v>
+        <v>1096</v>
       </c>
       <c r="G236" s="33">
         <v>36493</v>
@@ -10142,13 +9988,13 @@
         <v>2600</v>
       </c>
       <c r="D237" s="32">
-        <v>4067</v>
+        <v>4132</v>
       </c>
       <c r="E237" s="32">
-        <v>2993</v>
+        <v>3034</v>
       </c>
       <c r="F237" s="32">
-        <v>1074</v>
+        <v>1098</v>
       </c>
       <c r="G237" s="33">
         <v>44695</v>
@@ -10177,13 +10023,13 @@
         <v>11475</v>
       </c>
       <c r="D238" s="32">
-        <v>10838</v>
+        <v>11023</v>
       </c>
       <c r="E238" s="32">
-        <v>8140</v>
+        <v>8274</v>
       </c>
       <c r="F238" s="32">
-        <v>2698</v>
+        <v>2749</v>
       </c>
       <c r="G238" s="33">
         <v>71227</v>
@@ -10212,13 +10058,13 @@
         <v>4600</v>
       </c>
       <c r="D239" s="32">
-        <v>3875</v>
+        <v>3918</v>
       </c>
       <c r="E239" s="32">
-        <v>2968</v>
+        <v>3006</v>
       </c>
       <c r="F239" s="32">
-        <v>907</v>
+        <v>912</v>
       </c>
       <c r="G239" s="33">
         <v>63569</v>
@@ -10247,13 +10093,13 @@
         <v>2800</v>
       </c>
       <c r="D240" s="32">
-        <v>2386</v>
+        <v>2581</v>
       </c>
       <c r="E240" s="32">
-        <v>1919</v>
+        <v>2054</v>
       </c>
       <c r="F240" s="32">
-        <v>467</v>
+        <v>527</v>
       </c>
       <c r="G240" s="33">
         <v>42000</v>
@@ -10282,10 +10128,10 @@
         <v>500</v>
       </c>
       <c r="D241" s="32">
-        <v>1011</v>
+        <v>1039</v>
       </c>
       <c r="E241" s="32">
-        <v>794</v>
+        <v>822</v>
       </c>
       <c r="F241" s="32">
         <v>217</v>
@@ -10317,13 +10163,13 @@
         <v>11000</v>
       </c>
       <c r="D242" s="32">
-        <v>3854</v>
+        <v>3877</v>
       </c>
       <c r="E242" s="32">
-        <v>3218</v>
+        <v>3228</v>
       </c>
       <c r="F242" s="32">
-        <v>636</v>
+        <v>649</v>
       </c>
       <c r="G242" s="33">
         <v>28752</v>
@@ -10352,13 +10198,13 @@
         <v>39400</v>
       </c>
       <c r="D243" s="32">
-        <v>29893</v>
+        <v>32175</v>
       </c>
       <c r="E243" s="32">
-        <v>22443</v>
+        <v>24599</v>
       </c>
       <c r="F243" s="32">
-        <v>7450</v>
+        <v>7576</v>
       </c>
       <c r="G243" s="33">
         <v>194708</v>
@@ -10387,13 +10233,13 @@
         <v>2400</v>
       </c>
       <c r="D244" s="32">
-        <v>2295</v>
+        <v>2358</v>
       </c>
       <c r="E244" s="32">
-        <v>1794</v>
+        <v>1832</v>
       </c>
       <c r="F244" s="32">
-        <v>501</v>
+        <v>526</v>
       </c>
       <c r="G244" s="33">
         <v>32017</v>
@@ -10422,13 +10268,13 @@
         <v>700</v>
       </c>
       <c r="D245" s="32">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="E245" s="32">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="F245" s="32">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G245" s="33">
         <v>4010</v>
@@ -10457,13 +10303,13 @@
         <v>24750</v>
       </c>
       <c r="D246" s="32">
-        <v>18659</v>
+        <v>19673</v>
       </c>
       <c r="E246" s="32">
-        <v>13940</v>
+        <v>14226</v>
       </c>
       <c r="F246" s="32">
-        <v>4719</v>
+        <v>5447</v>
       </c>
       <c r="G246" s="33">
         <v>105295</v>
@@ -10492,13 +10338,13 @@
         <v>5400</v>
       </c>
       <c r="D247" s="32">
-        <v>2957</v>
+        <v>3032</v>
       </c>
       <c r="E247" s="32">
-        <v>2023</v>
+        <v>2062</v>
       </c>
       <c r="F247" s="32">
-        <v>934</v>
+        <v>970</v>
       </c>
       <c r="G247" s="33">
         <v>10315</v>
@@ -10527,13 +10373,13 @@
         <v>700</v>
       </c>
       <c r="D248" s="32">
-        <v>1947</v>
+        <v>1978</v>
       </c>
       <c r="E248" s="32">
-        <v>1596</v>
+        <v>1615</v>
       </c>
       <c r="F248" s="32">
-        <v>351</v>
+        <v>363</v>
       </c>
       <c r="G248" s="33">
         <v>16950</v>
@@ -10562,13 +10408,13 @@
         <v>55750</v>
       </c>
       <c r="D249" s="32">
-        <v>51174</v>
+        <v>52176</v>
       </c>
       <c r="E249" s="32">
-        <v>38111</v>
+        <v>38877</v>
       </c>
       <c r="F249" s="32">
-        <v>13063</v>
+        <v>13299</v>
       </c>
       <c r="G249" s="33">
         <v>437838</v>
@@ -10597,13 +10443,13 @@
         <v>3700</v>
       </c>
       <c r="D250" s="32">
-        <v>4988</v>
+        <v>5180</v>
       </c>
       <c r="E250" s="32">
-        <v>3401</v>
+        <v>3485</v>
       </c>
       <c r="F250" s="32">
-        <v>1587</v>
+        <v>1695</v>
       </c>
       <c r="G250" s="33">
         <v>39683</v>
@@ -10632,10 +10478,10 @@
         <v>400</v>
       </c>
       <c r="D251" s="32">
-        <v>648</v>
+        <v>653</v>
       </c>
       <c r="E251" s="32">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="F251" s="32">
         <v>91</v>
@@ -10667,13 +10513,13 @@
         <v>6150</v>
       </c>
       <c r="D252" s="32">
-        <v>6357</v>
+        <v>6450</v>
       </c>
       <c r="E252" s="32">
-        <v>3959</v>
+        <v>4006</v>
       </c>
       <c r="F252" s="32">
-        <v>2398</v>
+        <v>2444</v>
       </c>
       <c r="G252" s="33">
         <v>53336</v>
@@ -10702,13 +10548,13 @@
         <v>2000</v>
       </c>
       <c r="D253" s="32">
-        <v>3189</v>
+        <v>3226</v>
       </c>
       <c r="E253" s="32">
-        <v>2564</v>
+        <v>2572</v>
       </c>
       <c r="F253" s="32">
-        <v>625</v>
+        <v>654</v>
       </c>
       <c r="G253" s="33">
         <v>37548</v>
@@ -10737,13 +10583,13 @@
         <v>600</v>
       </c>
       <c r="D254" s="32">
-        <v>926</v>
+        <v>935</v>
       </c>
       <c r="E254" s="32">
-        <v>591</v>
+        <v>601</v>
       </c>
       <c r="F254" s="32">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G254" s="33">
         <v>6073</v>
@@ -10772,13 +10618,13 @@
         <v>2100</v>
       </c>
       <c r="D255" s="32">
-        <v>1614</v>
+        <v>1593</v>
       </c>
       <c r="E255" s="32">
-        <v>1257</v>
+        <v>1220</v>
       </c>
       <c r="F255" s="32">
-        <v>357</v>
+        <v>373</v>
       </c>
       <c r="G255" s="33">
         <v>14172</v>
@@ -10807,13 +10653,13 @@
         <v>700</v>
       </c>
       <c r="D256" s="32">
-        <v>1118</v>
+        <v>1132</v>
       </c>
       <c r="E256" s="32">
-        <v>996</v>
+        <v>1006</v>
       </c>
       <c r="F256" s="32">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="G256" s="33">
         <v>9939</v>
@@ -10842,10 +10688,10 @@
         <v>200</v>
       </c>
       <c r="D257" s="32">
-        <v>1515</v>
+        <v>1731</v>
       </c>
       <c r="E257" s="32">
-        <v>1358</v>
+        <v>1574</v>
       </c>
       <c r="F257" s="32">
         <v>157</v>
@@ -10877,13 +10723,13 @@
         <v>9775</v>
       </c>
       <c r="D258" s="32">
-        <v>314137</v>
+        <v>325516</v>
       </c>
       <c r="E258" s="32">
-        <v>248886</v>
+        <v>256309</v>
       </c>
       <c r="F258" s="32">
-        <v>65251</v>
+        <v>69207</v>
       </c>
       <c r="G258" s="33"/>
       <c r="H258" s="33"/>
@@ -10919,14 +10765,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.796875" customWidth="1"/>
+    <col min="2" max="2" width="11.73046875" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
     <col min="4" max="4" width="24.19921875" customWidth="1"/>
     <col min="5" max="5" width="21.6640625" customWidth="1"/>
     <col min="6" max="6" width="18.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="22" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="22" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>278</v>
       </c>
@@ -10946,7 +10792,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" s="23" customFormat="1" ht="13.75" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>281</v>
       </c>
@@ -10957,16 +10803,16 @@
         <v>298</v>
       </c>
       <c r="D2" s="32">
-        <v>44531</v>
+        <v>46571</v>
       </c>
       <c r="E2" s="32">
-        <v>28623</v>
+        <v>29686</v>
       </c>
       <c r="F2" s="32">
-        <v>15908</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+        <v>16885</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" s="23" customFormat="1" ht="13.75" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>281</v>
       </c>
@@ -10977,16 +10823,16 @@
         <v>299</v>
       </c>
       <c r="D3" s="32">
-        <v>31580</v>
+        <v>33044</v>
       </c>
       <c r="E3" s="32">
-        <v>21125</v>
+        <v>21916</v>
       </c>
       <c r="F3" s="32">
-        <v>10455</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+        <v>11128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="23" customFormat="1" ht="13.75" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>281</v>
       </c>
@@ -10997,16 +10843,16 @@
         <v>297</v>
       </c>
       <c r="D4" s="32">
-        <v>95943</v>
+        <v>102221</v>
       </c>
       <c r="E4" s="32">
-        <v>67821</v>
+        <v>71976</v>
       </c>
       <c r="F4" s="32">
-        <v>28122</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+        <v>30245</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="23" customFormat="1" ht="13.75" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>281</v>
       </c>
@@ -11017,16 +10863,16 @@
         <v>301</v>
       </c>
       <c r="D5" s="32">
-        <v>180403</v>
+        <v>187104</v>
       </c>
       <c r="E5" s="32">
-        <v>117159</v>
+        <v>121258</v>
       </c>
       <c r="F5" s="32">
-        <v>63244</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+        <v>65846</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="23" customFormat="1" ht="13.75" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>281</v>
       </c>
@@ -11037,16 +10883,16 @@
         <v>300</v>
       </c>
       <c r="D6" s="32">
-        <v>60996</v>
+        <v>62988</v>
       </c>
       <c r="E6" s="32">
-        <v>42895</v>
+        <v>44088</v>
       </c>
       <c r="F6" s="32">
-        <v>18101</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+        <v>18900</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="23" customFormat="1" ht="13.75" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>281</v>
       </c>
@@ -11057,17 +10903,17 @@
         <v>286</v>
       </c>
       <c r="D7" s="32">
-        <v>289889</v>
+        <v>293961</v>
       </c>
       <c r="E7" s="32">
-        <v>201915</v>
+        <v>203712</v>
       </c>
       <c r="F7" s="32">
-        <v>87974</v>
+        <v>90249</v>
       </c>
       <c r="O7" s="30"/>
     </row>
-    <row r="8" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" s="23" customFormat="1" ht="13.75" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>281</v>
       </c>
@@ -11078,17 +10924,17 @@
         <v>298</v>
       </c>
       <c r="D8" s="32">
-        <v>20682</v>
+        <v>21978</v>
       </c>
       <c r="E8" s="32">
-        <v>14648</v>
+        <v>15364</v>
       </c>
       <c r="F8" s="32">
-        <v>6034</v>
+        <v>6614</v>
       </c>
       <c r="O8" s="30"/>
     </row>
-    <row r="9" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" s="23" customFormat="1" ht="13.75" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>281</v>
       </c>
@@ -11099,17 +10945,17 @@
         <v>299</v>
       </c>
       <c r="D9" s="32">
-        <v>25223</v>
+        <v>26929</v>
       </c>
       <c r="E9" s="32">
-        <v>17941</v>
+        <v>19085</v>
       </c>
       <c r="F9" s="32">
-        <v>7282</v>
+        <v>7844</v>
       </c>
       <c r="O9" s="30"/>
     </row>
-    <row r="10" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" s="23" customFormat="1" ht="13.75" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>281</v>
       </c>
@@ -11120,17 +10966,17 @@
         <v>297</v>
       </c>
       <c r="D10" s="32">
-        <v>48520</v>
+        <v>52748</v>
       </c>
       <c r="E10" s="32">
-        <v>37953</v>
+        <v>41058</v>
       </c>
       <c r="F10" s="32">
-        <v>10567</v>
+        <v>11690</v>
       </c>
       <c r="O10" s="30"/>
     </row>
-    <row r="11" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" s="23" customFormat="1" ht="13.75" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
         <v>281</v>
       </c>
@@ -11141,17 +10987,17 @@
         <v>301</v>
       </c>
       <c r="D11" s="32">
-        <v>118829</v>
+        <v>125494</v>
       </c>
       <c r="E11" s="32">
-        <v>84983</v>
+        <v>89718</v>
       </c>
       <c r="F11" s="32">
-        <v>33846</v>
+        <v>35776</v>
       </c>
       <c r="O11" s="30"/>
     </row>
-    <row r="12" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" s="23" customFormat="1" ht="13.75" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
         <v>281</v>
       </c>
@@ -11162,17 +11008,17 @@
         <v>300</v>
       </c>
       <c r="D12" s="32">
-        <v>37263</v>
+        <v>38753</v>
       </c>
       <c r="E12" s="32">
-        <v>27401</v>
+        <v>28403</v>
       </c>
       <c r="F12" s="32">
-        <v>9862</v>
+        <v>10350</v>
       </c>
       <c r="O12" s="30"/>
     </row>
-    <row r="13" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" s="23" customFormat="1" ht="13.75" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
         <v>281</v>
       </c>
@@ -11183,17 +11029,17 @@
         <v>286</v>
       </c>
       <c r="D13" s="32">
-        <v>183804</v>
+        <v>186714</v>
       </c>
       <c r="E13" s="32">
-        <v>137539</v>
+        <v>139018</v>
       </c>
       <c r="F13" s="32">
-        <v>46265</v>
+        <v>47696</v>
       </c>
       <c r="O13" s="30"/>
     </row>
-    <row r="14" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" s="23" customFormat="1" ht="13.75" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
         <v>281</v>
       </c>
@@ -11204,17 +11050,17 @@
         <v>298</v>
       </c>
       <c r="D14" s="32">
-        <v>18175</v>
+        <v>21289</v>
       </c>
       <c r="E14" s="32">
-        <v>15273</v>
+        <v>17563</v>
       </c>
       <c r="F14" s="32">
-        <v>2902</v>
+        <v>3726</v>
       </c>
       <c r="O14" s="30"/>
     </row>
-    <row r="15" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" s="23" customFormat="1" ht="13.75" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
         <v>281</v>
       </c>
@@ -11225,17 +11071,17 @@
         <v>299</v>
       </c>
       <c r="D15" s="32">
-        <v>20103</v>
+        <v>22476</v>
       </c>
       <c r="E15" s="32">
-        <v>17620</v>
+        <v>19590</v>
       </c>
       <c r="F15" s="32">
-        <v>2483</v>
+        <v>2886</v>
       </c>
       <c r="O15" s="30"/>
     </row>
-    <row r="16" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" s="23" customFormat="1" ht="13.75" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
         <v>281</v>
       </c>
@@ -11246,17 +11092,17 @@
         <v>297</v>
       </c>
       <c r="D16" s="32">
-        <v>35964</v>
+        <v>40716</v>
       </c>
       <c r="E16" s="32">
-        <v>31419</v>
+        <v>35119</v>
       </c>
       <c r="F16" s="32">
-        <v>4545</v>
+        <v>5597</v>
       </c>
       <c r="O16" s="30"/>
     </row>
-    <row r="17" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" s="23" customFormat="1" ht="13.75" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
         <v>281</v>
       </c>
@@ -11267,17 +11113,17 @@
         <v>301</v>
       </c>
       <c r="D17" s="32">
-        <v>173037</v>
+        <v>187055</v>
       </c>
       <c r="E17" s="32">
-        <v>145956</v>
+        <v>156384</v>
       </c>
       <c r="F17" s="32">
-        <v>27081</v>
+        <v>30671</v>
       </c>
       <c r="O17" s="30"/>
     </row>
-    <row r="18" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" s="23" customFormat="1" ht="13.75" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
         <v>281</v>
       </c>
@@ -11288,17 +11134,17 @@
         <v>300</v>
       </c>
       <c r="D18" s="32">
-        <v>38907</v>
+        <v>40764</v>
       </c>
       <c r="E18" s="32">
-        <v>30883</v>
+        <v>32167</v>
       </c>
       <c r="F18" s="32">
-        <v>8024</v>
+        <v>8597</v>
       </c>
       <c r="O18" s="30"/>
     </row>
-    <row r="19" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" s="23" customFormat="1" ht="13.75" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
         <v>281</v>
       </c>
@@ -11309,17 +11155,17 @@
         <v>286</v>
       </c>
       <c r="D19" s="32">
-        <v>199897</v>
+        <v>203400</v>
       </c>
       <c r="E19" s="32">
-        <v>166706</v>
+        <v>168609</v>
       </c>
       <c r="F19" s="32">
-        <v>33191</v>
+        <v>34791</v>
       </c>
       <c r="O19" s="30"/>
     </row>
-    <row r="20" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" s="23" customFormat="1" ht="13.75" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
         <v>281</v>
       </c>
@@ -11330,17 +11176,17 @@
         <v>298</v>
       </c>
       <c r="D20" s="32">
-        <v>3931</v>
+        <v>4599</v>
       </c>
       <c r="E20" s="32">
-        <v>3360</v>
+        <v>3821</v>
       </c>
       <c r="F20" s="32">
-        <v>571</v>
+        <v>778</v>
       </c>
       <c r="O20" s="30"/>
     </row>
-    <row r="21" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" s="23" customFormat="1" ht="13.75" x14ac:dyDescent="0.25">
       <c r="A21" s="23" t="s">
         <v>281</v>
       </c>
@@ -11351,17 +11197,17 @@
         <v>299</v>
       </c>
       <c r="D21" s="32">
-        <v>4320</v>
+        <v>4814</v>
       </c>
       <c r="E21" s="32">
-        <v>3869</v>
+        <v>4294</v>
       </c>
       <c r="F21" s="32">
-        <v>451</v>
+        <v>520</v>
       </c>
       <c r="O21" s="30"/>
     </row>
-    <row r="22" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" s="23" customFormat="1" ht="13.75" x14ac:dyDescent="0.25">
       <c r="A22" s="23" t="s">
         <v>281</v>
       </c>
@@ -11372,13 +11218,13 @@
         <v>297</v>
       </c>
       <c r="D22" s="32">
-        <v>8278</v>
+        <v>9310</v>
       </c>
       <c r="E22" s="32">
-        <v>7333</v>
+        <v>8126</v>
       </c>
       <c r="F22" s="32">
-        <v>945</v>
+        <v>1184</v>
       </c>
       <c r="O22" s="30"/>
     </row>
@@ -11393,13 +11239,13 @@
         <v>301</v>
       </c>
       <c r="D23" s="32">
-        <v>52808</v>
+        <v>56543</v>
       </c>
       <c r="E23" s="32">
-        <v>43967</v>
+        <v>46708</v>
       </c>
       <c r="F23" s="32">
-        <v>8841</v>
+        <v>9835</v>
       </c>
       <c r="O23" s="30"/>
     </row>
@@ -11414,13 +11260,13 @@
         <v>300</v>
       </c>
       <c r="D24" s="32">
-        <v>40131</v>
+        <v>41232</v>
       </c>
       <c r="E24" s="32">
-        <v>28813</v>
+        <v>29725</v>
       </c>
       <c r="F24" s="32">
-        <v>11318</v>
+        <v>11507</v>
       </c>
       <c r="O24" s="30"/>
     </row>
@@ -11435,13 +11281,13 @@
         <v>286</v>
       </c>
       <c r="D25" s="32">
-        <v>71191</v>
+        <v>72360</v>
       </c>
       <c r="E25" s="32">
-        <v>58516</v>
+        <v>59245</v>
       </c>
       <c r="F25" s="32">
-        <v>12675</v>
+        <v>13115</v>
       </c>
       <c r="O25" s="30"/>
     </row>
@@ -11456,10 +11302,10 @@
         <v>298</v>
       </c>
       <c r="D26" s="32">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E26" s="32">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F26" s="32">
         <v>2</v>
@@ -11477,10 +11323,10 @@
         <v>299</v>
       </c>
       <c r="D27" s="32">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E27" s="32">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F27" s="32">
         <v>3</v>
@@ -11498,13 +11344,13 @@
         <v>297</v>
       </c>
       <c r="D28" s="32">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="E28" s="32">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="F28" s="32">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O28" s="30"/>
     </row>
@@ -11519,13 +11365,13 @@
         <v>301</v>
       </c>
       <c r="D29" s="32">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="E29" s="32">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="F29" s="32">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O29" s="30"/>
     </row>
@@ -11561,13 +11407,13 @@
         <v>286</v>
       </c>
       <c r="D31" s="32">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="E31" s="32">
         <v>827</v>
       </c>
       <c r="F31" s="32">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O31" s="30"/>
     </row>
@@ -11582,13 +11428,13 @@
         <v>298</v>
       </c>
       <c r="D32" s="32">
-        <v>29149</v>
+        <v>30692</v>
       </c>
       <c r="E32" s="32">
-        <v>19237</v>
+        <v>20077</v>
       </c>
       <c r="F32" s="32">
-        <v>9912</v>
+        <v>10615</v>
       </c>
       <c r="O32" s="30"/>
     </row>
@@ -11603,13 +11449,13 @@
         <v>299</v>
       </c>
       <c r="D33" s="32">
-        <v>13644</v>
+        <v>14384</v>
       </c>
       <c r="E33" s="32">
-        <v>9423</v>
+        <v>9848</v>
       </c>
       <c r="F33" s="32">
-        <v>4221</v>
+        <v>4536</v>
       </c>
       <c r="O33" s="30"/>
     </row>
@@ -11624,13 +11470,13 @@
         <v>297</v>
       </c>
       <c r="D34" s="32">
-        <v>51815</v>
+        <v>55542</v>
       </c>
       <c r="E34" s="32">
-        <v>38085</v>
+        <v>40610</v>
       </c>
       <c r="F34" s="32">
-        <v>13730</v>
+        <v>14932</v>
       </c>
       <c r="O34" s="30"/>
     </row>
@@ -11645,13 +11491,13 @@
         <v>301</v>
       </c>
       <c r="D35" s="32">
-        <v>92574</v>
+        <v>96893</v>
       </c>
       <c r="E35" s="32">
-        <v>62762</v>
+        <v>65425</v>
       </c>
       <c r="F35" s="32">
-        <v>29812</v>
+        <v>31468</v>
       </c>
       <c r="O35" s="30"/>
     </row>
@@ -11666,13 +11512,13 @@
         <v>300</v>
       </c>
       <c r="D36" s="32">
-        <v>29451</v>
+        <v>30576</v>
       </c>
       <c r="E36" s="32">
-        <v>20853</v>
+        <v>21552</v>
       </c>
       <c r="F36" s="32">
-        <v>8598</v>
+        <v>9024</v>
       </c>
       <c r="O36" s="30"/>
     </row>
@@ -11687,13 +11533,13 @@
         <v>286</v>
       </c>
       <c r="D37" s="32">
-        <v>176333</v>
+        <v>178976</v>
       </c>
       <c r="E37" s="32">
-        <v>124505</v>
+        <v>125735</v>
       </c>
       <c r="F37" s="32">
-        <v>51828</v>
+        <v>53241</v>
       </c>
       <c r="O37" s="30"/>
     </row>
@@ -11708,13 +11554,13 @@
         <v>298</v>
       </c>
       <c r="D38" s="32">
-        <v>14758</v>
+        <v>15803</v>
       </c>
       <c r="E38" s="32">
-        <v>10877</v>
+        <v>11504</v>
       </c>
       <c r="F38" s="32">
-        <v>3881</v>
+        <v>4299</v>
       </c>
       <c r="O38" s="30"/>
     </row>
@@ -11729,13 +11575,13 @@
         <v>299</v>
       </c>
       <c r="D39" s="32">
-        <v>13596</v>
+        <v>14676</v>
       </c>
       <c r="E39" s="32">
-        <v>10166</v>
+        <v>10898</v>
       </c>
       <c r="F39" s="32">
-        <v>3430</v>
+        <v>3778</v>
       </c>
       <c r="O39" s="30"/>
     </row>
@@ -11750,13 +11596,13 @@
         <v>297</v>
       </c>
       <c r="D40" s="32">
-        <v>31587</v>
+        <v>34556</v>
       </c>
       <c r="E40" s="32">
-        <v>25404</v>
+        <v>27608</v>
       </c>
       <c r="F40" s="32">
-        <v>6183</v>
+        <v>6948</v>
       </c>
       <c r="O40" s="30"/>
     </row>
@@ -11771,13 +11617,13 @@
         <v>301</v>
       </c>
       <c r="D41" s="32">
-        <v>76376</v>
+        <v>81173</v>
       </c>
       <c r="E41" s="32">
-        <v>57392</v>
+        <v>60698</v>
       </c>
       <c r="F41" s="32">
-        <v>18984</v>
+        <v>20475</v>
       </c>
       <c r="O41" s="30"/>
     </row>
@@ -11792,13 +11638,13 @@
         <v>300</v>
       </c>
       <c r="D42" s="32">
-        <v>20574</v>
+        <v>21509</v>
       </c>
       <c r="E42" s="32">
-        <v>15267</v>
+        <v>15898</v>
       </c>
       <c r="F42" s="32">
-        <v>5307</v>
+        <v>5611</v>
       </c>
       <c r="O42" s="30"/>
     </row>
@@ -11813,13 +11659,13 @@
         <v>286</v>
       </c>
       <c r="D43" s="32">
-        <v>124132</v>
+        <v>126209</v>
       </c>
       <c r="E43" s="32">
-        <v>94500</v>
+        <v>95613</v>
       </c>
       <c r="F43" s="32">
-        <v>29632</v>
+        <v>30596</v>
       </c>
       <c r="O43" s="30"/>
     </row>
@@ -11834,13 +11680,13 @@
         <v>298</v>
       </c>
       <c r="D44" s="32">
-        <v>16087</v>
+        <v>18912</v>
       </c>
       <c r="E44" s="32">
-        <v>13509</v>
+        <v>15582</v>
       </c>
       <c r="F44" s="32">
-        <v>2578</v>
+        <v>3330</v>
       </c>
       <c r="O44" s="30"/>
     </row>
@@ -11855,13 +11701,13 @@
         <v>299</v>
       </c>
       <c r="D45" s="32">
-        <v>13069</v>
+        <v>14470</v>
       </c>
       <c r="E45" s="32">
-        <v>11390</v>
+        <v>12566</v>
       </c>
       <c r="F45" s="32">
-        <v>1679</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="46" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
@@ -11875,13 +11721,13 @@
         <v>297</v>
       </c>
       <c r="D46" s="32">
-        <v>27479</v>
+        <v>31075</v>
       </c>
       <c r="E46" s="32">
-        <v>23913</v>
+        <v>26637</v>
       </c>
       <c r="F46" s="32">
-        <v>3566</v>
+        <v>4438</v>
       </c>
       <c r="O46" s="30"/>
     </row>
@@ -11896,13 +11742,13 @@
         <v>301</v>
       </c>
       <c r="D47" s="32">
-        <v>148496</v>
+        <v>160394</v>
       </c>
       <c r="E47" s="32">
-        <v>125111</v>
+        <v>134020</v>
       </c>
       <c r="F47" s="32">
-        <v>23385</v>
+        <v>26374</v>
       </c>
       <c r="O47" s="30"/>
     </row>
@@ -11917,13 +11763,13 @@
         <v>300</v>
       </c>
       <c r="D48" s="32">
-        <v>27925</v>
+        <v>29436</v>
       </c>
       <c r="E48" s="32">
-        <v>22432</v>
+        <v>23481</v>
       </c>
       <c r="F48" s="32">
-        <v>5493</v>
+        <v>5955</v>
       </c>
     </row>
     <row r="49" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
@@ -11937,13 +11783,13 @@
         <v>286</v>
       </c>
       <c r="D49" s="32">
-        <v>165347</v>
+        <v>168318</v>
       </c>
       <c r="E49" s="32">
-        <v>137522</v>
+        <v>139046</v>
       </c>
       <c r="F49" s="32">
-        <v>27825</v>
+        <v>29272</v>
       </c>
       <c r="O49" s="30"/>
     </row>
@@ -11958,13 +11804,13 @@
         <v>298</v>
       </c>
       <c r="D50" s="32">
-        <v>3437</v>
+        <v>3970</v>
       </c>
       <c r="E50" s="32">
-        <v>2902</v>
+        <v>3279</v>
       </c>
       <c r="F50" s="32">
-        <v>535</v>
+        <v>691</v>
       </c>
       <c r="O50" s="30"/>
     </row>
@@ -11979,13 +11825,13 @@
         <v>299</v>
       </c>
       <c r="D51" s="32">
-        <v>2273</v>
+        <v>2515</v>
       </c>
       <c r="E51" s="32">
-        <v>1982</v>
+        <v>2185</v>
       </c>
       <c r="F51" s="32">
-        <v>291</v>
+        <v>330</v>
       </c>
     </row>
     <row r="52" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
@@ -11999,13 +11845,13 @@
         <v>297</v>
       </c>
       <c r="D52" s="32">
-        <v>5295</v>
+        <v>5972</v>
       </c>
       <c r="E52" s="32">
-        <v>4617</v>
+        <v>5148</v>
       </c>
       <c r="F52" s="32">
-        <v>678</v>
+        <v>824</v>
       </c>
       <c r="O52" s="30"/>
     </row>
@@ -12020,13 +11866,13 @@
         <v>301</v>
       </c>
       <c r="D53" s="32">
-        <v>43035</v>
+        <v>45823</v>
       </c>
       <c r="E53" s="32">
-        <v>35212</v>
+        <v>37165</v>
       </c>
       <c r="F53" s="32">
-        <v>7823</v>
+        <v>8658</v>
       </c>
       <c r="O53" s="30"/>
     </row>
@@ -12041,13 +11887,13 @@
         <v>300</v>
       </c>
       <c r="D54" s="32">
-        <v>16554</v>
+        <v>17063</v>
       </c>
       <c r="E54" s="32">
-        <v>12248</v>
+        <v>12633</v>
       </c>
       <c r="F54" s="32">
-        <v>4306</v>
+        <v>4430</v>
       </c>
       <c r="O54" s="30"/>
     </row>
@@ -12062,13 +11908,13 @@
         <v>286</v>
       </c>
       <c r="D55" s="32">
-        <v>46881</v>
+        <v>47630</v>
       </c>
       <c r="E55" s="32">
-        <v>38862</v>
+        <v>39278</v>
       </c>
       <c r="F55" s="32">
-        <v>8019</v>
+        <v>8352</v>
       </c>
       <c r="O55" s="30"/>
     </row>
@@ -12083,10 +11929,10 @@
         <v>298</v>
       </c>
       <c r="D56" s="32">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E56" s="32">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F56" s="32">
         <v>4</v>
@@ -12124,13 +11970,13 @@
         <v>297</v>
       </c>
       <c r="D58" s="32">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="E58" s="32">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="F58" s="32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O58" s="30"/>
     </row>
@@ -12145,10 +11991,10 @@
         <v>301</v>
       </c>
       <c r="D59" s="32">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="E59" s="32">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="F59" s="32">
         <v>15</v>
@@ -12166,10 +12012,10 @@
         <v>300</v>
       </c>
       <c r="D60" s="32">
+        <v>21</v>
+      </c>
+      <c r="E60" s="32">
         <v>19</v>
-      </c>
-      <c r="E60" s="32">
-        <v>17</v>
       </c>
       <c r="F60" s="32">
         <v>2</v>
@@ -12187,10 +12033,10 @@
         <v>286</v>
       </c>
       <c r="D61" s="32">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E61" s="32">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="F61" s="32">
         <v>47</v>
@@ -12208,13 +12054,13 @@
         <v>298</v>
       </c>
       <c r="D62" s="32">
-        <v>886</v>
+        <v>921</v>
       </c>
       <c r="E62" s="32">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="F62" s="32">
-        <v>256</v>
+        <v>293</v>
       </c>
       <c r="O62" s="30"/>
     </row>
@@ -12229,13 +12075,13 @@
         <v>299</v>
       </c>
       <c r="D63" s="32">
-        <v>537</v>
+        <v>568</v>
       </c>
       <c r="E63" s="32">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="F63" s="32">
-        <v>130</v>
+        <v>149</v>
       </c>
     </row>
     <row r="64" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
@@ -12249,13 +12095,13 @@
         <v>297</v>
       </c>
       <c r="D64" s="32">
-        <v>1307</v>
+        <v>1370</v>
       </c>
       <c r="E64" s="32">
-        <v>991</v>
+        <v>1012</v>
       </c>
       <c r="F64" s="32">
-        <v>316</v>
+        <v>358</v>
       </c>
       <c r="O64" s="30"/>
     </row>
@@ -12270,13 +12116,13 @@
         <v>301</v>
       </c>
       <c r="D65" s="32">
-        <v>2780</v>
+        <v>2862</v>
       </c>
       <c r="E65" s="32">
-        <v>2012</v>
+        <v>2009</v>
       </c>
       <c r="F65" s="32">
-        <v>768</v>
+        <v>853</v>
       </c>
       <c r="O65" s="30"/>
     </row>
@@ -12291,13 +12137,13 @@
         <v>300</v>
       </c>
       <c r="D66" s="32">
-        <v>2169</v>
+        <v>2261</v>
       </c>
       <c r="E66" s="32">
-        <v>1490</v>
+        <v>1494</v>
       </c>
       <c r="F66" s="32">
-        <v>679</v>
+        <v>767</v>
       </c>
     </row>
     <row r="67" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
@@ -12311,13 +12157,13 @@
         <v>286</v>
       </c>
       <c r="D67" s="32">
-        <v>7671</v>
+        <v>8343</v>
       </c>
       <c r="E67" s="32">
-        <v>6950</v>
+        <v>7616</v>
       </c>
       <c r="F67" s="32">
-        <v>721</v>
+        <v>727</v>
       </c>
       <c r="O67" s="30"/>
     </row>
@@ -12332,13 +12178,13 @@
         <v>298</v>
       </c>
       <c r="D68" s="32">
-        <v>606</v>
+        <v>637</v>
       </c>
       <c r="E68" s="32">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="F68" s="32">
-        <v>155</v>
+        <v>181</v>
       </c>
       <c r="O68" s="30"/>
     </row>
@@ -12353,13 +12199,13 @@
         <v>299</v>
       </c>
       <c r="D69" s="32">
-        <v>527</v>
+        <v>557</v>
       </c>
       <c r="E69" s="32">
-        <v>434</v>
+        <v>450</v>
       </c>
       <c r="F69" s="32">
-        <v>93</v>
+        <v>107</v>
       </c>
     </row>
     <row r="70" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
@@ -12373,13 +12219,13 @@
         <v>297</v>
       </c>
       <c r="D70" s="32">
-        <v>597</v>
+        <v>638</v>
       </c>
       <c r="E70" s="32">
-        <v>516</v>
+        <v>538</v>
       </c>
       <c r="F70" s="32">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="O70" s="30"/>
     </row>
@@ -12394,13 +12240,13 @@
         <v>301</v>
       </c>
       <c r="D71" s="32">
-        <v>2344</v>
+        <v>2433</v>
       </c>
       <c r="E71" s="32">
-        <v>1809</v>
+        <v>1829</v>
       </c>
       <c r="F71" s="32">
-        <v>535</v>
+        <v>604</v>
       </c>
       <c r="O71" s="30"/>
     </row>
@@ -12415,13 +12261,13 @@
         <v>300</v>
       </c>
       <c r="D72" s="32">
-        <v>1274</v>
+        <v>1315</v>
       </c>
       <c r="E72" s="32">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="F72" s="32">
-        <v>339</v>
+        <v>384</v>
       </c>
     </row>
     <row r="73" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
@@ -12435,13 +12281,13 @@
         <v>286</v>
       </c>
       <c r="D73" s="32">
-        <v>7790</v>
+        <v>8279</v>
       </c>
       <c r="E73" s="32">
-        <v>7074</v>
+        <v>7557</v>
       </c>
       <c r="F73" s="32">
-        <v>716</v>
+        <v>722</v>
       </c>
       <c r="O73" s="30"/>
     </row>
@@ -12456,13 +12302,13 @@
         <v>298</v>
       </c>
       <c r="D74" s="32">
-        <v>1823</v>
+        <v>1926</v>
       </c>
       <c r="E74" s="32">
-        <v>1440</v>
+        <v>1466</v>
       </c>
       <c r="F74" s="32">
-        <v>383</v>
+        <v>460</v>
       </c>
       <c r="O74" s="30"/>
     </row>
@@ -12477,13 +12323,13 @@
         <v>299</v>
       </c>
       <c r="D75" s="32">
-        <v>1017</v>
+        <v>1091</v>
       </c>
       <c r="E75" s="32">
-        <v>916</v>
+        <v>950</v>
       </c>
       <c r="F75" s="32">
-        <v>101</v>
+        <v>141</v>
       </c>
       <c r="O75" s="30"/>
     </row>
@@ -12498,13 +12344,13 @@
         <v>297</v>
       </c>
       <c r="D76" s="32">
-        <v>1167</v>
+        <v>1225</v>
       </c>
       <c r="E76" s="32">
-        <v>1041</v>
+        <v>1066</v>
       </c>
       <c r="F76" s="32">
-        <v>126</v>
+        <v>159</v>
       </c>
       <c r="O76" s="30"/>
     </row>
@@ -12519,13 +12365,13 @@
         <v>301</v>
       </c>
       <c r="D77" s="32">
-        <v>10861</v>
+        <v>11355</v>
       </c>
       <c r="E77" s="32">
-        <v>9122</v>
+        <v>9190</v>
       </c>
       <c r="F77" s="32">
-        <v>1739</v>
+        <v>2165</v>
       </c>
       <c r="O77" s="30"/>
     </row>
@@ -12540,13 +12386,13 @@
         <v>300</v>
       </c>
       <c r="D78" s="32">
-        <v>4388</v>
+        <v>4603</v>
       </c>
       <c r="E78" s="32">
-        <v>3653</v>
+        <v>3669</v>
       </c>
       <c r="F78" s="32">
-        <v>735</v>
+        <v>934</v>
       </c>
       <c r="O78" s="30"/>
     </row>
@@ -12561,13 +12407,13 @@
         <v>286</v>
       </c>
       <c r="D79" s="32">
-        <v>13594</v>
+        <v>14067</v>
       </c>
       <c r="E79" s="32">
-        <v>11626</v>
+        <v>12078</v>
       </c>
       <c r="F79" s="32">
-        <v>1968</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="80" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
@@ -12581,13 +12427,13 @@
         <v>298</v>
       </c>
       <c r="D80" s="32">
-        <v>314</v>
+        <v>327</v>
       </c>
       <c r="E80" s="32">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="F80" s="32">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="81" spans="1:6" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
@@ -12601,13 +12447,13 @@
         <v>299</v>
       </c>
       <c r="D81" s="32">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E81" s="32">
         <v>141</v>
       </c>
       <c r="F81" s="32">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="82" spans="1:6" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
@@ -12621,13 +12467,13 @@
         <v>297</v>
       </c>
       <c r="D82" s="32">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="E82" s="32">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F82" s="32">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="83" spans="1:6" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
@@ -12641,13 +12487,13 @@
         <v>301</v>
       </c>
       <c r="D83" s="32">
-        <v>1994</v>
+        <v>2084</v>
       </c>
       <c r="E83" s="32">
-        <v>1691</v>
+        <v>1713</v>
       </c>
       <c r="F83" s="32">
-        <v>303</v>
+        <v>371</v>
       </c>
     </row>
     <row r="84" spans="1:6" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
@@ -12661,13 +12507,13 @@
         <v>300</v>
       </c>
       <c r="D84" s="32">
-        <v>748</v>
+        <v>778</v>
       </c>
       <c r="E84" s="32">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="F84" s="32">
-        <v>98</v>
+        <v>126</v>
       </c>
     </row>
     <row r="85" spans="1:6" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
@@ -12681,13 +12527,13 @@
         <v>286</v>
       </c>
       <c r="D85" s="32">
-        <v>2173</v>
+        <v>2271</v>
       </c>
       <c r="E85" s="32">
-        <v>1795</v>
+        <v>1890</v>
       </c>
       <c r="F85" s="32">
-        <v>378</v>
+        <v>381</v>
       </c>
     </row>
     <row r="86" spans="1:6" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
@@ -12781,10 +12627,10 @@
         <v>286</v>
       </c>
       <c r="D90" s="32">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E90" s="32">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F90" s="32">
         <v>7</v>
@@ -12801,13 +12647,13 @@
         <v>287</v>
       </c>
       <c r="D91" s="32">
-        <v>3063297</v>
+        <v>3202062</v>
       </c>
       <c r="E91" s="32">
-        <v>2330010</v>
+        <v>2423278</v>
       </c>
       <c r="F91" s="32">
-        <v>733287</v>
+        <v>778784</v>
       </c>
     </row>
   </sheetData>
@@ -12818,7 +12664,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:C270"/>
+  <dimension ref="A1:C275"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -12826,7 +12672,7 @@
   <cols>
     <col min="1" max="1" width="10.3984375" style="23" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" style="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.796875" style="36" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.73046875" style="36" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="8.59765625" style="23"/>
   </cols>
   <sheetData>
@@ -12845,8 +12691,8 @@
       <c r="A2" s="37" t="s">
         <v>282</v>
       </c>
-      <c r="B2" s="34" t="s">
-        <v>311</v>
+      <c r="B2" s="38">
+        <v>44179</v>
       </c>
       <c r="C2" s="32">
         <v>274</v>
@@ -12856,8 +12702,8 @@
       <c r="A3" s="37" t="s">
         <v>282</v>
       </c>
-      <c r="B3" s="34" t="s">
-        <v>312</v>
+      <c r="B3" s="38">
+        <v>44180</v>
       </c>
       <c r="C3" s="32">
         <v>3885</v>
@@ -12867,8 +12713,8 @@
       <c r="A4" s="37" t="s">
         <v>282</v>
       </c>
-      <c r="B4" s="34" t="s">
-        <v>313</v>
+      <c r="B4" s="38">
+        <v>44181</v>
       </c>
       <c r="C4" s="32">
         <v>12804</v>
@@ -12878,8 +12724,8 @@
       <c r="A5" s="37" t="s">
         <v>282</v>
       </c>
-      <c r="B5" s="34" t="s">
-        <v>314</v>
+      <c r="B5" s="38">
+        <v>44182</v>
       </c>
       <c r="C5" s="32">
         <v>15986</v>
@@ -12889,19 +12735,19 @@
       <c r="A6" s="37" t="s">
         <v>282</v>
       </c>
-      <c r="B6" s="34" t="s">
-        <v>315</v>
+      <c r="B6" s="38">
+        <v>44183</v>
       </c>
       <c r="C6" s="32">
-        <v>24778</v>
+        <v>24777</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="37" t="s">
         <v>282</v>
       </c>
-      <c r="B7" s="34" t="s">
-        <v>316</v>
+      <c r="B7" s="38">
+        <v>44184</v>
       </c>
       <c r="C7" s="32">
         <v>12378</v>
@@ -12911,8 +12757,8 @@
       <c r="A8" s="37" t="s">
         <v>282</v>
       </c>
-      <c r="B8" s="34" t="s">
-        <v>317</v>
+      <c r="B8" s="38">
+        <v>44185</v>
       </c>
       <c r="C8" s="32">
         <v>6759</v>
@@ -12922,19 +12768,19 @@
       <c r="A9" s="37" t="s">
         <v>282</v>
       </c>
-      <c r="B9" s="34" t="s">
-        <v>318</v>
+      <c r="B9" s="38">
+        <v>44186</v>
       </c>
       <c r="C9" s="32">
-        <v>18413</v>
+        <v>18415</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="37" t="s">
         <v>282</v>
       </c>
-      <c r="B10" s="34" t="s">
-        <v>319</v>
+      <c r="B10" s="38">
+        <v>44187</v>
       </c>
       <c r="C10" s="32">
         <v>17126</v>
@@ -12944,30 +12790,30 @@
       <c r="A11" s="37" t="s">
         <v>282</v>
       </c>
-      <c r="B11" s="34" t="s">
-        <v>320</v>
+      <c r="B11" s="38">
+        <v>44188</v>
       </c>
       <c r="C11" s="32">
-        <v>24590</v>
+        <v>24596</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="37" t="s">
         <v>282</v>
       </c>
-      <c r="B12" s="34" t="s">
-        <v>321</v>
+      <c r="B12" s="38">
+        <v>44189</v>
       </c>
       <c r="C12" s="32">
-        <v>10264</v>
+        <v>10266</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="37" t="s">
         <v>282</v>
       </c>
-      <c r="B13" s="34" t="s">
-        <v>322</v>
+      <c r="B13" s="38">
+        <v>44190</v>
       </c>
       <c r="C13" s="32">
         <v>1446</v>
@@ -12977,19 +12823,19 @@
       <c r="A14" s="37" t="s">
         <v>282</v>
       </c>
-      <c r="B14" s="34" t="s">
-        <v>323</v>
+      <c r="B14" s="38">
+        <v>44191</v>
       </c>
       <c r="C14" s="32">
-        <v>6662</v>
+        <v>6663</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="37" t="s">
         <v>282</v>
       </c>
-      <c r="B15" s="34" t="s">
-        <v>324</v>
+      <c r="B15" s="38">
+        <v>44192</v>
       </c>
       <c r="C15" s="32">
         <v>5301</v>
@@ -12999,228 +12845,228 @@
       <c r="A16" s="37" t="s">
         <v>282</v>
       </c>
-      <c r="B16" s="34" t="s">
-        <v>325</v>
+      <c r="B16" s="38">
+        <v>44193</v>
       </c>
       <c r="C16" s="32">
-        <v>25446</v>
+        <v>25445</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="37" t="s">
         <v>282</v>
       </c>
-      <c r="B17" s="34" t="s">
-        <v>326</v>
+      <c r="B17" s="38">
+        <v>44194</v>
       </c>
       <c r="C17" s="32">
-        <v>32090</v>
+        <v>32091</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="37" t="s">
         <v>282</v>
       </c>
-      <c r="B18" s="34" t="s">
-        <v>327</v>
+      <c r="B18" s="38">
+        <v>44195</v>
       </c>
       <c r="C18" s="32">
-        <v>37835</v>
+        <v>37975</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="37" t="s">
         <v>282</v>
       </c>
-      <c r="B19" s="34" t="s">
-        <v>328</v>
+      <c r="B19" s="38">
+        <v>44196</v>
       </c>
       <c r="C19" s="32">
-        <v>21639</v>
+        <v>21653</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="37" t="s">
         <v>282</v>
       </c>
-      <c r="B20" s="34" t="s">
-        <v>329</v>
+      <c r="B20" s="38">
+        <v>44197</v>
       </c>
       <c r="C20" s="32">
-        <v>2294</v>
+        <v>2297</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="37" t="s">
         <v>282</v>
       </c>
-      <c r="B21" s="34" t="s">
-        <v>330</v>
+      <c r="B21" s="38">
+        <v>44198</v>
       </c>
       <c r="C21" s="32">
-        <v>9920</v>
+        <v>9923</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="37" t="s">
         <v>282</v>
       </c>
-      <c r="B22" s="34" t="s">
-        <v>331</v>
+      <c r="B22" s="38">
+        <v>44199</v>
       </c>
       <c r="C22" s="32">
-        <v>6201</v>
+        <v>6202</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="37" t="s">
         <v>282</v>
       </c>
-      <c r="B23" s="34" t="s">
-        <v>332</v>
+      <c r="B23" s="38">
+        <v>44200</v>
       </c>
       <c r="C23" s="32">
-        <v>23991</v>
+        <v>24000</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="37" t="s">
         <v>282</v>
       </c>
-      <c r="B24" s="34" t="s">
-        <v>333</v>
+      <c r="B24" s="38">
+        <v>44201</v>
       </c>
       <c r="C24" s="32">
-        <v>27978</v>
+        <v>28027</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="37" t="s">
         <v>282</v>
       </c>
-      <c r="B25" s="34" t="s">
-        <v>334</v>
+      <c r="B25" s="38">
+        <v>44202</v>
       </c>
       <c r="C25" s="32">
-        <v>36072</v>
+        <v>36185</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="37" t="s">
         <v>282</v>
       </c>
-      <c r="B26" s="34" t="s">
-        <v>335</v>
+      <c r="B26" s="38">
+        <v>44203</v>
       </c>
       <c r="C26" s="32">
-        <v>40778</v>
+        <v>40929</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="37" t="s">
         <v>282</v>
       </c>
-      <c r="B27" s="34" t="s">
-        <v>336</v>
+      <c r="B27" s="38">
+        <v>44204</v>
       </c>
       <c r="C27" s="32">
-        <v>43864</v>
+        <v>43940</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="37" t="s">
         <v>282</v>
       </c>
-      <c r="B28" s="34" t="s">
-        <v>337</v>
+      <c r="B28" s="38">
+        <v>44205</v>
       </c>
       <c r="C28" s="32">
-        <v>18555</v>
+        <v>18577</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="37" t="s">
         <v>282</v>
       </c>
-      <c r="B29" s="34" t="s">
-        <v>338</v>
+      <c r="B29" s="38">
+        <v>44206</v>
       </c>
       <c r="C29" s="32">
-        <v>8443</v>
+        <v>8445</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="37" t="s">
         <v>282</v>
       </c>
-      <c r="B30" s="34" t="s">
-        <v>339</v>
+      <c r="B30" s="38">
+        <v>44207</v>
       </c>
       <c r="C30" s="32">
-        <v>28331</v>
+        <v>28452</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="37" t="s">
         <v>282</v>
       </c>
-      <c r="B31" s="34" t="s">
-        <v>340</v>
+      <c r="B31" s="38">
+        <v>44208</v>
       </c>
       <c r="C31" s="32">
-        <v>29117</v>
+        <v>29234</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="37" t="s">
         <v>282</v>
       </c>
-      <c r="B32" s="34" t="s">
-        <v>341</v>
+      <c r="B32" s="38">
+        <v>44209</v>
       </c>
       <c r="C32" s="32">
-        <v>27574</v>
+        <v>27631</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="37" t="s">
         <v>282</v>
       </c>
-      <c r="B33" s="34" t="s">
-        <v>342</v>
+      <c r="B33" s="38">
+        <v>44210</v>
       </c>
       <c r="C33" s="32">
-        <v>21653</v>
+        <v>21656</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="37" t="s">
         <v>282</v>
       </c>
-      <c r="B34" s="34" t="s">
-        <v>343</v>
+      <c r="B34" s="38">
+        <v>44211</v>
       </c>
       <c r="C34" s="32">
-        <v>23629</v>
+        <v>23736</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="37" t="s">
         <v>282</v>
       </c>
-      <c r="B35" s="34" t="s">
-        <v>344</v>
+      <c r="B35" s="38">
+        <v>44212</v>
       </c>
       <c r="C35" s="32">
-        <v>12591</v>
+        <v>12598</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="37" t="s">
         <v>282</v>
       </c>
-      <c r="B36" s="34" t="s">
-        <v>345</v>
+      <c r="B36" s="38">
+        <v>44213</v>
       </c>
       <c r="C36" s="32">
         <v>2667</v>
@@ -13230,2574 +13076,2629 @@
       <c r="A37" s="37" t="s">
         <v>282</v>
       </c>
-      <c r="B37" s="34" t="s">
-        <v>346</v>
+      <c r="B37" s="38">
+        <v>44214</v>
       </c>
       <c r="C37" s="32">
-        <v>11974</v>
+        <v>12056</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="37" t="s">
         <v>282</v>
       </c>
-      <c r="B38" s="34" t="s">
-        <v>347</v>
+      <c r="B38" s="38">
+        <v>44215</v>
       </c>
       <c r="C38" s="32">
-        <v>22038</v>
+        <v>22127</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="37" t="s">
         <v>282</v>
       </c>
-      <c r="B39" s="34" t="s">
-        <v>348</v>
+      <c r="B39" s="38">
+        <v>44216</v>
       </c>
       <c r="C39" s="32">
-        <v>29567</v>
+        <v>29637</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="37" t="s">
         <v>282</v>
       </c>
-      <c r="B40" s="34" t="s">
-        <v>349</v>
+      <c r="B40" s="38">
+        <v>44217</v>
       </c>
       <c r="C40" s="32">
-        <v>27150</v>
+        <v>27284</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="37" t="s">
         <v>282</v>
       </c>
-      <c r="B41" s="34" t="s">
-        <v>350</v>
+      <c r="B41" s="38">
+        <v>44218</v>
       </c>
       <c r="C41" s="32">
-        <v>32594</v>
+        <v>32734</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="37" t="s">
         <v>282</v>
       </c>
-      <c r="B42" s="34" t="s">
-        <v>351</v>
+      <c r="B42" s="38">
+        <v>44219</v>
       </c>
       <c r="C42" s="32">
-        <v>17754</v>
+        <v>17988</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="37" t="s">
         <v>282</v>
       </c>
-      <c r="B43" s="34" t="s">
-        <v>352</v>
+      <c r="B43" s="38">
+        <v>44220</v>
       </c>
       <c r="C43" s="32">
-        <v>6993</v>
+        <v>7064</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="37" t="s">
         <v>282</v>
       </c>
-      <c r="B44" s="34" t="s">
-        <v>353</v>
+      <c r="B44" s="38">
+        <v>44221</v>
       </c>
       <c r="C44" s="32">
-        <v>33982</v>
+        <v>34096</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="37" t="s">
         <v>282</v>
       </c>
-      <c r="B45" s="34" t="s">
-        <v>354</v>
+      <c r="B45" s="38">
+        <v>44222</v>
       </c>
       <c r="C45" s="32">
-        <v>38024</v>
+        <v>40353</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="37" t="s">
         <v>282</v>
       </c>
-      <c r="B46" s="34" t="s">
-        <v>355</v>
+      <c r="B46" s="38">
+        <v>44223</v>
       </c>
       <c r="C46" s="32">
-        <v>35308</v>
+        <v>39027</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="37" t="s">
         <v>282</v>
       </c>
-      <c r="B47" s="34" t="s">
-        <v>356</v>
+      <c r="B47" s="38">
+        <v>44224</v>
       </c>
       <c r="C47" s="32">
-        <v>33480</v>
+        <v>36479</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="37" t="s">
         <v>282</v>
       </c>
-      <c r="B48" s="34" t="s">
-        <v>357</v>
+      <c r="B48" s="38">
+        <v>44225</v>
       </c>
       <c r="C48" s="32">
-        <v>35208</v>
+        <v>35344</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="37" t="s">
         <v>282</v>
       </c>
-      <c r="B49" s="34" t="s">
-        <v>358</v>
+      <c r="B49" s="38">
+        <v>44226</v>
       </c>
       <c r="C49" s="32">
-        <v>16528</v>
+        <v>16704</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="37" t="s">
         <v>282</v>
       </c>
-      <c r="B50" s="34" t="s">
-        <v>359</v>
+      <c r="B50" s="38">
+        <v>44227</v>
       </c>
       <c r="C50" s="32">
-        <v>7369</v>
+        <v>7404</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="37" t="s">
         <v>282</v>
       </c>
-      <c r="B51" s="34" t="s">
-        <v>360</v>
+      <c r="B51" s="38">
+        <v>44228</v>
       </c>
       <c r="C51" s="32">
-        <v>28916</v>
+        <v>29293</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="37" t="s">
         <v>282</v>
       </c>
-      <c r="B52" s="34" t="s">
-        <v>361</v>
+      <c r="B52" s="38">
+        <v>44229</v>
       </c>
       <c r="C52" s="32">
-        <v>25162</v>
+        <v>26720</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="37" t="s">
         <v>282</v>
       </c>
-      <c r="B53" s="34" t="s">
-        <v>362</v>
+      <c r="B53" s="38">
+        <v>44230</v>
       </c>
       <c r="C53" s="32">
-        <v>32575</v>
+        <v>36432</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="37" t="s">
         <v>282</v>
       </c>
-      <c r="B54" s="34" t="s">
-        <v>363</v>
+      <c r="B54" s="38">
+        <v>44231</v>
       </c>
       <c r="C54" s="32">
-        <v>21409</v>
+        <v>27216</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="37" t="s">
         <v>282</v>
       </c>
-      <c r="B55" s="34" t="s">
-        <v>364</v>
+      <c r="B55" s="38">
+        <v>44232</v>
       </c>
       <c r="C55" s="32">
-        <v>14293</v>
+        <v>21974</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="37" t="s">
-        <v>283</v>
-      </c>
-      <c r="B56" s="34" t="s">
-        <v>311</v>
+        <v>282</v>
+      </c>
+      <c r="B56" s="38">
+        <v>44233</v>
       </c>
       <c r="C56" s="32">
-        <v>138</v>
+        <v>7006</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="37" t="s">
         <v>283</v>
       </c>
-      <c r="B57" s="34" t="s">
-        <v>312</v>
+      <c r="B57" s="38">
+        <v>44179</v>
       </c>
       <c r="C57" s="32">
-        <v>1488</v>
+        <v>138</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="37" t="s">
         <v>283</v>
       </c>
-      <c r="B58" s="34" t="s">
-        <v>313</v>
+      <c r="B58" s="38">
+        <v>44180</v>
       </c>
       <c r="C58" s="32">
-        <v>4970</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="37" t="s">
         <v>283</v>
       </c>
-      <c r="B59" s="34" t="s">
-        <v>314</v>
+      <c r="B59" s="38">
+        <v>44181</v>
       </c>
       <c r="C59" s="32">
-        <v>6643</v>
+        <v>4970</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="37" t="s">
         <v>283</v>
       </c>
-      <c r="B60" s="34" t="s">
-        <v>315</v>
+      <c r="B60" s="38">
+        <v>44182</v>
       </c>
       <c r="C60" s="32">
-        <v>10816</v>
+        <v>6643</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="37" t="s">
         <v>283</v>
       </c>
-      <c r="B61" s="34" t="s">
-        <v>316</v>
+      <c r="B61" s="38">
+        <v>44183</v>
       </c>
       <c r="C61" s="32">
-        <v>4706</v>
+        <v>10816</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="37" t="s">
         <v>283</v>
       </c>
-      <c r="B62" s="34" t="s">
-        <v>317</v>
+      <c r="B62" s="38">
+        <v>44184</v>
       </c>
       <c r="C62" s="32">
-        <v>2533</v>
+        <v>4706</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="37" t="s">
         <v>283</v>
       </c>
-      <c r="B63" s="34" t="s">
-        <v>318</v>
+      <c r="B63" s="38">
+        <v>44185</v>
       </c>
       <c r="C63" s="32">
-        <v>7839</v>
+        <v>2533</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="37" t="s">
         <v>283</v>
       </c>
-      <c r="B64" s="34" t="s">
-        <v>319</v>
+      <c r="B64" s="38">
+        <v>44186</v>
       </c>
       <c r="C64" s="32">
-        <v>7344</v>
+        <v>7839</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="37" t="s">
         <v>283</v>
       </c>
-      <c r="B65" s="34" t="s">
-        <v>320</v>
+      <c r="B65" s="38">
+        <v>44187</v>
       </c>
       <c r="C65" s="32">
-        <v>10734</v>
+        <v>7345</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="37" t="s">
         <v>283</v>
       </c>
-      <c r="B66" s="34" t="s">
-        <v>321</v>
+      <c r="B66" s="38">
+        <v>44188</v>
       </c>
       <c r="C66" s="32">
-        <v>4635</v>
+        <v>10748</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="37" t="s">
         <v>283</v>
       </c>
-      <c r="B67" s="34" t="s">
-        <v>322</v>
+      <c r="B67" s="38">
+        <v>44189</v>
       </c>
       <c r="C67" s="32">
-        <v>665</v>
+        <v>4636</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="37" t="s">
         <v>283</v>
       </c>
-      <c r="B68" s="34" t="s">
-        <v>323</v>
+      <c r="B68" s="38">
+        <v>44190</v>
       </c>
       <c r="C68" s="32">
-        <v>3169</v>
+        <v>665</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="37" t="s">
         <v>283</v>
       </c>
-      <c r="B69" s="34" t="s">
-        <v>324</v>
+      <c r="B69" s="38">
+        <v>44191</v>
       </c>
       <c r="C69" s="32">
-        <v>2236</v>
+        <v>3169</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="37" t="s">
         <v>283</v>
       </c>
-      <c r="B70" s="34" t="s">
-        <v>325</v>
+      <c r="B70" s="38">
+        <v>44192</v>
       </c>
       <c r="C70" s="32">
-        <v>12842</v>
+        <v>2236</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="37" t="s">
         <v>283</v>
       </c>
-      <c r="B71" s="34" t="s">
-        <v>326</v>
+      <c r="B71" s="38">
+        <v>44193</v>
       </c>
       <c r="C71" s="32">
-        <v>16946</v>
+        <v>12844</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="37" t="s">
         <v>283</v>
       </c>
-      <c r="B72" s="34" t="s">
-        <v>327</v>
+      <c r="B72" s="38">
+        <v>44194</v>
       </c>
       <c r="C72" s="32">
-        <v>20735</v>
+        <v>16948</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="37" t="s">
         <v>283</v>
       </c>
-      <c r="B73" s="34" t="s">
-        <v>328</v>
+      <c r="B73" s="38">
+        <v>44195</v>
       </c>
       <c r="C73" s="32">
-        <v>12601</v>
+        <v>20824</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="37" t="s">
         <v>283</v>
       </c>
-      <c r="B74" s="34" t="s">
-        <v>329</v>
+      <c r="B74" s="38">
+        <v>44196</v>
       </c>
       <c r="C74" s="32">
-        <v>1181</v>
+        <v>12609</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="37" t="s">
         <v>283</v>
       </c>
-      <c r="B75" s="34" t="s">
-        <v>330</v>
+      <c r="B75" s="38">
+        <v>44197</v>
       </c>
       <c r="C75" s="32">
-        <v>5686</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="37" t="s">
         <v>283</v>
       </c>
-      <c r="B76" s="34" t="s">
-        <v>331</v>
+      <c r="B76" s="38">
+        <v>44198</v>
       </c>
       <c r="C76" s="32">
-        <v>3289</v>
+        <v>5692</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="37" t="s">
         <v>283</v>
       </c>
-      <c r="B77" s="34" t="s">
-        <v>332</v>
+      <c r="B77" s="38">
+        <v>44199</v>
       </c>
       <c r="C77" s="32">
-        <v>14840</v>
+        <v>3290</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="37" t="s">
         <v>283</v>
       </c>
-      <c r="B78" s="34" t="s">
-        <v>333</v>
+      <c r="B78" s="38">
+        <v>44200</v>
       </c>
       <c r="C78" s="32">
-        <v>16603</v>
+        <v>14847</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="37" t="s">
         <v>283</v>
       </c>
-      <c r="B79" s="34" t="s">
-        <v>334</v>
+      <c r="B79" s="38">
+        <v>44201</v>
       </c>
       <c r="C79" s="32">
-        <v>20122</v>
+        <v>16642</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="37" t="s">
         <v>283</v>
       </c>
-      <c r="B80" s="34" t="s">
-        <v>335</v>
+      <c r="B80" s="38">
+        <v>44202</v>
       </c>
       <c r="C80" s="32">
-        <v>22862</v>
+        <v>20208</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="37" t="s">
         <v>283</v>
       </c>
-      <c r="B81" s="34" t="s">
-        <v>336</v>
+      <c r="B81" s="38">
+        <v>44203</v>
       </c>
       <c r="C81" s="32">
-        <v>24519</v>
+        <v>22938</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="37" t="s">
         <v>283</v>
       </c>
-      <c r="B82" s="34" t="s">
-        <v>337</v>
+      <c r="B82" s="38">
+        <v>44204</v>
       </c>
       <c r="C82" s="32">
-        <v>10633</v>
+        <v>24563</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="37" t="s">
         <v>283</v>
       </c>
-      <c r="B83" s="34" t="s">
-        <v>338</v>
+      <c r="B83" s="38">
+        <v>44205</v>
       </c>
       <c r="C83" s="32">
-        <v>4439</v>
+        <v>10645</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="37" t="s">
         <v>283</v>
       </c>
-      <c r="B84" s="34" t="s">
-        <v>339</v>
+      <c r="B84" s="38">
+        <v>44206</v>
       </c>
       <c r="C84" s="32">
-        <v>17963</v>
+        <v>4439</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="37" t="s">
         <v>283</v>
       </c>
-      <c r="B85" s="34" t="s">
-        <v>340</v>
+      <c r="B85" s="38">
+        <v>44207</v>
       </c>
       <c r="C85" s="32">
-        <v>19751</v>
+        <v>18056</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="37" t="s">
         <v>283</v>
       </c>
-      <c r="B86" s="34" t="s">
-        <v>341</v>
+      <c r="B86" s="38">
+        <v>44208</v>
       </c>
       <c r="C86" s="32">
-        <v>19806</v>
+        <v>19832</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="37" t="s">
         <v>283</v>
       </c>
-      <c r="B87" s="34" t="s">
-        <v>342</v>
+      <c r="B87" s="38">
+        <v>44209</v>
       </c>
       <c r="C87" s="32">
-        <v>17161</v>
+        <v>19830</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="37" t="s">
         <v>283</v>
       </c>
-      <c r="B88" s="34" t="s">
-        <v>343</v>
+      <c r="B88" s="38">
+        <v>44210</v>
       </c>
       <c r="C88" s="32">
-        <v>17451</v>
+        <v>17165</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="37" t="s">
         <v>283</v>
       </c>
-      <c r="B89" s="34" t="s">
-        <v>344</v>
+      <c r="B89" s="38">
+        <v>44211</v>
       </c>
       <c r="C89" s="32">
-        <v>10818</v>
+        <v>17511</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="37" t="s">
         <v>283</v>
       </c>
-      <c r="B90" s="34" t="s">
-        <v>345</v>
+      <c r="B90" s="38">
+        <v>44212</v>
       </c>
       <c r="C90" s="32">
-        <v>1699</v>
+        <v>10830</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="37" t="s">
         <v>283</v>
       </c>
-      <c r="B91" s="34" t="s">
-        <v>346</v>
+      <c r="B91" s="38">
+        <v>44213</v>
       </c>
       <c r="C91" s="32">
-        <v>8560</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="37" t="s">
         <v>283</v>
       </c>
-      <c r="B92" s="34" t="s">
-        <v>347</v>
+      <c r="B92" s="38">
+        <v>44214</v>
       </c>
       <c r="C92" s="32">
-        <v>17029</v>
+        <v>8617</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="37" t="s">
         <v>283</v>
       </c>
-      <c r="B93" s="34" t="s">
-        <v>348</v>
+      <c r="B93" s="38">
+        <v>44215</v>
       </c>
       <c r="C93" s="32">
-        <v>22311</v>
+        <v>17096</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="37" t="s">
         <v>283</v>
       </c>
-      <c r="B94" s="34" t="s">
-        <v>349</v>
+      <c r="B94" s="38">
+        <v>44216</v>
       </c>
       <c r="C94" s="32">
-        <v>21563</v>
+        <v>22364</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="37" t="s">
         <v>283</v>
       </c>
-      <c r="B95" s="34" t="s">
-        <v>350</v>
+      <c r="B95" s="38">
+        <v>44217</v>
       </c>
       <c r="C95" s="32">
-        <v>22997</v>
+        <v>21639</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="37" t="s">
         <v>283</v>
       </c>
-      <c r="B96" s="34" t="s">
-        <v>351</v>
+      <c r="B96" s="38">
+        <v>44218</v>
       </c>
       <c r="C96" s="32">
-        <v>12688</v>
+        <v>23041</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="37" t="s">
         <v>283</v>
       </c>
-      <c r="B97" s="34" t="s">
-        <v>352</v>
+      <c r="B97" s="38">
+        <v>44219</v>
       </c>
       <c r="C97" s="32">
-        <v>5025</v>
+        <v>12755</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="37" t="s">
         <v>283</v>
       </c>
-      <c r="B98" s="34" t="s">
-        <v>353</v>
+      <c r="B98" s="38">
+        <v>44220</v>
       </c>
       <c r="C98" s="32">
-        <v>22872</v>
+        <v>5091</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="37" t="s">
         <v>283</v>
       </c>
-      <c r="B99" s="34" t="s">
-        <v>354</v>
+      <c r="B99" s="38">
+        <v>44221</v>
       </c>
       <c r="C99" s="32">
-        <v>27791</v>
+        <v>22941</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="37" t="s">
         <v>283</v>
       </c>
-      <c r="B100" s="34" t="s">
-        <v>355</v>
+      <c r="B100" s="38">
+        <v>44222</v>
       </c>
       <c r="C100" s="32">
-        <v>27776</v>
+        <v>29607</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="37" t="s">
         <v>283</v>
       </c>
-      <c r="B101" s="34" t="s">
-        <v>356</v>
+      <c r="B101" s="38">
+        <v>44223</v>
       </c>
       <c r="C101" s="32">
-        <v>27782</v>
+        <v>30457</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="37" t="s">
         <v>283</v>
       </c>
-      <c r="B102" s="34" t="s">
-        <v>357</v>
+      <c r="B102" s="38">
+        <v>44224</v>
       </c>
       <c r="C102" s="32">
-        <v>27802</v>
+        <v>29552</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="37" t="s">
         <v>283</v>
       </c>
-      <c r="B103" s="34" t="s">
-        <v>358</v>
+      <c r="B103" s="38">
+        <v>44225</v>
       </c>
       <c r="C103" s="32">
-        <v>13460</v>
+        <v>27936</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="37" t="s">
         <v>283</v>
       </c>
-      <c r="B104" s="34" t="s">
-        <v>359</v>
+      <c r="B104" s="38">
+        <v>44226</v>
       </c>
       <c r="C104" s="32">
-        <v>5721</v>
+        <v>13583</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="37" t="s">
         <v>283</v>
       </c>
-      <c r="B105" s="34" t="s">
-        <v>360</v>
+      <c r="B105" s="38">
+        <v>44227</v>
       </c>
       <c r="C105" s="32">
-        <v>21824</v>
+        <v>5732</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="37" t="s">
         <v>283</v>
       </c>
-      <c r="B106" s="34" t="s">
-        <v>361</v>
+      <c r="B106" s="38">
+        <v>44228</v>
       </c>
       <c r="C106" s="32">
-        <v>22287</v>
+        <v>22206</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="37" t="s">
         <v>283</v>
       </c>
-      <c r="B107" s="34" t="s">
-        <v>362</v>
+      <c r="B107" s="38">
+        <v>44229</v>
       </c>
       <c r="C107" s="32">
-        <v>27445</v>
+        <v>23714</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="37" t="s">
         <v>283</v>
       </c>
-      <c r="B108" s="34" t="s">
-        <v>363</v>
+      <c r="B108" s="38">
+        <v>44230</v>
       </c>
       <c r="C108" s="32">
-        <v>20465</v>
+        <v>30191</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="37" t="s">
         <v>283</v>
       </c>
-      <c r="B109" s="34" t="s">
-        <v>364</v>
+      <c r="B109" s="38">
+        <v>44231</v>
       </c>
       <c r="C109" s="32">
-        <v>13221</v>
+        <v>25431</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="37" t="s">
-        <v>284</v>
-      </c>
-      <c r="B110" s="34" t="s">
-        <v>311</v>
+        <v>283</v>
+      </c>
+      <c r="B110" s="38">
+        <v>44232</v>
       </c>
       <c r="C110" s="32">
-        <v>24</v>
+        <v>20185</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="37" t="s">
-        <v>284</v>
-      </c>
-      <c r="B111" s="34" t="s">
-        <v>312</v>
+        <v>283</v>
+      </c>
+      <c r="B111" s="38">
+        <v>44233</v>
       </c>
       <c r="C111" s="32">
-        <v>303</v>
+        <v>7732</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="37" t="s">
         <v>284</v>
       </c>
-      <c r="B112" s="34" t="s">
-        <v>313</v>
+      <c r="B112" s="38">
+        <v>44179</v>
       </c>
       <c r="C112" s="32">
-        <v>955</v>
+        <v>24</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="37" t="s">
         <v>284</v>
       </c>
-      <c r="B113" s="34" t="s">
-        <v>314</v>
+      <c r="B113" s="38">
+        <v>44180</v>
       </c>
       <c r="C113" s="32">
-        <v>1429</v>
+        <v>304</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="37" t="s">
         <v>284</v>
       </c>
-      <c r="B114" s="34" t="s">
-        <v>315</v>
+      <c r="B114" s="38">
+        <v>44181</v>
       </c>
       <c r="C114" s="32">
-        <v>2022</v>
+        <v>955</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="37" t="s">
         <v>284</v>
       </c>
-      <c r="B115" s="34" t="s">
-        <v>316</v>
+      <c r="B115" s="38">
+        <v>44182</v>
       </c>
       <c r="C115" s="32">
-        <v>1008</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="37" t="s">
         <v>284</v>
       </c>
-      <c r="B116" s="34" t="s">
-        <v>317</v>
+      <c r="B116" s="38">
+        <v>44183</v>
       </c>
       <c r="C116" s="32">
-        <v>497</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="37" t="s">
         <v>284</v>
       </c>
-      <c r="B117" s="34" t="s">
-        <v>318</v>
+      <c r="B117" s="38">
+        <v>44184</v>
       </c>
       <c r="C117" s="32">
-        <v>1490</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="37" t="s">
         <v>284</v>
       </c>
-      <c r="B118" s="34" t="s">
-        <v>319</v>
+      <c r="B118" s="38">
+        <v>44185</v>
       </c>
       <c r="C118" s="32">
-        <v>2068</v>
+        <v>497</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="37" t="s">
         <v>284</v>
       </c>
-      <c r="B119" s="34" t="s">
-        <v>320</v>
+      <c r="B119" s="38">
+        <v>44186</v>
       </c>
       <c r="C119" s="32">
-        <v>2893</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="37" t="s">
         <v>284</v>
       </c>
-      <c r="B120" s="34" t="s">
-        <v>321</v>
+      <c r="B120" s="38">
+        <v>44187</v>
       </c>
       <c r="C120" s="32">
-        <v>1884</v>
+        <v>2068</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="37" t="s">
         <v>284</v>
       </c>
-      <c r="B121" s="34" t="s">
-        <v>322</v>
+      <c r="B121" s="38">
+        <v>44188</v>
       </c>
       <c r="C121" s="32">
-        <v>325</v>
+        <v>2895</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="37" t="s">
         <v>284</v>
       </c>
-      <c r="B122" s="34" t="s">
-        <v>323</v>
+      <c r="B122" s="38">
+        <v>44189</v>
       </c>
       <c r="C122" s="32">
-        <v>1716</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="37" t="s">
         <v>284</v>
       </c>
-      <c r="B123" s="34" t="s">
-        <v>324</v>
+      <c r="B123" s="38">
+        <v>44190</v>
       </c>
       <c r="C123" s="32">
-        <v>1119</v>
+        <v>325</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="37" t="s">
         <v>284</v>
       </c>
-      <c r="B124" s="34" t="s">
-        <v>325</v>
+      <c r="B124" s="38">
+        <v>44191</v>
       </c>
       <c r="C124" s="32">
-        <v>6634</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="37" t="s">
         <v>284</v>
       </c>
-      <c r="B125" s="34" t="s">
-        <v>326</v>
+      <c r="B125" s="38">
+        <v>44192</v>
       </c>
       <c r="C125" s="32">
-        <v>10652</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="37" t="s">
         <v>284</v>
       </c>
-      <c r="B126" s="34" t="s">
-        <v>327</v>
+      <c r="B126" s="38">
+        <v>44193</v>
       </c>
       <c r="C126" s="32">
-        <v>17324</v>
+        <v>6634</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="37" t="s">
         <v>284</v>
       </c>
-      <c r="B127" s="34" t="s">
-        <v>328</v>
+      <c r="B127" s="38">
+        <v>44194</v>
       </c>
       <c r="C127" s="32">
-        <v>10841</v>
+        <v>10654</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="37" t="s">
         <v>284</v>
       </c>
-      <c r="B128" s="34" t="s">
-        <v>329</v>
+      <c r="B128" s="38">
+        <v>44195</v>
       </c>
       <c r="C128" s="32">
-        <v>1321</v>
+        <v>17422</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="37" t="s">
         <v>284</v>
       </c>
-      <c r="B129" s="34" t="s">
-        <v>330</v>
+      <c r="B129" s="38">
+        <v>44196</v>
       </c>
       <c r="C129" s="32">
-        <v>6191</v>
+        <v>10866</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="37" t="s">
         <v>284</v>
       </c>
-      <c r="B130" s="34" t="s">
-        <v>331</v>
+      <c r="B130" s="38">
+        <v>44197</v>
       </c>
       <c r="C130" s="32">
-        <v>3484</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="37" t="s">
         <v>284</v>
       </c>
-      <c r="B131" s="34" t="s">
-        <v>332</v>
+      <c r="B131" s="38">
+        <v>44198</v>
       </c>
       <c r="C131" s="32">
-        <v>16265</v>
+        <v>6201</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="37" t="s">
         <v>284</v>
       </c>
-      <c r="B132" s="34" t="s">
-        <v>333</v>
+      <c r="B132" s="38">
+        <v>44199</v>
       </c>
       <c r="C132" s="32">
-        <v>18411</v>
+        <v>3488</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="37" t="s">
         <v>284</v>
       </c>
-      <c r="B133" s="34" t="s">
-        <v>334</v>
+      <c r="B133" s="38">
+        <v>44200</v>
       </c>
       <c r="C133" s="32">
-        <v>20391</v>
+        <v>16266</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="37" t="s">
         <v>284</v>
       </c>
-      <c r="B134" s="34" t="s">
-        <v>335</v>
+      <c r="B134" s="38">
+        <v>44201</v>
       </c>
       <c r="C134" s="32">
-        <v>24419</v>
+        <v>18442</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="37" t="s">
         <v>284</v>
       </c>
-      <c r="B135" s="34" t="s">
-        <v>336</v>
+      <c r="B135" s="38">
+        <v>44202</v>
       </c>
       <c r="C135" s="32">
-        <v>24759</v>
+        <v>20474</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="37" t="s">
         <v>284</v>
       </c>
-      <c r="B136" s="34" t="s">
-        <v>337</v>
+      <c r="B136" s="38">
+        <v>44203</v>
       </c>
       <c r="C136" s="32">
-        <v>13972</v>
+        <v>24518</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="37" t="s">
         <v>284</v>
       </c>
-      <c r="B137" s="34" t="s">
-        <v>338</v>
+      <c r="B137" s="38">
+        <v>44204</v>
       </c>
       <c r="C137" s="32">
-        <v>4394</v>
+        <v>24788</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="37" t="s">
         <v>284</v>
       </c>
-      <c r="B138" s="34" t="s">
-        <v>339</v>
+      <c r="B138" s="38">
+        <v>44205</v>
       </c>
       <c r="C138" s="32">
-        <v>23638</v>
+        <v>13993</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="37" t="s">
         <v>284</v>
       </c>
-      <c r="B139" s="34" t="s">
-        <v>340</v>
+      <c r="B139" s="38">
+        <v>44206</v>
       </c>
       <c r="C139" s="32">
-        <v>28584</v>
+        <v>4395</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="37" t="s">
         <v>284</v>
       </c>
-      <c r="B140" s="34" t="s">
-        <v>341</v>
+      <c r="B140" s="38">
+        <v>44207</v>
       </c>
       <c r="C140" s="32">
-        <v>29635</v>
+        <v>23668</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="37" t="s">
         <v>284</v>
       </c>
-      <c r="B141" s="34" t="s">
-        <v>342</v>
+      <c r="B141" s="38">
+        <v>44208</v>
       </c>
       <c r="C141" s="32">
-        <v>33975</v>
+        <v>28669</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="37" t="s">
         <v>284</v>
       </c>
-      <c r="B142" s="34" t="s">
-        <v>343</v>
+      <c r="B142" s="38">
+        <v>44209</v>
       </c>
       <c r="C142" s="32">
-        <v>30461</v>
+        <v>29653</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="37" t="s">
         <v>284</v>
       </c>
-      <c r="B143" s="34" t="s">
-        <v>344</v>
+      <c r="B143" s="38">
+        <v>44210</v>
       </c>
       <c r="C143" s="32">
-        <v>25066</v>
+        <v>33990</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="37" t="s">
         <v>284</v>
       </c>
-      <c r="B144" s="34" t="s">
-        <v>345</v>
+      <c r="B144" s="38">
+        <v>44211</v>
       </c>
       <c r="C144" s="32">
-        <v>6695</v>
+        <v>30535</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="37" t="s">
         <v>284</v>
       </c>
-      <c r="B145" s="34" t="s">
-        <v>346</v>
+      <c r="B145" s="38">
+        <v>44212</v>
       </c>
       <c r="C145" s="32">
-        <v>12107</v>
+        <v>25085</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="37" t="s">
         <v>284</v>
       </c>
-      <c r="B146" s="34" t="s">
-        <v>347</v>
+      <c r="B146" s="38">
+        <v>44213</v>
       </c>
       <c r="C146" s="32">
-        <v>22711</v>
+        <v>6695</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="37" t="s">
         <v>284</v>
       </c>
-      <c r="B147" s="34" t="s">
-        <v>348</v>
+      <c r="B147" s="38">
+        <v>44214</v>
       </c>
       <c r="C147" s="32">
-        <v>31265</v>
+        <v>12158</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="37" t="s">
         <v>284</v>
       </c>
-      <c r="B148" s="34" t="s">
-        <v>349</v>
+      <c r="B148" s="38">
+        <v>44215</v>
       </c>
       <c r="C148" s="32">
-        <v>33394</v>
+        <v>22782</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="37" t="s">
         <v>284</v>
       </c>
-      <c r="B149" s="34" t="s">
-        <v>350</v>
+      <c r="B149" s="38">
+        <v>44216</v>
       </c>
       <c r="C149" s="32">
-        <v>29681</v>
+        <v>31352</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="37" t="s">
         <v>284</v>
       </c>
-      <c r="B150" s="34" t="s">
-        <v>351</v>
+      <c r="B150" s="38">
+        <v>44217</v>
       </c>
       <c r="C150" s="32">
-        <v>21403</v>
+        <v>33426</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="37" t="s">
         <v>284</v>
       </c>
-      <c r="B151" s="34" t="s">
-        <v>352</v>
+      <c r="B151" s="38">
+        <v>44218</v>
       </c>
       <c r="C151" s="32">
-        <v>8746</v>
+        <v>29745</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="37" t="s">
         <v>284</v>
       </c>
-      <c r="B152" s="34" t="s">
-        <v>353</v>
+      <c r="B152" s="38">
+        <v>44219</v>
       </c>
       <c r="C152" s="32">
-        <v>26292</v>
+        <v>21429</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="37" t="s">
         <v>284</v>
       </c>
-      <c r="B153" s="34" t="s">
-        <v>354</v>
+      <c r="B153" s="38">
+        <v>44220</v>
       </c>
       <c r="C153" s="32">
-        <v>33201</v>
+        <v>8814</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="37" t="s">
         <v>284</v>
       </c>
-      <c r="B154" s="34" t="s">
-        <v>355</v>
+      <c r="B154" s="38">
+        <v>44221</v>
       </c>
       <c r="C154" s="32">
-        <v>38093</v>
+        <v>26339</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="37" t="s">
         <v>284</v>
       </c>
-      <c r="B155" s="34" t="s">
-        <v>356</v>
+      <c r="B155" s="38">
+        <v>44222</v>
       </c>
       <c r="C155" s="32">
-        <v>42002</v>
+        <v>35897</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="37" t="s">
         <v>284</v>
       </c>
-      <c r="B156" s="34" t="s">
-        <v>357</v>
+      <c r="B156" s="38">
+        <v>44223</v>
       </c>
       <c r="C156" s="32">
-        <v>43485</v>
+        <v>41337</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="37" t="s">
         <v>284</v>
       </c>
-      <c r="B157" s="34" t="s">
-        <v>358</v>
+      <c r="B157" s="38">
+        <v>44224</v>
       </c>
       <c r="C157" s="32">
-        <v>21930</v>
+        <v>46679</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="37" t="s">
         <v>284</v>
       </c>
-      <c r="B158" s="34" t="s">
-        <v>359</v>
+      <c r="B158" s="38">
+        <v>44225</v>
       </c>
       <c r="C158" s="32">
-        <v>6926</v>
+        <v>43628</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="37" t="s">
         <v>284</v>
       </c>
-      <c r="B159" s="34" t="s">
-        <v>360</v>
+      <c r="B159" s="38">
+        <v>44226</v>
       </c>
       <c r="C159" s="32">
-        <v>32237</v>
+        <v>22086</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="37" t="s">
         <v>284</v>
       </c>
-      <c r="B160" s="34" t="s">
-        <v>361</v>
+      <c r="B160" s="38">
+        <v>44227</v>
       </c>
       <c r="C160" s="32">
-        <v>36258</v>
+        <v>6936</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="37" t="s">
         <v>284</v>
       </c>
-      <c r="B161" s="34" t="s">
-        <v>362</v>
+      <c r="B161" s="38">
+        <v>44228</v>
       </c>
       <c r="C161" s="32">
-        <v>44169</v>
+        <v>32785</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="37" t="s">
         <v>284</v>
       </c>
-      <c r="B162" s="34" t="s">
-        <v>363</v>
+      <c r="B162" s="38">
+        <v>44229</v>
       </c>
       <c r="C162" s="32">
-        <v>37660</v>
+        <v>38238</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="37" t="s">
         <v>284</v>
       </c>
-      <c r="B163" s="34" t="s">
-        <v>364</v>
+      <c r="B163" s="38">
+        <v>44230</v>
       </c>
       <c r="C163" s="32">
-        <v>20931</v>
+        <v>50989</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="37" t="s">
-        <v>285</v>
-      </c>
-      <c r="B164" s="34" t="s">
-        <v>311</v>
+        <v>284</v>
+      </c>
+      <c r="B164" s="38">
+        <v>44231</v>
       </c>
       <c r="C164" s="32">
-        <v>1</v>
+        <v>49790</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="37" t="s">
-        <v>285</v>
-      </c>
-      <c r="B165" s="34" t="s">
-        <v>312</v>
+        <v>284</v>
+      </c>
+      <c r="B165" s="38">
+        <v>44232</v>
       </c>
       <c r="C165" s="32">
-        <v>7</v>
+        <v>32264</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="37" t="s">
-        <v>285</v>
-      </c>
-      <c r="B166" s="34" t="s">
-        <v>313</v>
+        <v>284</v>
+      </c>
+      <c r="B166" s="38">
+        <v>44233</v>
       </c>
       <c r="C166" s="32">
-        <v>34</v>
+        <v>10404</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="37" t="s">
         <v>285</v>
       </c>
-      <c r="B167" s="34" t="s">
-        <v>314</v>
+      <c r="B167" s="38">
+        <v>44179</v>
       </c>
       <c r="C167" s="32">
-        <v>69</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="37" t="s">
         <v>285</v>
       </c>
-      <c r="B168" s="34" t="s">
-        <v>315</v>
+      <c r="B168" s="38">
+        <v>44180</v>
       </c>
       <c r="C168" s="32">
-        <v>56</v>
+        <v>7</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="37" t="s">
         <v>285</v>
       </c>
-      <c r="B169" s="34" t="s">
-        <v>316</v>
+      <c r="B169" s="38">
+        <v>44181</v>
       </c>
       <c r="C169" s="32">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="37" t="s">
         <v>285</v>
       </c>
-      <c r="B170" s="34" t="s">
-        <v>317</v>
+      <c r="B170" s="38">
+        <v>44182</v>
       </c>
       <c r="C170" s="32">
-        <v>89</v>
+        <v>69</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="37" t="s">
         <v>285</v>
       </c>
-      <c r="B171" s="34" t="s">
-        <v>318</v>
+      <c r="B171" s="38">
+        <v>44183</v>
       </c>
       <c r="C171" s="32">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="37" t="s">
         <v>285</v>
       </c>
-      <c r="B172" s="34" t="s">
-        <v>319</v>
+      <c r="B172" s="38">
+        <v>44184</v>
       </c>
       <c r="C172" s="32">
-        <v>157</v>
+        <v>47</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="37" t="s">
         <v>285</v>
       </c>
-      <c r="B173" s="34" t="s">
-        <v>320</v>
+      <c r="B173" s="38">
+        <v>44185</v>
       </c>
       <c r="C173" s="32">
-        <v>581</v>
+        <v>89</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="37" t="s">
         <v>285</v>
       </c>
-      <c r="B174" s="34" t="s">
-        <v>321</v>
+      <c r="B174" s="38">
+        <v>44186</v>
       </c>
       <c r="C174" s="32">
-        <v>409</v>
+        <v>58</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="37" t="s">
         <v>285</v>
       </c>
-      <c r="B175" s="34" t="s">
-        <v>322</v>
+      <c r="B175" s="38">
+        <v>44187</v>
       </c>
       <c r="C175" s="32">
-        <v>57</v>
+        <v>157</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="37" t="s">
         <v>285</v>
       </c>
-      <c r="B176" s="34" t="s">
-        <v>323</v>
+      <c r="B176" s="38">
+        <v>44188</v>
       </c>
       <c r="C176" s="32">
-        <v>507</v>
+        <v>581</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="37" t="s">
         <v>285</v>
       </c>
-      <c r="B177" s="34" t="s">
-        <v>324</v>
+      <c r="B177" s="38">
+        <v>44189</v>
       </c>
       <c r="C177" s="32">
-        <v>367</v>
+        <v>409</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="37" t="s">
         <v>285</v>
       </c>
-      <c r="B178" s="34" t="s">
-        <v>325</v>
+      <c r="B178" s="38">
+        <v>44190</v>
       </c>
       <c r="C178" s="32">
-        <v>2711</v>
+        <v>57</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="37" t="s">
         <v>285</v>
       </c>
-      <c r="B179" s="34" t="s">
-        <v>326</v>
+      <c r="B179" s="38">
+        <v>44191</v>
       </c>
       <c r="C179" s="32">
-        <v>5501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="37" t="s">
         <v>285</v>
       </c>
-      <c r="B180" s="34" t="s">
-        <v>327</v>
+      <c r="B180" s="38">
+        <v>44192</v>
       </c>
       <c r="C180" s="32">
-        <v>7172</v>
+        <v>367</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="37" t="s">
         <v>285</v>
       </c>
-      <c r="B181" s="34" t="s">
-        <v>328</v>
+      <c r="B181" s="38">
+        <v>44193</v>
       </c>
       <c r="C181" s="32">
-        <v>3205</v>
+        <v>2711</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="37" t="s">
         <v>285</v>
       </c>
-      <c r="B182" s="34" t="s">
-        <v>329</v>
+      <c r="B182" s="38">
+        <v>44194</v>
       </c>
       <c r="C182" s="32">
-        <v>409</v>
+        <v>5501</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="37" t="s">
         <v>285</v>
       </c>
-      <c r="B183" s="34" t="s">
-        <v>330</v>
+      <c r="B183" s="38">
+        <v>44195</v>
       </c>
       <c r="C183" s="32">
-        <v>2045</v>
+        <v>7191</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="37" t="s">
         <v>285</v>
       </c>
-      <c r="B184" s="34" t="s">
-        <v>331</v>
+      <c r="B184" s="38">
+        <v>44196</v>
       </c>
       <c r="C184" s="32">
-        <v>1239</v>
+        <v>3210</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="37" t="s">
         <v>285</v>
       </c>
-      <c r="B185" s="34" t="s">
-        <v>332</v>
+      <c r="B185" s="38">
+        <v>44197</v>
       </c>
       <c r="C185" s="32">
-        <v>6656</v>
+        <v>409</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="37" t="s">
         <v>285</v>
       </c>
-      <c r="B186" s="34" t="s">
-        <v>333</v>
+      <c r="B186" s="38">
+        <v>44198</v>
       </c>
       <c r="C186" s="32">
-        <v>5837</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="37" t="s">
         <v>285</v>
       </c>
-      <c r="B187" s="34" t="s">
-        <v>334</v>
+      <c r="B187" s="38">
+        <v>44199</v>
       </c>
       <c r="C187" s="32">
-        <v>7594</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="188" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="37" t="s">
         <v>285</v>
       </c>
-      <c r="B188" s="34" t="s">
-        <v>335</v>
+      <c r="B188" s="38">
+        <v>44200</v>
       </c>
       <c r="C188" s="32">
-        <v>9445</v>
+        <v>6653</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="37" t="s">
         <v>285</v>
       </c>
-      <c r="B189" s="34" t="s">
-        <v>336</v>
+      <c r="B189" s="38">
+        <v>44201</v>
       </c>
       <c r="C189" s="32">
-        <v>8657</v>
+        <v>5851</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="37" t="s">
         <v>285</v>
       </c>
-      <c r="B190" s="34" t="s">
-        <v>337</v>
+      <c r="B190" s="38">
+        <v>44202</v>
       </c>
       <c r="C190" s="32">
-        <v>4735</v>
+        <v>7617</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="37" t="s">
         <v>285</v>
       </c>
-      <c r="B191" s="34" t="s">
-        <v>338</v>
+      <c r="B191" s="38">
+        <v>44203</v>
       </c>
       <c r="C191" s="32">
-        <v>1382</v>
+        <v>9465</v>
       </c>
     </row>
     <row r="192" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="37" t="s">
         <v>285</v>
       </c>
-      <c r="B192" s="34" t="s">
-        <v>339</v>
+      <c r="B192" s="38">
+        <v>44204</v>
       </c>
       <c r="C192" s="32">
-        <v>8386</v>
+        <v>8663</v>
       </c>
     </row>
     <row r="193" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="37" t="s">
         <v>285</v>
       </c>
-      <c r="B193" s="34" t="s">
-        <v>340</v>
+      <c r="B193" s="38">
+        <v>44205</v>
       </c>
       <c r="C193" s="32">
-        <v>9186</v>
+        <v>4745</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="37" t="s">
         <v>285</v>
       </c>
-      <c r="B194" s="34" t="s">
-        <v>341</v>
+      <c r="B194" s="38">
+        <v>44206</v>
       </c>
       <c r="C194" s="32">
-        <v>11481</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="195" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="37" t="s">
         <v>285</v>
       </c>
-      <c r="B195" s="34" t="s">
-        <v>342</v>
+      <c r="B195" s="38">
+        <v>44207</v>
       </c>
       <c r="C195" s="32">
-        <v>11907</v>
+        <v>8392</v>
       </c>
     </row>
     <row r="196" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="37" t="s">
         <v>285</v>
       </c>
-      <c r="B196" s="34" t="s">
-        <v>343</v>
+      <c r="B196" s="38">
+        <v>44208</v>
       </c>
       <c r="C196" s="32">
-        <v>8892</v>
+        <v>9206</v>
       </c>
     </row>
     <row r="197" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="37" t="s">
         <v>285</v>
       </c>
-      <c r="B197" s="34" t="s">
-        <v>344</v>
+      <c r="B197" s="38">
+        <v>44209</v>
       </c>
       <c r="C197" s="32">
-        <v>5377</v>
+        <v>11488</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="37" t="s">
         <v>285</v>
       </c>
-      <c r="B198" s="34" t="s">
-        <v>345</v>
+      <c r="B198" s="38">
+        <v>44210</v>
       </c>
       <c r="C198" s="32">
-        <v>1682</v>
+        <v>11912</v>
       </c>
     </row>
     <row r="199" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="37" t="s">
         <v>285</v>
       </c>
-      <c r="B199" s="34" t="s">
-        <v>346</v>
+      <c r="B199" s="38">
+        <v>44211</v>
       </c>
       <c r="C199" s="32">
-        <v>5106</v>
+        <v>8914</v>
       </c>
     </row>
     <row r="200" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="37" t="s">
         <v>285</v>
       </c>
-      <c r="B200" s="34" t="s">
-        <v>347</v>
+      <c r="B200" s="38">
+        <v>44212</v>
       </c>
       <c r="C200" s="32">
-        <v>8753</v>
+        <v>5386</v>
       </c>
     </row>
     <row r="201" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="37" t="s">
         <v>285</v>
       </c>
-      <c r="B201" s="34" t="s">
-        <v>348</v>
+      <c r="B201" s="38">
+        <v>44213</v>
       </c>
       <c r="C201" s="32">
-        <v>10870</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="202" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="37" t="s">
         <v>285</v>
       </c>
-      <c r="B202" s="34" t="s">
-        <v>349</v>
+      <c r="B202" s="38">
+        <v>44214</v>
       </c>
       <c r="C202" s="32">
-        <v>10596</v>
+        <v>5122</v>
       </c>
     </row>
     <row r="203" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="37" t="s">
         <v>285</v>
       </c>
-      <c r="B203" s="34" t="s">
-        <v>350</v>
+      <c r="B203" s="38">
+        <v>44215</v>
       </c>
       <c r="C203" s="32">
-        <v>8425</v>
+        <v>8776</v>
       </c>
     </row>
     <row r="204" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="37" t="s">
         <v>285</v>
       </c>
-      <c r="B204" s="34" t="s">
-        <v>351</v>
+      <c r="B204" s="38">
+        <v>44216</v>
       </c>
       <c r="C204" s="32">
-        <v>5990</v>
+        <v>10889</v>
       </c>
     </row>
     <row r="205" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="37" t="s">
         <v>285</v>
       </c>
-      <c r="B205" s="34" t="s">
-        <v>352</v>
+      <c r="B205" s="38">
+        <v>44217</v>
       </c>
       <c r="C205" s="32">
-        <v>1951</v>
+        <v>10602</v>
       </c>
     </row>
     <row r="206" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="37" t="s">
         <v>285</v>
       </c>
-      <c r="B206" s="34" t="s">
-        <v>353</v>
+      <c r="B206" s="38">
+        <v>44218</v>
       </c>
       <c r="C206" s="32">
-        <v>8819</v>
+        <v>8431</v>
       </c>
     </row>
     <row r="207" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="37" t="s">
         <v>285</v>
       </c>
-      <c r="B207" s="34" t="s">
-        <v>354</v>
+      <c r="B207" s="38">
+        <v>44219</v>
       </c>
       <c r="C207" s="32">
-        <v>11999</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="208" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="37" t="s">
         <v>285</v>
       </c>
-      <c r="B208" s="34" t="s">
-        <v>355</v>
+      <c r="B208" s="38">
+        <v>44220</v>
       </c>
       <c r="C208" s="32">
-        <v>13737</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="209" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="37" t="s">
         <v>285</v>
       </c>
-      <c r="B209" s="34" t="s">
-        <v>356</v>
+      <c r="B209" s="38">
+        <v>44221</v>
       </c>
       <c r="C209" s="32">
-        <v>14230</v>
+        <v>8847</v>
       </c>
     </row>
     <row r="210" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="37" t="s">
         <v>285</v>
       </c>
-      <c r="B210" s="34" t="s">
-        <v>357</v>
+      <c r="B210" s="38">
+        <v>44222</v>
       </c>
       <c r="C210" s="32">
-        <v>13250</v>
+        <v>12651</v>
       </c>
     </row>
     <row r="211" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="37" t="s">
         <v>285</v>
       </c>
-      <c r="B211" s="34" t="s">
-        <v>358</v>
+      <c r="B211" s="38">
+        <v>44223</v>
       </c>
       <c r="C211" s="32">
-        <v>6566</v>
+        <v>14585</v>
       </c>
     </row>
     <row r="212" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="37" t="s">
         <v>285</v>
       </c>
-      <c r="B212" s="34" t="s">
-        <v>359</v>
+      <c r="B212" s="38">
+        <v>44224</v>
       </c>
       <c r="C212" s="32">
-        <v>3179</v>
+        <v>15207</v>
       </c>
     </row>
     <row r="213" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="37" t="s">
         <v>285</v>
       </c>
-      <c r="B213" s="34" t="s">
-        <v>360</v>
+      <c r="B213" s="38">
+        <v>44225</v>
       </c>
       <c r="C213" s="32">
-        <v>11500</v>
+        <v>13285</v>
       </c>
     </row>
     <row r="214" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="37" t="s">
         <v>285</v>
       </c>
-      <c r="B214" s="34" t="s">
-        <v>361</v>
+      <c r="B214" s="38">
+        <v>44226</v>
       </c>
       <c r="C214" s="32">
-        <v>12518</v>
+        <v>6602</v>
       </c>
     </row>
     <row r="215" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="37" t="s">
         <v>285</v>
       </c>
-      <c r="B215" s="34" t="s">
-        <v>362</v>
+      <c r="B215" s="38">
+        <v>44227</v>
       </c>
       <c r="C215" s="32">
-        <v>13963</v>
+        <v>3179</v>
       </c>
     </row>
     <row r="216" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="37" t="s">
         <v>285</v>
       </c>
-      <c r="B216" s="34" t="s">
-        <v>363</v>
+      <c r="B216" s="38">
+        <v>44228</v>
       </c>
       <c r="C216" s="32">
-        <v>10201</v>
+        <v>11679</v>
       </c>
     </row>
     <row r="217" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="37" t="s">
         <v>285</v>
       </c>
-      <c r="B217" s="34" t="s">
-        <v>364</v>
+      <c r="B217" s="38">
+        <v>44229</v>
       </c>
       <c r="C217" s="32">
-        <v>6131</v>
+        <v>13910</v>
       </c>
     </row>
     <row r="218" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="37" t="s">
-        <v>286</v>
-      </c>
-      <c r="B218" s="34" t="s">
-        <v>312</v>
+        <v>285</v>
+      </c>
+      <c r="B218" s="38">
+        <v>44230</v>
       </c>
       <c r="C218" s="32">
-        <v>2</v>
+        <v>15292</v>
       </c>
     </row>
     <row r="219" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="37" t="s">
-        <v>286</v>
-      </c>
-      <c r="B219" s="34" t="s">
-        <v>313</v>
+        <v>285</v>
+      </c>
+      <c r="B219" s="38">
+        <v>44231</v>
       </c>
       <c r="C219" s="32">
-        <v>5</v>
+        <v>12788</v>
       </c>
     </row>
     <row r="220" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="37" t="s">
-        <v>286</v>
-      </c>
-      <c r="B220" s="34" t="s">
-        <v>314</v>
+        <v>285</v>
+      </c>
+      <c r="B220" s="38">
+        <v>44232</v>
       </c>
       <c r="C220" s="32">
-        <v>13</v>
+        <v>8741</v>
       </c>
     </row>
     <row r="221" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="37" t="s">
-        <v>286</v>
-      </c>
-      <c r="B221" s="34" t="s">
-        <v>315</v>
+        <v>285</v>
+      </c>
+      <c r="B221" s="38">
+        <v>44233</v>
       </c>
       <c r="C221" s="32">
-        <v>40</v>
+        <v>3006</v>
       </c>
     </row>
     <row r="222" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="37" t="s">
         <v>286</v>
       </c>
-      <c r="B222" s="34" t="s">
-        <v>316</v>
+      <c r="B222" s="38">
+        <v>44180</v>
       </c>
       <c r="C222" s="32">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="37" t="s">
         <v>286</v>
       </c>
-      <c r="B223" s="34" t="s">
-        <v>317</v>
+      <c r="B223" s="38">
+        <v>44181</v>
       </c>
       <c r="C223" s="32">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="224" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="37" t="s">
         <v>286</v>
       </c>
-      <c r="B224" s="34" t="s">
-        <v>318</v>
+      <c r="B224" s="38">
+        <v>44182</v>
       </c>
       <c r="C224" s="32">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="225" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="37" t="s">
         <v>286</v>
       </c>
-      <c r="B225" s="34" t="s">
-        <v>319</v>
+      <c r="B225" s="38">
+        <v>44183</v>
       </c>
       <c r="C225" s="32">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="226" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="37" t="s">
         <v>286</v>
       </c>
-      <c r="B226" s="34" t="s">
-        <v>320</v>
+      <c r="B226" s="38">
+        <v>44184</v>
       </c>
       <c r="C226" s="32">
-        <v>46</v>
+        <v>14</v>
       </c>
     </row>
     <row r="227" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="37" t="s">
         <v>286</v>
       </c>
-      <c r="B227" s="34" t="s">
-        <v>321</v>
+      <c r="B227" s="38">
+        <v>44185</v>
       </c>
       <c r="C227" s="32">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="228" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="37" t="s">
         <v>286</v>
       </c>
-      <c r="B228" s="34" t="s">
-        <v>322</v>
+      <c r="B228" s="38">
+        <v>44186</v>
       </c>
       <c r="C228" s="32">
-        <v>3</v>
+        <v>24</v>
       </c>
     </row>
     <row r="229" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="37" t="s">
         <v>286</v>
       </c>
-      <c r="B229" s="34" t="s">
-        <v>323</v>
+      <c r="B229" s="38">
+        <v>44187</v>
       </c>
       <c r="C229" s="32">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="230" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="37" t="s">
         <v>286</v>
       </c>
-      <c r="B230" s="34" t="s">
-        <v>324</v>
+      <c r="B230" s="38">
+        <v>44188</v>
       </c>
       <c r="C230" s="32">
-        <v>9</v>
+        <v>46</v>
       </c>
     </row>
     <row r="231" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="37" t="s">
         <v>286</v>
       </c>
-      <c r="B231" s="34" t="s">
-        <v>325</v>
+      <c r="B231" s="38">
+        <v>44189</v>
       </c>
       <c r="C231" s="32">
-        <v>57</v>
+        <v>14</v>
       </c>
     </row>
     <row r="232" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="37" t="s">
         <v>286</v>
       </c>
-      <c r="B232" s="34" t="s">
-        <v>326</v>
+      <c r="B232" s="38">
+        <v>44190</v>
       </c>
       <c r="C232" s="32">
-        <v>78</v>
+        <v>3</v>
       </c>
     </row>
     <row r="233" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="37" t="s">
         <v>286</v>
       </c>
-      <c r="B233" s="34" t="s">
-        <v>327</v>
+      <c r="B233" s="38">
+        <v>44191</v>
       </c>
       <c r="C233" s="32">
-        <v>86</v>
+        <v>18</v>
       </c>
     </row>
     <row r="234" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="37" t="s">
         <v>286</v>
       </c>
-      <c r="B234" s="34" t="s">
-        <v>328</v>
+      <c r="B234" s="38">
+        <v>44192</v>
       </c>
       <c r="C234" s="32">
-        <v>57</v>
+        <v>9</v>
       </c>
     </row>
     <row r="235" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="37" t="s">
         <v>286</v>
       </c>
-      <c r="B235" s="34" t="s">
-        <v>329</v>
+      <c r="B235" s="38">
+        <v>44193</v>
       </c>
       <c r="C235" s="32">
-        <v>7</v>
+        <v>57</v>
       </c>
     </row>
     <row r="236" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="37" t="s">
         <v>286</v>
       </c>
-      <c r="B236" s="34" t="s">
-        <v>330</v>
+      <c r="B236" s="38">
+        <v>44194</v>
       </c>
       <c r="C236" s="32">
-        <v>17</v>
+        <v>78</v>
       </c>
     </row>
     <row r="237" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="37" t="s">
         <v>286</v>
       </c>
-      <c r="B237" s="34" t="s">
-        <v>331</v>
+      <c r="B237" s="38">
+        <v>44195</v>
       </c>
       <c r="C237" s="32">
-        <v>13</v>
+        <v>86</v>
       </c>
     </row>
     <row r="238" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="37" t="s">
         <v>286</v>
       </c>
-      <c r="B238" s="34" t="s">
-        <v>332</v>
+      <c r="B238" s="38">
+        <v>44196</v>
       </c>
       <c r="C238" s="32">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="239" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="37" t="s">
         <v>286</v>
       </c>
-      <c r="B239" s="34" t="s">
-        <v>333</v>
+      <c r="B239" s="38">
+        <v>44197</v>
       </c>
       <c r="C239" s="32">
-        <v>60</v>
+        <v>7</v>
       </c>
     </row>
     <row r="240" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="37" t="s">
         <v>286</v>
       </c>
-      <c r="B240" s="34" t="s">
-        <v>334</v>
+      <c r="B240" s="38">
+        <v>44198</v>
       </c>
       <c r="C240" s="32">
-        <v>41</v>
+        <v>17</v>
       </c>
     </row>
     <row r="241" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="37" t="s">
         <v>286</v>
       </c>
-      <c r="B241" s="34" t="s">
-        <v>335</v>
+      <c r="B241" s="38">
+        <v>44199</v>
       </c>
       <c r="C241" s="32">
-        <v>56</v>
+        <v>13</v>
       </c>
     </row>
     <row r="242" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="37" t="s">
         <v>286</v>
       </c>
-      <c r="B242" s="34" t="s">
-        <v>336</v>
+      <c r="B242" s="38">
+        <v>44200</v>
       </c>
       <c r="C242" s="32">
-        <v>34</v>
+        <v>50</v>
       </c>
     </row>
     <row r="243" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="37" t="s">
         <v>286</v>
       </c>
-      <c r="B243" s="34" t="s">
-        <v>337</v>
+      <c r="B243" s="38">
+        <v>44201</v>
       </c>
       <c r="C243" s="32">
-        <v>16</v>
+        <v>62</v>
       </c>
     </row>
     <row r="244" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="37" t="s">
         <v>286</v>
       </c>
-      <c r="B244" s="34" t="s">
-        <v>338</v>
+      <c r="B244" s="38">
+        <v>44202</v>
       </c>
       <c r="C244" s="32">
-        <v>3</v>
+        <v>41</v>
       </c>
     </row>
     <row r="245" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="37" t="s">
         <v>286</v>
       </c>
-      <c r="B245" s="34" t="s">
-        <v>339</v>
+      <c r="B245" s="38">
+        <v>44203</v>
       </c>
       <c r="C245" s="32">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="246" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="37" t="s">
         <v>286</v>
       </c>
-      <c r="B246" s="34" t="s">
-        <v>340</v>
+      <c r="B246" s="38">
+        <v>44204</v>
       </c>
       <c r="C246" s="32">
-        <v>78</v>
+        <v>33</v>
       </c>
     </row>
     <row r="247" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="37" t="s">
         <v>286</v>
       </c>
-      <c r="B247" s="34" t="s">
-        <v>341</v>
+      <c r="B247" s="38">
+        <v>44205</v>
       </c>
       <c r="C247" s="32">
-        <v>87</v>
+        <v>16</v>
       </c>
     </row>
     <row r="248" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="37" t="s">
         <v>286</v>
       </c>
-      <c r="B248" s="34" t="s">
-        <v>342</v>
+      <c r="B248" s="38">
+        <v>44206</v>
       </c>
       <c r="C248" s="32">
-        <v>56</v>
+        <v>3</v>
       </c>
     </row>
     <row r="249" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="37" t="s">
         <v>286</v>
       </c>
-      <c r="B249" s="34" t="s">
-        <v>343</v>
+      <c r="B249" s="38">
+        <v>44207</v>
       </c>
       <c r="C249" s="32">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="250" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="37" t="s">
         <v>286</v>
       </c>
-      <c r="B250" s="34" t="s">
-        <v>344</v>
+      <c r="B250" s="38">
+        <v>44208</v>
       </c>
       <c r="C250" s="32">
-        <v>24</v>
+        <v>78</v>
       </c>
     </row>
     <row r="251" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="37" t="s">
         <v>286</v>
       </c>
-      <c r="B251" s="34" t="s">
-        <v>345</v>
+      <c r="B251" s="38">
+        <v>44209</v>
       </c>
       <c r="C251" s="32">
-        <v>4</v>
+        <v>87</v>
       </c>
     </row>
     <row r="252" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="37" t="s">
         <v>286</v>
       </c>
-      <c r="B252" s="34" t="s">
-        <v>346</v>
+      <c r="B252" s="38">
+        <v>44210</v>
       </c>
       <c r="C252" s="32">
-        <v>19</v>
+        <v>56</v>
       </c>
     </row>
     <row r="253" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="37" t="s">
         <v>286</v>
       </c>
-      <c r="B253" s="34" t="s">
-        <v>347</v>
+      <c r="B253" s="38">
+        <v>44211</v>
       </c>
       <c r="C253" s="32">
-        <v>47</v>
+        <v>62</v>
       </c>
     </row>
     <row r="254" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="37" t="s">
         <v>286</v>
       </c>
-      <c r="B254" s="34" t="s">
-        <v>348</v>
+      <c r="B254" s="38">
+        <v>44212</v>
       </c>
       <c r="C254" s="32">
-        <v>64</v>
+        <v>24</v>
       </c>
     </row>
     <row r="255" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="37" t="s">
         <v>286</v>
       </c>
-      <c r="B255" s="34" t="s">
-        <v>349</v>
+      <c r="B255" s="38">
+        <v>44213</v>
       </c>
       <c r="C255" s="32">
-        <v>69</v>
+        <v>4</v>
       </c>
     </row>
     <row r="256" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="37" t="s">
         <v>286</v>
       </c>
-      <c r="B256" s="34" t="s">
-        <v>350</v>
+      <c r="B256" s="38">
+        <v>44214</v>
       </c>
       <c r="C256" s="32">
-        <v>64</v>
+        <v>19</v>
       </c>
     </row>
     <row r="257" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="37" t="s">
         <v>286</v>
       </c>
-      <c r="B257" s="34" t="s">
-        <v>351</v>
+      <c r="B257" s="38">
+        <v>44215</v>
       </c>
       <c r="C257" s="32">
-        <v>33</v>
+        <v>47</v>
       </c>
     </row>
     <row r="258" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="37" t="s">
         <v>286</v>
       </c>
-      <c r="B258" s="34" t="s">
-        <v>352</v>
+      <c r="B258" s="38">
+        <v>44216</v>
       </c>
       <c r="C258" s="32">
-        <v>5</v>
+        <v>64</v>
       </c>
     </row>
     <row r="259" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="37" t="s">
         <v>286</v>
       </c>
-      <c r="B259" s="34" t="s">
-        <v>353</v>
+      <c r="B259" s="38">
+        <v>44217</v>
       </c>
       <c r="C259" s="32">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="260" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="37" t="s">
         <v>286</v>
       </c>
-      <c r="B260" s="34" t="s">
-        <v>354</v>
+      <c r="B260" s="38">
+        <v>44218</v>
       </c>
       <c r="C260" s="32">
-        <v>55</v>
+        <v>64</v>
       </c>
     </row>
     <row r="261" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="37" t="s">
         <v>286</v>
       </c>
-      <c r="B261" s="34" t="s">
-        <v>355</v>
+      <c r="B261" s="38">
+        <v>44219</v>
       </c>
       <c r="C261" s="32">
-        <v>74</v>
+        <v>33</v>
       </c>
     </row>
     <row r="262" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="37" t="s">
         <v>286</v>
       </c>
-      <c r="B262" s="34" t="s">
-        <v>356</v>
+      <c r="B262" s="38">
+        <v>44220</v>
       </c>
       <c r="C262" s="32">
-        <v>62</v>
+        <v>5</v>
       </c>
     </row>
     <row r="263" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="37" t="s">
         <v>286</v>
       </c>
-      <c r="B263" s="34" t="s">
-        <v>357</v>
+      <c r="B263" s="38">
+        <v>44221</v>
       </c>
       <c r="C263" s="32">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="264" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="37" t="s">
         <v>286</v>
       </c>
-      <c r="B264" s="34" t="s">
-        <v>358</v>
+      <c r="B264" s="38">
+        <v>44222</v>
       </c>
       <c r="C264" s="32">
-        <v>23</v>
+        <v>55</v>
       </c>
     </row>
     <row r="265" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="37" t="s">
         <v>286</v>
       </c>
-      <c r="B265" s="34" t="s">
-        <v>359</v>
+      <c r="B265" s="38">
+        <v>44223</v>
       </c>
       <c r="C265" s="32">
-        <v>3</v>
+        <v>76</v>
       </c>
     </row>
     <row r="266" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="37" t="s">
         <v>286</v>
       </c>
-      <c r="B266" s="34" t="s">
-        <v>360</v>
+      <c r="B266" s="38">
+        <v>44224</v>
       </c>
       <c r="C266" s="32">
-        <v>50</v>
+        <v>62</v>
       </c>
     </row>
     <row r="267" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="37" t="s">
         <v>286</v>
       </c>
-      <c r="B267" s="34" t="s">
-        <v>361</v>
+      <c r="B267" s="38">
+        <v>44225</v>
       </c>
       <c r="C267" s="32">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="268" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="37" t="s">
         <v>286</v>
       </c>
-      <c r="B268" s="34" t="s">
-        <v>362</v>
+      <c r="B268" s="38">
+        <v>44226</v>
       </c>
       <c r="C268" s="32">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="269" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="37" t="s">
         <v>286</v>
       </c>
-      <c r="B269" s="34" t="s">
-        <v>363</v>
+      <c r="B269" s="38">
+        <v>44227</v>
       </c>
       <c r="C269" s="32">
-        <v>59</v>
+        <v>3</v>
       </c>
     </row>
     <row r="270" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="37" t="s">
         <v>286</v>
       </c>
-      <c r="B270" s="34" t="s">
-        <v>364</v>
+      <c r="B270" s="38">
+        <v>44228</v>
       </c>
       <c r="C270" s="32">
-        <v>45</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A271" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="B271" s="39">
+        <v>44229</v>
+      </c>
+      <c r="C271" s="36">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A272" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="B272" s="39">
+        <v>44230</v>
+      </c>
+      <c r="C272" s="36">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A273" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="B273" s="39">
+        <v>44231</v>
+      </c>
+      <c r="C273" s="36">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A274" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="B274" s="39">
+        <v>44232</v>
+      </c>
+      <c r="C274" s="36">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A275" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="B275" s="39">
+        <v>44233</v>
+      </c>
+      <c r="C275" s="36">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
